--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E970F820-8EE6-49FA-8F68-B925C32EA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EC12A-1B08-4188-94AE-5A96D2D60A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="243">
   <si>
     <t>Instruction</t>
   </si>
@@ -768,9 +768,6 @@
   <si>
     <t>FCmd_ZERO</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
@@ -1408,43 +1405,43 @@
   </sheetPr>
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.86328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.3984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.86328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.73046875" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.3984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.73046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="13.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -1665,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -1791,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -1917,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -2043,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -2169,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -2295,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -2421,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -2547,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -2673,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -2799,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -2925,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -3051,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -3177,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -3303,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -3429,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -3555,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -3681,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -3807,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -3933,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -4059,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -4185,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -4311,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -4437,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -4563,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -4689,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -4815,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -4941,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -5067,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -5193,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -5319,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -5445,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -5571,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -5697,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -5823,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -5949,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -6075,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -6201,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -6327,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -6453,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -6579,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -6705,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -6831,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -6957,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -7083,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -7209,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -7335,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -7461,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -7587,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -7713,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -7839,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -7965,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -8091,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="str">
         <f>ALU!A54</f>
         <v>OpCMP_DT</v>
@@ -8217,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -8343,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -8469,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -8595,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -8721,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -8847,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -8973,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -9099,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -9225,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -9351,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -9477,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -9603,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -9729,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -9855,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -9981,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -10107,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -10233,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -10359,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -10485,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -10611,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -10737,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -10863,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -10989,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -11115,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -11241,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -11367,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -11493,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -11619,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -11745,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -11871,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -11997,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -12123,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -12249,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -12375,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -12501,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -12627,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -12753,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -12879,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -13005,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -13131,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -13257,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -13383,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -13498,7 +13495,7 @@
       </c>
       <c r="AC96" s="8" t="str">
         <f>IO!B96</f>
-        <v xml:space="preserve"> </v>
+        <v>Idle</v>
       </c>
       <c r="AD96" s="7">
         <f>IO!C96</f>
@@ -13509,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -13635,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -13761,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -13887,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -14013,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -14139,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -14265,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -14391,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -14517,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -14643,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -14769,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -14895,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -15021,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -15147,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -15273,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -15399,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="str">
         <f>ALU!A112</f>
         <v>NOP</v>
@@ -15525,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="str">
         <f>ALU!A113</f>
         <v>RTE</v>
@@ -15651,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="str">
         <f>ALU!A114</f>
         <v>SETT</v>
@@ -15777,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="str">
         <f>ALU!A115</f>
         <v>STC_SR_To_Rn</v>
@@ -15903,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="str">
         <f>ALU!A116</f>
         <v>STC_GBR_To_Rn</v>
@@ -16029,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="str">
         <f>ALU!A117</f>
         <v>STC_VBR_To_Rn</v>
@@ -16155,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="str">
         <f>ALU!A118</f>
         <v>STCL_SR_To_At_Dec_Rn</v>
@@ -16281,7 +16278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="str">
         <f>ALU!A119</f>
         <v>STCL_GBR_To_At_Dec_Rn</v>
@@ -16407,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="str">
         <f>ALU!A120</f>
         <v>STCL_VBR_To_At_Dec_Rn</v>
@@ -16533,7 +16530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="str">
         <f>ALU!A121</f>
         <v>STS_PR_To_Rn</v>
@@ -16659,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="str">
         <f>ALU!A122</f>
         <v>STSL_PR_To_At_Dec_Rn</v>
@@ -16785,7 +16782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="str">
         <f>ALU!A123</f>
         <v>TRAPA</v>
@@ -16928,20 +16925,20 @@
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16970,7 +16967,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -16999,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>146</v>
       </c>
@@ -17028,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>147</v>
       </c>
@@ -17057,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
@@ -17086,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
@@ -17115,7 +17112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
@@ -17144,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
@@ -17173,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
@@ -17202,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
@@ -17231,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>184</v>
       </c>
@@ -17260,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>16</v>
       </c>
@@ -17289,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>17</v>
       </c>
@@ -17318,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
@@ -17347,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -17376,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>20</v>
       </c>
@@ -17405,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>21</v>
       </c>
@@ -17434,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>22</v>
       </c>
@@ -17463,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>23</v>
       </c>
@@ -17492,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>24</v>
       </c>
@@ -17521,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>25</v>
       </c>
@@ -17550,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>26</v>
       </c>
@@ -17579,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>27</v>
       </c>
@@ -17608,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>28</v>
       </c>
@@ -17637,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>29</v>
       </c>
@@ -17666,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>30</v>
       </c>
@@ -17695,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>31</v>
       </c>
@@ -17724,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>32</v>
       </c>
@@ -17753,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>33</v>
       </c>
@@ -17782,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>34</v>
       </c>
@@ -17811,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -17840,7 +17837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -17869,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>37</v>
       </c>
@@ -17898,7 +17895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>38</v>
       </c>
@@ -17927,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>39</v>
       </c>
@@ -17956,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>40</v>
       </c>
@@ -17985,7 +17982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>41</v>
       </c>
@@ -18014,7 +18011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>42</v>
       </c>
@@ -18043,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>43</v>
       </c>
@@ -18072,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>44</v>
       </c>
@@ -18101,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -18130,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -18159,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -18188,7 +18185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -18217,7 +18214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -18246,7 +18243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -18275,7 +18272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -18304,7 +18301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -18333,7 +18330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -18362,7 +18359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -18391,7 +18388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -18420,7 +18417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -18449,7 +18446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -18478,7 +18475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -18507,7 +18504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -18536,7 +18533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>60</v>
       </c>
@@ -18565,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>61</v>
       </c>
@@ -18594,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>62</v>
       </c>
@@ -18623,7 +18620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>63</v>
       </c>
@@ -18652,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>64</v>
       </c>
@@ -18681,7 +18678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>65</v>
       </c>
@@ -18710,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>66</v>
       </c>
@@ -18739,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>67</v>
       </c>
@@ -18768,7 +18765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>68</v>
       </c>
@@ -18797,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>70</v>
       </c>
@@ -18855,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
@@ -18884,7 +18881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
@@ -18913,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
@@ -18942,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
@@ -18971,7 +18968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
@@ -19000,7 +18997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
@@ -19029,7 +19026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
@@ -19058,7 +19055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
@@ -19087,7 +19084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
@@ -19116,7 +19113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
@@ -19145,7 +19142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
@@ -19174,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>83</v>
       </c>
@@ -19203,7 +19200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>84</v>
       </c>
@@ -19232,7 +19229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>85</v>
       </c>
@@ -19261,7 +19258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -19290,7 +19287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>87</v>
       </c>
@@ -19319,7 +19316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
@@ -19348,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
@@ -19377,7 +19374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
@@ -19406,7 +19403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>91</v>
       </c>
@@ -19435,7 +19432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>92</v>
       </c>
@@ -19464,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>93</v>
       </c>
@@ -19493,7 +19490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>94</v>
       </c>
@@ -19522,7 +19519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>95</v>
       </c>
@@ -19551,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>96</v>
       </c>
@@ -19580,7 +19577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
@@ -19609,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>99</v>
       </c>
@@ -19638,7 +19635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>100</v>
       </c>
@@ -19667,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>102</v>
       </c>
@@ -19696,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>103</v>
       </c>
@@ -19725,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>104</v>
       </c>
@@ -19754,7 +19751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>105</v>
       </c>
@@ -19783,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>106</v>
       </c>
@@ -19812,7 +19809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>107</v>
       </c>
@@ -19841,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>108</v>
       </c>
@@ -19870,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>109</v>
       </c>
@@ -19899,7 +19896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>110</v>
       </c>
@@ -19928,7 +19925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>111</v>
       </c>
@@ -19957,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>112</v>
       </c>
@@ -19986,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>113</v>
       </c>
@@ -20015,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>114</v>
       </c>
@@ -20044,7 +20041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>116</v>
       </c>
@@ -20073,7 +20070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>117</v>
       </c>
@@ -20102,7 +20099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>118</v>
       </c>
@@ -20131,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>119</v>
       </c>
@@ -20160,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>120</v>
       </c>
@@ -20189,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>121</v>
       </c>
@@ -20218,7 +20215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>123</v>
       </c>
@@ -20247,7 +20244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>124</v>
       </c>
@@ -20276,7 +20273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>125</v>
       </c>
@@ -20305,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>126</v>
       </c>
@@ -20334,7 +20331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>127</v>
       </c>
@@ -20363,7 +20360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>128</v>
       </c>
@@ -20392,7 +20389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>129</v>
       </c>
@@ -20421,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>130</v>
       </c>
@@ -20450,7 +20447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>131</v>
       </c>
@@ -20479,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>132</v>
       </c>
@@ -20525,16 +20522,16 @@
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20551,7 +20548,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -20568,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -20585,7 +20582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -20602,7 +20599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -20619,7 +20616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -20636,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -20653,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -20670,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -20687,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -20704,7 +20701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>184</v>
       </c>
@@ -20721,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -20738,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -20755,7 +20752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -20772,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -20789,7 +20786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -20806,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -20823,7 +20820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -20840,7 +20837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -20857,7 +20854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -20874,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -20891,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -20908,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -20925,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -20942,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -20959,7 +20956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -20976,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -20993,7 +20990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -21010,7 +21007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -21027,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -21044,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -21061,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -21078,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -21095,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -21112,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -21129,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -21146,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -21163,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -21180,7 +21177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -21197,7 +21194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -21214,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -21231,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -21248,7 +21245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -21265,7 +21262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -21282,7 +21279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -21299,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -21316,7 +21313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -21333,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -21350,7 +21347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -21367,7 +21364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -21384,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -21401,7 +21398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -21418,7 +21415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -21435,7 +21432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -21452,7 +21449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -21469,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>60</v>
       </c>
@@ -21486,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>61</v>
       </c>
@@ -21503,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>62</v>
       </c>
@@ -21520,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>63</v>
       </c>
@@ -21537,7 +21534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>64</v>
       </c>
@@ -21554,7 +21551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>65</v>
       </c>
@@ -21571,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>66</v>
       </c>
@@ -21588,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>67</v>
       </c>
@@ -21605,7 +21602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>68</v>
       </c>
@@ -21622,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>69</v>
       </c>
@@ -21639,7 +21636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>70</v>
       </c>
@@ -21656,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
@@ -21673,7 +21670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
@@ -21690,7 +21687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
@@ -21707,7 +21704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
@@ -21724,7 +21721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
@@ -21741,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
@@ -21758,7 +21755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
@@ -21775,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
@@ -21792,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
@@ -21809,7 +21806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
@@ -21826,7 +21823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
@@ -21843,7 +21840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>83</v>
       </c>
@@ -21860,7 +21857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>84</v>
       </c>
@@ -21877,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>85</v>
       </c>
@@ -21894,7 +21891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -21911,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>87</v>
       </c>
@@ -21928,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
@@ -21945,7 +21942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
@@ -21962,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
@@ -21979,7 +21976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>91</v>
       </c>
@@ -21996,7 +21993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>92</v>
       </c>
@@ -22013,7 +22010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>93</v>
       </c>
@@ -22030,7 +22027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>94</v>
       </c>
@@ -22047,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>95</v>
       </c>
@@ -22064,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>96</v>
       </c>
@@ -22081,7 +22078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
@@ -22098,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>99</v>
       </c>
@@ -22115,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>100</v>
       </c>
@@ -22132,7 +22129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>102</v>
       </c>
@@ -22149,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>103</v>
       </c>
@@ -22166,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>104</v>
       </c>
@@ -22183,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>105</v>
       </c>
@@ -22200,7 +22197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>106</v>
       </c>
@@ -22217,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>107</v>
       </c>
@@ -22234,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>108</v>
       </c>
@@ -22251,7 +22248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>109</v>
       </c>
@@ -22268,7 +22265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>110</v>
       </c>
@@ -22285,7 +22282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>111</v>
       </c>
@@ -22302,7 +22299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>112</v>
       </c>
@@ -22319,7 +22316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>113</v>
       </c>
@@ -22336,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>114</v>
       </c>
@@ -22353,7 +22350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>116</v>
       </c>
@@ -22370,7 +22367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>117</v>
       </c>
@@ -22387,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>118</v>
       </c>
@@ -22404,7 +22401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>119</v>
       </c>
@@ -22421,7 +22418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>120</v>
       </c>
@@ -22438,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>121</v>
       </c>
@@ -22455,7 +22452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>123</v>
       </c>
@@ -22472,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>124</v>
       </c>
@@ -22489,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>125</v>
       </c>
@@ -22506,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>126</v>
       </c>
@@ -22523,7 +22520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>127</v>
       </c>
@@ -22540,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>128</v>
       </c>
@@ -22557,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>129</v>
       </c>
@@ -22574,7 +22571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>130</v>
       </c>
@@ -22591,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>131</v>
       </c>
@@ -22608,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>132</v>
       </c>
@@ -22642,18 +22639,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22676,7 +22673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -22699,7 +22696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -22722,7 +22719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -22745,7 +22742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -22768,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -22791,7 +22788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -22814,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -22837,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -22860,7 +22857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -22883,7 +22880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -22906,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -22929,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -22952,7 +22949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -22975,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -22998,7 +22995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -23021,7 +23018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -23044,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -23067,7 +23064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -23090,7 +23087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -23113,7 +23110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -23136,7 +23133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -23159,7 +23156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -23182,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -23205,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -23228,7 +23225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -23251,7 +23248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -23274,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -23297,7 +23294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -23320,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -23343,7 +23340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -23366,7 +23363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -23389,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -23412,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -23435,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -23458,7 +23455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -23481,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -23504,7 +23501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -23527,7 +23524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -23550,7 +23547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -23573,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -23596,7 +23593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -23619,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -23642,7 +23639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -23665,7 +23662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -23688,7 +23685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -23711,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -23734,7 +23731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -23757,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -23780,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -23803,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -23826,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -23849,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -23872,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -23895,7 +23892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -23918,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>60</v>
       </c>
@@ -23941,7 +23938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>61</v>
       </c>
@@ -23964,7 +23961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>62</v>
       </c>
@@ -23987,7 +23984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>63</v>
       </c>
@@ -24010,7 +24007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>64</v>
       </c>
@@ -24033,7 +24030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>65</v>
       </c>
@@ -24056,7 +24053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>66</v>
       </c>
@@ -24079,7 +24076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>67</v>
       </c>
@@ -24102,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>68</v>
       </c>
@@ -24125,7 +24122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>69</v>
       </c>
@@ -24148,7 +24145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>70</v>
       </c>
@@ -24167,7 +24164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
@@ -24190,7 +24187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
@@ -24213,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
@@ -24236,7 +24233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
@@ -24255,7 +24252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
@@ -24274,7 +24271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
@@ -24297,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
@@ -24320,7 +24317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
@@ -24339,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
@@ -24362,7 +24359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
@@ -24385,7 +24382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
@@ -24404,7 +24401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>83</v>
       </c>
@@ -24427,7 +24424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>84</v>
       </c>
@@ -24450,7 +24447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>85</v>
       </c>
@@ -24473,7 +24470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -24496,7 +24493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>87</v>
       </c>
@@ -24519,7 +24516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
@@ -24542,7 +24539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
@@ -24565,7 +24562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
@@ -24588,7 +24585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>91</v>
       </c>
@@ -24611,7 +24608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>92</v>
       </c>
@@ -24634,7 +24631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>93</v>
       </c>
@@ -24657,7 +24654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>94</v>
       </c>
@@ -24680,7 +24677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>95</v>
       </c>
@@ -24703,7 +24700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>96</v>
       </c>
@@ -24726,7 +24723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
@@ -24749,7 +24746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>99</v>
       </c>
@@ -24772,7 +24769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>100</v>
       </c>
@@ -24795,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>102</v>
       </c>
@@ -24818,7 +24815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>103</v>
       </c>
@@ -24841,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>104</v>
       </c>
@@ -24864,7 +24861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>105</v>
       </c>
@@ -24887,7 +24884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>106</v>
       </c>
@@ -24910,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>107</v>
       </c>
@@ -24933,7 +24930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>108</v>
       </c>
@@ -24956,7 +24953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>109</v>
       </c>
@@ -24979,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>110</v>
       </c>
@@ -25002,7 +24999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>111</v>
       </c>
@@ -25025,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>112</v>
       </c>
@@ -25048,7 +25045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>113</v>
       </c>
@@ -25071,7 +25068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>114</v>
       </c>
@@ -25094,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>116</v>
       </c>
@@ -25117,7 +25114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>117</v>
       </c>
@@ -25140,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>118</v>
       </c>
@@ -25163,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>119</v>
       </c>
@@ -25186,7 +25183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>120</v>
       </c>
@@ -25209,7 +25206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>121</v>
       </c>
@@ -25228,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>123</v>
       </c>
@@ -25251,7 +25248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>124</v>
       </c>
@@ -25274,7 +25271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>125</v>
       </c>
@@ -25297,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>126</v>
       </c>
@@ -25320,7 +25317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>127</v>
       </c>
@@ -25343,7 +25340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>128</v>
       </c>
@@ -25366,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>129</v>
       </c>
@@ -25389,7 +25386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>130</v>
       </c>
@@ -25412,7 +25409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>131</v>
       </c>
@@ -25435,7 +25432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>132</v>
       </c>
@@ -25473,21 +25470,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25519,7 +25516,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -25551,7 +25548,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>146</v>
       </c>
@@ -25583,7 +25580,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>147</v>
       </c>
@@ -25615,7 +25612,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -25647,7 +25644,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -25679,7 +25676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -25711,7 +25708,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -25743,7 +25740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -25775,7 +25772,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -25807,7 +25804,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -25839,7 +25836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -25871,7 +25868,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -25903,7 +25900,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -25935,7 +25932,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -25967,7 +25964,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -25999,7 +25996,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -26031,7 +26028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -26063,7 +26060,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -26095,7 +26092,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -26127,7 +26124,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -26159,7 +26156,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -26191,7 +26188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -26223,7 +26220,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -26255,7 +26252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -26287,7 +26284,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -26319,7 +26316,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -26351,7 +26348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -26383,7 +26380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -26415,7 +26412,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -26447,7 +26444,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -26479,7 +26476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -26511,7 +26508,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -26543,7 +26540,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -26575,7 +26572,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -26607,7 +26604,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -26639,7 +26636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -26671,7 +26668,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -26703,7 +26700,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -26735,7 +26732,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -26767,7 +26764,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -26799,7 +26796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -26831,7 +26828,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -26863,7 +26860,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -26895,7 +26892,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -26927,7 +26924,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -26959,7 +26956,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -26991,7 +26988,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -27023,7 +27020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -27055,7 +27052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -27087,7 +27084,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -27119,7 +27116,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -27151,7 +27148,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -27183,7 +27180,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -27215,7 +27212,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -27247,7 +27244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>60</v>
       </c>
@@ -27279,7 +27276,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>61</v>
       </c>
@@ -27311,7 +27308,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>62</v>
       </c>
@@ -27343,7 +27340,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>63</v>
       </c>
@@ -27375,7 +27372,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>64</v>
       </c>
@@ -27407,7 +27404,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>65</v>
       </c>
@@ -27439,7 +27436,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>66</v>
       </c>
@@ -27471,7 +27468,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>67</v>
       </c>
@@ -27503,7 +27500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>68</v>
       </c>
@@ -27535,7 +27532,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>69</v>
       </c>
@@ -27567,7 +27564,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>70</v>
       </c>
@@ -27599,7 +27596,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
@@ -27631,7 +27628,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
@@ -27663,7 +27660,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
@@ -27695,7 +27692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
@@ -27727,7 +27724,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
@@ -27759,7 +27756,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
@@ -27791,7 +27788,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
@@ -27823,7 +27820,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
@@ -27855,7 +27852,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
@@ -27887,7 +27884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
@@ -27919,7 +27916,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
@@ -27951,7 +27948,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>83</v>
       </c>
@@ -27983,7 +27980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>84</v>
       </c>
@@ -28015,7 +28012,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>85</v>
       </c>
@@ -28047,7 +28044,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -28079,7 +28076,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>87</v>
       </c>
@@ -28111,7 +28108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
@@ -28143,7 +28140,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
@@ -28175,7 +28172,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
@@ -28207,7 +28204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>91</v>
       </c>
@@ -28239,7 +28236,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>92</v>
       </c>
@@ -28271,7 +28268,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>93</v>
       </c>
@@ -28303,7 +28300,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>94</v>
       </c>
@@ -28335,7 +28332,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>95</v>
       </c>
@@ -28367,7 +28364,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>96</v>
       </c>
@@ -28399,7 +28396,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
@@ -28431,7 +28428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>99</v>
       </c>
@@ -28463,7 +28460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>100</v>
       </c>
@@ -28495,7 +28492,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>102</v>
       </c>
@@ -28527,7 +28524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>103</v>
       </c>
@@ -28559,7 +28556,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>104</v>
       </c>
@@ -28591,7 +28588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>105</v>
       </c>
@@ -28623,7 +28620,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>106</v>
       </c>
@@ -28655,7 +28652,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>107</v>
       </c>
@@ -28687,7 +28684,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>108</v>
       </c>
@@ -28719,7 +28716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>109</v>
       </c>
@@ -28751,7 +28748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>110</v>
       </c>
@@ -28783,7 +28780,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>111</v>
       </c>
@@ -28803,7 +28800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>112</v>
       </c>
@@ -28823,7 +28820,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>113</v>
       </c>
@@ -28843,7 +28840,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>114</v>
       </c>
@@ -28865,7 +28862,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>116</v>
       </c>
@@ -28887,7 +28884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>117</v>
       </c>
@@ -28909,7 +28906,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>118</v>
       </c>
@@ -28929,7 +28926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>119</v>
       </c>
@@ -28947,7 +28944,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>120</v>
       </c>
@@ -28963,7 +28960,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>121</v>
       </c>
@@ -28979,7 +28976,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>123</v>
       </c>
@@ -28995,7 +28992,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>124</v>
       </c>
@@ -29011,7 +29008,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>125</v>
       </c>
@@ -29027,7 +29024,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>126</v>
       </c>
@@ -29043,7 +29040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>127</v>
       </c>
@@ -29059,7 +29056,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>128</v>
       </c>
@@ -29075,7 +29072,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>129</v>
       </c>
@@ -29091,7 +29088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>130</v>
       </c>
@@ -29107,7 +29104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>131</v>
       </c>
@@ -29123,7 +29120,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>132</v>
       </c>
@@ -29154,26 +29151,26 @@
   </sheetPr>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="78" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.73046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.73046875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29194,7 +29191,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -29215,7 +29212,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -29236,7 +29233,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -29257,7 +29254,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -29278,7 +29275,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -29299,7 +29296,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -29320,7 +29317,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -29341,7 +29338,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -29362,7 +29359,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -29383,7 +29380,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -29404,7 +29401,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -29425,7 +29422,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -29446,7 +29443,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -29467,7 +29464,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -29488,7 +29485,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -29509,7 +29506,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -29530,7 +29527,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -29551,7 +29548,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -29572,7 +29569,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -29593,7 +29590,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -29614,7 +29611,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -29635,7 +29632,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -29656,7 +29653,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -29677,7 +29674,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -29698,7 +29695,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -29719,7 +29716,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -29740,7 +29737,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -29761,7 +29758,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -29782,7 +29779,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -29803,7 +29800,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -29824,7 +29821,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -29845,7 +29842,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -29866,7 +29863,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -29887,7 +29884,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -29908,7 +29905,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -29929,7 +29926,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
@@ -29950,7 +29947,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -29971,7 +29968,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -29992,7 +29989,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -30013,7 +30010,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -30034,7 +30031,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -30055,7 +30052,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -30076,7 +30073,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -30097,7 +30094,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -30118,7 +30115,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -30139,7 +30136,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -30160,7 +30157,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -30181,7 +30178,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -30202,7 +30199,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -30223,7 +30220,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -30244,7 +30241,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -30265,7 +30262,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -30286,7 +30283,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -30307,7 +30304,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -30328,7 +30325,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>60</v>
       </c>
@@ -30349,7 +30346,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>61</v>
       </c>
@@ -30370,7 +30367,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>62</v>
       </c>
@@ -30391,7 +30388,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>63</v>
       </c>
@@ -30412,7 +30409,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>64</v>
       </c>
@@ -30433,7 +30430,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>65</v>
       </c>
@@ -30454,7 +30451,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>66</v>
       </c>
@@ -30475,7 +30472,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>67</v>
       </c>
@@ -30496,7 +30493,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>68</v>
       </c>
@@ -30517,7 +30514,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>69</v>
       </c>
@@ -30538,7 +30535,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>70</v>
       </c>
@@ -30559,7 +30556,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
@@ -30580,7 +30577,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
@@ -30601,7 +30598,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
@@ -30622,7 +30619,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
@@ -30643,7 +30640,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
@@ -30664,7 +30661,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
@@ -30685,7 +30682,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
@@ -30706,7 +30703,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
@@ -30727,7 +30724,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
@@ -30748,7 +30745,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
@@ -30769,7 +30766,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
@@ -30790,7 +30787,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>83</v>
       </c>
@@ -30811,7 +30808,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>84</v>
       </c>
@@ -30832,7 +30829,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>85</v>
       </c>
@@ -30853,7 +30850,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -30874,7 +30871,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>87</v>
       </c>
@@ -30895,7 +30892,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
@@ -30916,7 +30913,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
@@ -30937,7 +30934,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
@@ -30958,7 +30955,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>91</v>
       </c>
@@ -30979,7 +30976,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>92</v>
       </c>
@@ -31000,7 +30997,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>93</v>
       </c>
@@ -31021,7 +31018,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>94</v>
       </c>
@@ -31042,7 +31039,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>95</v>
       </c>
@@ -31063,7 +31060,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>96</v>
       </c>
@@ -31084,7 +31081,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
@@ -31105,7 +31102,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>99</v>
       </c>
@@ -31126,7 +31123,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>100</v>
       </c>
@@ -31147,7 +31144,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>102</v>
       </c>
@@ -31168,12 +31165,12 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>243</v>
+        <v>5</v>
       </c>
       <c r="C96" s="7">
         <v>0</v>
@@ -31189,7 +31186,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>104</v>
       </c>
@@ -31210,7 +31207,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>105</v>
       </c>
@@ -31231,7 +31228,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>106</v>
       </c>
@@ -31252,7 +31249,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>107</v>
       </c>
@@ -31273,7 +31270,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>108</v>
       </c>
@@ -31294,7 +31291,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>109</v>
       </c>
@@ -31315,7 +31312,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>110</v>
       </c>
@@ -31336,7 +31333,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>111</v>
       </c>
@@ -31357,7 +31354,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>112</v>
       </c>
@@ -31378,7 +31375,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>113</v>
       </c>
@@ -31399,7 +31396,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>114</v>
       </c>
@@ -31420,7 +31417,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>116</v>
       </c>
@@ -31441,7 +31438,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>117</v>
       </c>
@@ -31462,7 +31459,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>118</v>
       </c>
@@ -31483,7 +31480,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>119</v>
       </c>
@@ -31504,7 +31501,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>120</v>
       </c>
@@ -31525,7 +31522,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>121</v>
       </c>
@@ -31546,7 +31543,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>123</v>
       </c>
@@ -31567,7 +31564,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>124</v>
       </c>
@@ -31588,7 +31585,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>125</v>
       </c>
@@ -31609,7 +31606,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>126</v>
       </c>
@@ -31630,7 +31627,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>127</v>
       </c>
@@ -31651,7 +31648,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>128</v>
       </c>
@@ -31672,7 +31669,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>129</v>
       </c>
@@ -31693,7 +31690,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>130</v>
       </c>
@@ -31714,7 +31711,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>131</v>
       </c>
@@ -31735,7 +31732,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>132</v>
       </c>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC900A-1C37-4278-969E-4306F55F2AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CB72C-093F-4E71-96A9-A75CCD3D22A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="259">
   <si>
     <t>Instruction</t>
   </si>
@@ -808,6 +808,15 @@
   <si>
     <t>OpTRAPA</t>
   </si>
+  <si>
+    <t>Boot</t>
+  </si>
+  <si>
+    <t>OpBoot</t>
+  </si>
+  <si>
+    <t>PAU_OffsetZero</t>
+  </si>
 </sst>
 </file>
 
@@ -866,7 +875,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,8 +912,14 @@
         <fgColor rgb="FFC1E5F5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F2D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -956,11 +971,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1034,37 +1060,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1155,13 +1183,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -1169,6 +1190,16 @@
           <color rgb="FFC6C6C6"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1184,8 +1215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:AF123" totalsRowShown="0">
-  <autoFilter ref="A1:AF123" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:AF124" totalsRowShown="0">
+  <autoFilter ref="A1:AF124" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Instruction" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ALUOpACmd"/>
@@ -1225,7 +1256,7 @@
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RegOpSel"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="RD"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="WR" totalsRowFunction="sum"/>
-    <tableColumn id="29" xr3:uid="{54552BD7-1FC6-4FAE-A95A-5E040405BC1A}" name="NextState" dataDxfId="0">
+    <tableColumn id="29" xr3:uid="{54552BD7-1FC6-4FAE-A95A-5E040405BC1A}" name="NextState" dataDxfId="6">
       <calculatedColumnFormula>CU!B2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="32" xr3:uid="{89243789-264C-4333-AEB9-3B9616FDB565}" name="UpdateIR">
@@ -1237,8 +1268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:I123" totalsRowShown="0">
-  <autoFilter ref="A1:I123" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:I124" totalsRowShown="0">
+  <autoFilter ref="A1:I124" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ALUOpACmd"/>
@@ -1255,8 +1286,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table13" displayName="Table13" ref="A1:E123" totalsRowShown="0">
-  <autoFilter ref="A1:E123" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table13" displayName="Table13" ref="A1:E124" totalsRowShown="0">
+  <autoFilter ref="A1:E124" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PAU_SrcSel"/>
@@ -1269,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134" displayName="Table134" ref="A1:G123" totalsRowShown="0">
-  <autoFilter ref="A1:G123" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134" displayName="Table134" ref="A1:G124" totalsRowShown="0">
+  <autoFilter ref="A1:G124" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DAU_SrcSel"/>
@@ -1285,8 +1316,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1345" displayName="Table1345" ref="A1:J123" totalsRowShown="0">
-  <autoFilter ref="A1:J123" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1345" displayName="Table1345" ref="A1:J124" totalsRowShown="0">
+  <autoFilter ref="A1:J124" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="RegInSel"/>
@@ -1304,8 +1335,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13456" displayName="Table13456" ref="A1:C123" totalsRowShown="0">
-  <autoFilter ref="A1:C123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13456" displayName="Table13456" ref="A1:C124" totalsRowShown="0">
+  <autoFilter ref="A1:C124" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Instruction"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="RD"/>
@@ -1316,12 +1347,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{882C5564-F8C7-4324-AD9A-2718FB628140}" name="Table7" displayName="Table7" ref="A1:C123" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:C123" xr:uid="{882C5564-F8C7-4324-AD9A-2718FB628140}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{882C5564-F8C7-4324-AD9A-2718FB628140}" name="Table7" displayName="Table7" ref="A1:C124" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C124" xr:uid="{882C5564-F8C7-4324-AD9A-2718FB628140}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC99C402-C4DD-4172-A5BA-8FDAA8B48EF7}" name="Instruction" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{31AC34F9-A913-4562-8644-AC212626FB98}" name="NextState" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7F1C6376-C811-4AB3-885D-B32C3C57C7F7}" name="UpdateIR" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC99C402-C4DD-4172-A5BA-8FDAA8B48EF7}" name="Instruction" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{31AC34F9-A913-4562-8644-AC212626FB98}" name="NextState" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7F1C6376-C811-4AB3-885D-B32C3C57C7F7}" name="UpdateIR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1615,11 +1646,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AF123"/>
+  <dimension ref="A1:AF124"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1774,7 @@
       <c r="AD1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="AF1" t="s">
@@ -1865,7 +1896,7 @@
       </c>
       <c r="AC2" s="7">
         <f>IO!B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="7">
         <f>IO!C2</f>
@@ -2255,7 +2286,7 @@
       </c>
       <c r="AC5" s="7">
         <f>IO!B5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="7">
         <f>IO!C5</f>
@@ -6415,7 +6446,7 @@
       </c>
       <c r="AC37" s="7">
         <f>IO!B37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="7">
         <f>IO!C37</f>
@@ -6545,7 +6576,7 @@
       </c>
       <c r="AC38" s="7">
         <f>IO!B38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="7">
         <f>IO!C38</f>
@@ -6675,7 +6706,7 @@
       </c>
       <c r="AC39" s="7">
         <f>IO!B39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="7">
         <f>IO!C39</f>
@@ -6805,7 +6836,7 @@
       </c>
       <c r="AC40" s="7">
         <f>IO!B40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="7">
         <f>IO!C40</f>
@@ -6935,7 +6966,7 @@
       </c>
       <c r="AC41" s="7">
         <f>IO!B41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="7">
         <f>IO!C41</f>
@@ -7065,7 +7096,7 @@
       </c>
       <c r="AC42" s="7">
         <f>IO!B42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="7">
         <f>IO!C42</f>
@@ -7195,7 +7226,7 @@
       </c>
       <c r="AC43" s="7">
         <f>IO!B43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="7">
         <f>IO!C43</f>
@@ -7325,7 +7356,7 @@
       </c>
       <c r="AC44" s="7">
         <f>IO!B44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="7">
         <f>IO!C44</f>
@@ -7455,7 +7486,7 @@
       </c>
       <c r="AC45" s="7">
         <f>IO!B45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="7">
         <f>IO!C45</f>
@@ -7585,7 +7616,7 @@
       </c>
       <c r="AC46" s="7">
         <f>IO!B46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="7">
         <f>IO!C46</f>
@@ -7715,7 +7746,7 @@
       </c>
       <c r="AC47" s="7">
         <f>IO!B47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="7">
         <f>IO!C47</f>
@@ -7845,7 +7876,7 @@
       </c>
       <c r="AC48" s="7">
         <f>IO!B48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="7">
         <f>IO!C48</f>
@@ -7975,7 +8006,7 @@
       </c>
       <c r="AC49" s="7">
         <f>IO!B49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="7">
         <f>IO!C49</f>
@@ -8105,7 +8136,7 @@
       </c>
       <c r="AC50" s="7">
         <f>IO!B50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="7">
         <f>IO!C50</f>
@@ -8235,7 +8266,7 @@
       </c>
       <c r="AC51" s="7">
         <f>IO!B51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="7">
         <f>IO!C51</f>
@@ -8365,7 +8396,7 @@
       </c>
       <c r="AC52" s="7">
         <f>IO!B52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="7">
         <f>IO!C52</f>
@@ -8495,7 +8526,7 @@
       </c>
       <c r="AC53" s="7">
         <f>IO!B53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="7">
         <f>IO!C53</f>
@@ -8625,7 +8656,7 @@
       </c>
       <c r="AC54" s="7">
         <f>IO!B54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="7">
         <f>IO!C54</f>
@@ -8755,7 +8786,7 @@
       </c>
       <c r="AC55" s="7">
         <f>IO!B55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="7">
         <f>IO!C55</f>
@@ -8885,7 +8916,7 @@
       </c>
       <c r="AC56" s="7">
         <f>IO!B56</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="7">
         <f>IO!C56</f>
@@ -9015,7 +9046,7 @@
       </c>
       <c r="AC57" s="7">
         <f>IO!B57</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="7">
         <f>IO!C57</f>
@@ -9145,7 +9176,7 @@
       </c>
       <c r="AC58" s="7">
         <f>IO!B58</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="7">
         <f>IO!C58</f>
@@ -9275,7 +9306,7 @@
       </c>
       <c r="AC59" s="7">
         <f>IO!B59</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="7">
         <f>IO!C59</f>
@@ -9405,7 +9436,7 @@
       </c>
       <c r="AC60" s="7">
         <f>IO!B60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="7">
         <f>IO!C60</f>
@@ -9535,7 +9566,7 @@
       </c>
       <c r="AC61" s="7">
         <f>IO!B61</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="7">
         <f>IO!C61</f>
@@ -9665,7 +9696,7 @@
       </c>
       <c r="AC62" s="7">
         <f>IO!B62</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="7">
         <f>IO!C62</f>
@@ -9795,7 +9826,7 @@
       </c>
       <c r="AC63" s="7">
         <f>IO!B63</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="7">
         <f>IO!C63</f>
@@ -9925,7 +9956,7 @@
       </c>
       <c r="AC64" s="7">
         <f>IO!B64</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="7">
         <f>IO!C64</f>
@@ -10055,7 +10086,7 @@
       </c>
       <c r="AC65" s="7">
         <f>IO!B65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="7">
         <f>IO!C65</f>
@@ -10315,7 +10346,7 @@
       </c>
       <c r="AC67" s="7">
         <f>IO!B67</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="7">
         <f>IO!C67</f>
@@ -10445,7 +10476,7 @@
       </c>
       <c r="AC68" s="7">
         <f>IO!B68</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="7">
         <f>IO!C68</f>
@@ -10575,7 +10606,7 @@
       </c>
       <c r="AC69" s="7">
         <f>IO!B69</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="7">
         <f>IO!C69</f>
@@ -10965,7 +10996,7 @@
       </c>
       <c r="AC72" s="7">
         <f>IO!B72</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="7">
         <f>IO!C72</f>
@@ -11095,7 +11126,7 @@
       </c>
       <c r="AC73" s="7">
         <f>IO!B73</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="7">
         <f>IO!C73</f>
@@ -11355,7 +11386,7 @@
       </c>
       <c r="AC75" s="7">
         <f>IO!B75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" s="7">
         <f>IO!C75</f>
@@ -11485,7 +11516,7 @@
       </c>
       <c r="AC76" s="7">
         <f>IO!B76</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76" s="7">
         <f>IO!C76</f>
@@ -11745,7 +11776,7 @@
       </c>
       <c r="AC78" s="7">
         <f>IO!B78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" s="7">
         <f>IO!C78</f>
@@ -11875,7 +11906,7 @@
       </c>
       <c r="AC79" s="7">
         <f>IO!B79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79" s="7">
         <f>IO!C79</f>
@@ -12005,7 +12036,7 @@
       </c>
       <c r="AC80" s="7">
         <f>IO!B80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80" s="7">
         <f>IO!C80</f>
@@ -12135,7 +12166,7 @@
       </c>
       <c r="AC81" s="7">
         <f>IO!B81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD81" s="7">
         <f>IO!C81</f>
@@ -12265,7 +12296,7 @@
       </c>
       <c r="AC82" s="7">
         <f>IO!B82</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82" s="7">
         <f>IO!C82</f>
@@ -12395,7 +12426,7 @@
       </c>
       <c r="AC83" s="7">
         <f>IO!B83</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83" s="7">
         <f>IO!C83</f>
@@ -12525,7 +12556,7 @@
       </c>
       <c r="AC84" s="7">
         <f>IO!B84</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD84" s="7">
         <f>IO!C84</f>
@@ -12655,7 +12686,7 @@
       </c>
       <c r="AC85" s="7">
         <f>IO!B85</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD85" s="7">
         <f>IO!C85</f>
@@ -12785,7 +12816,7 @@
       </c>
       <c r="AC86" s="7">
         <f>IO!B86</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86" s="7">
         <f>IO!C86</f>
@@ -12915,7 +12946,7 @@
       </c>
       <c r="AC87" s="7">
         <f>IO!B87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD87" s="7">
         <f>IO!C87</f>
@@ -13045,7 +13076,7 @@
       </c>
       <c r="AC88" s="7">
         <f>IO!B88</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD88" s="7">
         <f>IO!C88</f>
@@ -13175,7 +13206,7 @@
       </c>
       <c r="AC89" s="7">
         <f>IO!B89</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD89" s="7">
         <f>IO!C89</f>
@@ -13305,7 +13336,7 @@
       </c>
       <c r="AC90" s="7">
         <f>IO!B90</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90" s="7">
         <f>IO!C90</f>
@@ -13435,7 +13466,7 @@
       </c>
       <c r="AC91" s="7">
         <f>IO!B91</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD91" s="7">
         <f>IO!C91</f>
@@ -13565,7 +13596,7 @@
       </c>
       <c r="AC92" s="7">
         <f>IO!B92</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD92" s="7">
         <f>IO!C92</f>
@@ -13695,7 +13726,7 @@
       </c>
       <c r="AC93" s="7">
         <f>IO!B93</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD93" s="7">
         <f>IO!C93</f>
@@ -13825,7 +13856,7 @@
       </c>
       <c r="AC94" s="7">
         <f>IO!B94</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD94" s="7">
         <f>IO!C94</f>
@@ -13955,7 +13986,7 @@
       </c>
       <c r="AC95" s="7">
         <f>IO!B95</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD95" s="7">
         <f>IO!C95</f>
@@ -14085,7 +14116,7 @@
       </c>
       <c r="AC96" s="7">
         <f>IO!B96</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD96" s="7">
         <f>IO!C96</f>
@@ -14215,7 +14246,7 @@
       </c>
       <c r="AC97" s="7">
         <f>IO!B97</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD97" s="7">
         <f>IO!C97</f>
@@ -14345,7 +14376,7 @@
       </c>
       <c r="AC98" s="7">
         <f>IO!B98</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD98" s="7">
         <f>IO!C98</f>
@@ -14475,7 +14506,7 @@
       </c>
       <c r="AC99" s="7">
         <f>IO!B99</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99" s="7">
         <f>IO!C99</f>
@@ -14605,7 +14636,7 @@
       </c>
       <c r="AC100" s="7">
         <f>IO!B100</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD100" s="7">
         <f>IO!C100</f>
@@ -14735,7 +14766,7 @@
       </c>
       <c r="AC101" s="7">
         <f>IO!B101</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD101" s="7">
         <f>IO!C101</f>
@@ -14865,7 +14896,7 @@
       </c>
       <c r="AC102" s="7">
         <f>IO!B102</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD102" s="7">
         <f>IO!C102</f>
@@ -14995,7 +15026,7 @@
       </c>
       <c r="AC103" s="7">
         <f>IO!B103</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD103" s="7">
         <f>IO!C103</f>
@@ -15125,7 +15156,7 @@
       </c>
       <c r="AC104" s="7">
         <f>IO!B104</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD104" s="7">
         <f>IO!C104</f>
@@ -15255,7 +15286,7 @@
       </c>
       <c r="AC105" s="7">
         <f>IO!B105</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD105" s="7">
         <f>IO!C105</f>
@@ -15385,7 +15416,7 @@
       </c>
       <c r="AC106" s="7">
         <f>IO!B106</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD106" s="7">
         <f>IO!C106</f>
@@ -15905,7 +15936,7 @@
       </c>
       <c r="AC110" s="7">
         <f>IO!B110</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD110" s="7">
         <f>IO!C110</f>
@@ -16165,7 +16196,7 @@
       </c>
       <c r="AC112" s="7">
         <f>IO!B112</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD112" s="7">
         <f>IO!C112</f>
@@ -16295,7 +16326,7 @@
       </c>
       <c r="AC113" s="7">
         <f>IO!B113</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD113" s="7">
         <f>IO!C113</f>
@@ -16425,7 +16456,7 @@
       </c>
       <c r="AC114" s="7">
         <f>IO!B114</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD114" s="7">
         <f>IO!C114</f>
@@ -16555,7 +16586,7 @@
       </c>
       <c r="AC115" s="7">
         <f>IO!B115</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD115" s="7">
         <f>IO!C115</f>
@@ -16685,7 +16716,7 @@
       </c>
       <c r="AC116" s="7">
         <f>IO!B116</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD116" s="7">
         <f>IO!C116</f>
@@ -16815,7 +16846,7 @@
       </c>
       <c r="AC117" s="7">
         <f>IO!B117</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD117" s="7">
         <f>IO!C117</f>
@@ -17335,7 +17366,7 @@
       </c>
       <c r="AC121" s="7">
         <f>IO!B121</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD121" s="7">
         <f>IO!C121</f>
@@ -17549,9 +17580,9 @@
         <f>DAU!E123</f>
         <v>unused</v>
       </c>
-      <c r="R123" s="7">
+      <c r="R123" s="7" t="str">
         <f>DAU!F123</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="S123" s="7">
         <f>DAU!G123</f>
@@ -17607,6 +17638,136 @@
       </c>
       <c r="AF123">
         <f>CU!C123</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="str">
+        <f>ALU!A124</f>
+        <v>OpBoot</v>
+      </c>
+      <c r="B124" s="8" t="str">
+        <f>ALU!B124</f>
+        <v>-</v>
+      </c>
+      <c r="C124" s="8" t="str">
+        <f>ALU!C124</f>
+        <v>-</v>
+      </c>
+      <c r="D124" s="8" t="str">
+        <f>ALU!D124</f>
+        <v>-</v>
+      </c>
+      <c r="E124" s="8" t="str">
+        <f>ALU!E124</f>
+        <v>-</v>
+      </c>
+      <c r="F124" s="8" t="str">
+        <f>ALU!F124</f>
+        <v>-</v>
+      </c>
+      <c r="G124" s="8" t="str">
+        <f>ALU!G124</f>
+        <v>-</v>
+      </c>
+      <c r="H124" s="8" t="str">
+        <f>ALU!H124</f>
+        <v>-</v>
+      </c>
+      <c r="I124" s="7">
+        <f>ALU!I124</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="8" t="str">
+        <f>PAU!B124</f>
+        <v>PAU_AddrZero</v>
+      </c>
+      <c r="K124" s="8" t="str">
+        <f>PAU!C124</f>
+        <v>PAU_OffsetZero</v>
+      </c>
+      <c r="L124" s="8">
+        <f>PAU!D124</f>
+        <v>1</v>
+      </c>
+      <c r="M124" s="8">
+        <f>PAU!E124</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="8" t="str">
+        <f>DAU!B124</f>
+        <v>unused</v>
+      </c>
+      <c r="O124" s="8" t="str">
+        <f>DAU!C124</f>
+        <v>unused</v>
+      </c>
+      <c r="P124" s="7" t="str">
+        <f>DAU!D124</f>
+        <v>-</v>
+      </c>
+      <c r="Q124" s="7" t="str">
+        <f>DAU!E124</f>
+        <v>unused</v>
+      </c>
+      <c r="R124" s="7" t="str">
+        <f>DAU!F124</f>
+        <v>-</v>
+      </c>
+      <c r="S124" s="7">
+        <f>DAU!G124</f>
+        <v>0</v>
+      </c>
+      <c r="T124" s="7">
+        <f>REG!B124</f>
+        <v>0</v>
+      </c>
+      <c r="U124" s="7">
+        <f>REG!C124</f>
+        <v>0</v>
+      </c>
+      <c r="V124" s="7">
+        <f>REG!D124</f>
+        <v>0</v>
+      </c>
+      <c r="W124" s="7">
+        <f>REG!E124</f>
+        <v>0</v>
+      </c>
+      <c r="X124" s="7">
+        <f>REG!F124</f>
+        <v>0</v>
+      </c>
+      <c r="Y124" s="7">
+        <f>REG!G124</f>
+        <v>0</v>
+      </c>
+      <c r="Z124" s="7">
+        <f>REG!H124</f>
+        <v>0</v>
+      </c>
+      <c r="AA124" s="7">
+        <f>REG!I124</f>
+        <v>0</v>
+      </c>
+      <c r="AB124" s="8">
+        <f>REG!J124</f>
+        <v>0</v>
+      </c>
+      <c r="AC124" s="7">
+        <f>IO!B124</f>
+        <v>1</v>
+      </c>
+      <c r="AD124" s="7">
+        <f>IO!C124</f>
+        <v>0</v>
+      </c>
+      <c r="AE124" t="str">
+        <f>CU!B124</f>
+        <v>Idle</v>
+      </c>
+      <c r="AF124">
+        <f>CU!C124</f>
         <v>1</v>
       </c>
     </row>
@@ -17624,10 +17785,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21210,6 +21371,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I124" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -21223,10 +21413,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView topLeftCell="A93" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23329,6 +23519,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" s="16">
+        <v>1</v>
+      </c>
+      <c r="E124" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -23342,9 +23549,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26155,8 +26364,33 @@
       <c r="E123" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F123" s="9"/>
+      <c r="F123" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="G123" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G124" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26173,9 +26407,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29843,6 +30079,11 @@
         <v>145</v>
       </c>
     </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -29856,10 +30097,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A89" zoomScale="78" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29899,7 +30140,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
@@ -29953,7 +30194,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -30529,7 +30770,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -30547,7 +30788,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -30565,7 +30806,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -30583,7 +30824,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -30601,7 +30842,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -30619,7 +30860,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -30637,7 +30878,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -30655,7 +30896,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -30673,7 +30914,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -30691,7 +30932,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -30709,7 +30950,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -30727,7 +30968,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -30745,7 +30986,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -30763,7 +31004,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -30781,7 +31022,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -30799,7 +31040,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -30817,7 +31058,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -30835,7 +31076,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -30853,7 +31094,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -30871,7 +31112,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -30889,7 +31130,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
@@ -30907,7 +31148,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -30925,7 +31166,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -30943,7 +31184,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -30961,7 +31202,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
@@ -30979,7 +31220,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -30997,7 +31238,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -31015,7 +31256,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -31033,7 +31274,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="7">
         <v>0</v>
@@ -31069,7 +31310,7 @@
         <v>72</v>
       </c>
       <c r="B67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -31087,7 +31328,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -31105,7 +31346,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -31159,7 +31400,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -31177,7 +31418,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -31213,7 +31454,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="7">
         <v>0</v>
@@ -31231,7 +31472,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="7">
         <v>0</v>
@@ -31267,7 +31508,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="7">
         <v>0</v>
@@ -31285,7 +31526,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="7">
         <v>0</v>
@@ -31303,7 +31544,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="7">
         <v>0</v>
@@ -31321,7 +31562,7 @@
         <v>86</v>
       </c>
       <c r="B81" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="7">
         <v>0</v>
@@ -31339,7 +31580,7 @@
         <v>87</v>
       </c>
       <c r="B82" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="7">
         <v>0</v>
@@ -31357,7 +31598,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="7">
         <v>0</v>
@@ -31375,7 +31616,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="7">
         <v>0</v>
@@ -31393,7 +31634,7 @@
         <v>90</v>
       </c>
       <c r="B85" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="7">
         <v>0</v>
@@ -31411,7 +31652,7 @@
         <v>91</v>
       </c>
       <c r="B86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="7">
         <v>0</v>
@@ -31429,7 +31670,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="7">
         <v>0</v>
@@ -31447,7 +31688,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="7">
         <v>0</v>
@@ -31465,7 +31706,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="7">
         <v>0</v>
@@ -31483,7 +31724,7 @@
         <v>95</v>
       </c>
       <c r="B90" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="7">
         <v>0</v>
@@ -31501,7 +31742,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="7">
         <v>0</v>
@@ -31519,7 +31760,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="7">
         <v>0</v>
@@ -31537,7 +31778,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="7">
         <v>0</v>
@@ -31555,7 +31796,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="7">
         <v>0</v>
@@ -31573,7 +31814,7 @@
         <v>102</v>
       </c>
       <c r="B95" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="7">
         <v>0</v>
@@ -31591,7 +31832,7 @@
         <v>103</v>
       </c>
       <c r="B96" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="7">
         <v>0</v>
@@ -31609,7 +31850,7 @@
         <v>104</v>
       </c>
       <c r="B97" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="7">
         <v>0</v>
@@ -31627,7 +31868,7 @@
         <v>105</v>
       </c>
       <c r="B98" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="7">
         <v>0</v>
@@ -31645,7 +31886,7 @@
         <v>106</v>
       </c>
       <c r="B99" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="7">
         <v>0</v>
@@ -31663,7 +31904,7 @@
         <v>107</v>
       </c>
       <c r="B100" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="7">
         <v>0</v>
@@ -31681,7 +31922,7 @@
         <v>108</v>
       </c>
       <c r="B101" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" s="7">
         <v>0</v>
@@ -31699,7 +31940,7 @@
         <v>109</v>
       </c>
       <c r="B102" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="7">
         <v>0</v>
@@ -31717,7 +31958,7 @@
         <v>110</v>
       </c>
       <c r="B103" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="7">
         <v>0</v>
@@ -31735,7 +31976,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="7">
         <v>0</v>
@@ -31753,7 +31994,7 @@
         <v>112</v>
       </c>
       <c r="B105" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="7">
         <v>0</v>
@@ -31771,7 +32012,7 @@
         <v>113</v>
       </c>
       <c r="B106" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="7">
         <v>0</v>
@@ -31843,7 +32084,7 @@
         <v>118</v>
       </c>
       <c r="B110" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="7">
         <v>0</v>
@@ -31879,7 +32120,7 @@
         <v>120</v>
       </c>
       <c r="B112" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="7">
         <v>0</v>
@@ -31896,8 +32137,8 @@
       <c r="A113" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="13">
-        <v>0</v>
+      <c r="B113" s="7">
+        <v>1</v>
       </c>
       <c r="C113" s="13">
         <v>0</v>
@@ -31915,7 +32156,7 @@
         <v>123</v>
       </c>
       <c r="B114" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="7">
         <v>0</v>
@@ -31933,7 +32174,7 @@
         <v>124</v>
       </c>
       <c r="B115" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="7">
         <v>0</v>
@@ -31951,7 +32192,7 @@
         <v>125</v>
       </c>
       <c r="B116" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="7">
         <v>0</v>
@@ -31969,7 +32210,7 @@
         <v>126</v>
       </c>
       <c r="B117" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="7">
         <v>0</v>
@@ -32041,7 +32282,7 @@
         <v>130</v>
       </c>
       <c r="B121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="7">
         <v>0</v>
@@ -32089,6 +32330,17 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="16">
+        <v>1</v>
+      </c>
+      <c r="C124" s="16">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32100,27 +32352,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D329D5CB-2F7B-4E2B-A22C-771D17E9334C}">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>243</v>
       </c>
     </row>
@@ -33456,13 +33708,24 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="29" t="s">
         <v>133</v>
       </c>
       <c r="C123" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="34">
         <v>1</v>
       </c>
     </row>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88F62B-90F0-4836-A960-2D8BB06F1012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199141D6-5FDD-4BE5-A86F-67CCC6BAD855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="264">
   <si>
     <t>Instruction</t>
   </si>
@@ -841,6 +841,9 @@
       <t>ASel</t>
     </r>
   </si>
+  <si>
+    <t>DBOutSel_Result</t>
+  </si>
 </sst>
 </file>
 
@@ -1510,7 +1513,7 @@
   </sheetPr>
   <dimension ref="A1:AF124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
@@ -14961,11 +14964,11 @@
       </c>
       <c r="N104" s="18" t="str">
         <f>DAU!B104</f>
-        <v>unused</v>
+        <v>DAU_AddrRn</v>
       </c>
       <c r="O104" s="18" t="str">
         <f>DAU!C104</f>
-        <v>unused</v>
+        <v>DAU_OffsetZero</v>
       </c>
       <c r="P104" s="17" t="str">
         <f>DAU!D104</f>
@@ -15007,9 +15010,9 @@
         <f>REG!G104</f>
         <v>0</v>
       </c>
-      <c r="Z104" s="17">
+      <c r="Z104" s="17" t="str">
         <f>REG!H104</f>
-        <v>0</v>
+        <v>RegASelCmd_Rn</v>
       </c>
       <c r="AA104" s="17">
         <f>REG!I104</f>
@@ -15091,11 +15094,11 @@
       </c>
       <c r="N105" s="18" t="str">
         <f>DAU!B105</f>
-        <v>unused</v>
+        <v>DAU_AddrRn</v>
       </c>
       <c r="O105" s="18" t="str">
         <f>DAU!C105</f>
-        <v>unused</v>
+        <v>DAU_OffsetZero</v>
       </c>
       <c r="P105" s="17" t="str">
         <f>DAU!D105</f>
@@ -15137,9 +15140,9 @@
         <f>REG!G105</f>
         <v>0</v>
       </c>
-      <c r="Z105" s="17">
+      <c r="Z105" s="17" t="str">
         <f>REG!H105</f>
-        <v>0</v>
+        <v>RegASelCmd_Rn</v>
       </c>
       <c r="AA105" s="17">
         <f>REG!I105</f>
@@ -15221,11 +15224,11 @@
       </c>
       <c r="N106" s="18" t="str">
         <f>DAU!B106</f>
-        <v>unused</v>
+        <v>DAU_AddrRn</v>
       </c>
       <c r="O106" s="18" t="str">
         <f>DAU!C106</f>
-        <v>unused</v>
+        <v>DAU_OffsetZero</v>
       </c>
       <c r="P106" s="17" t="str">
         <f>DAU!D106</f>
@@ -15267,9 +15270,9 @@
         <f>REG!G106</f>
         <v>0</v>
       </c>
-      <c r="Z106" s="17">
+      <c r="Z106" s="17" t="str">
         <f>REG!H106</f>
-        <v>0</v>
+        <v>RegASelCmd_Rn</v>
       </c>
       <c r="AA106" s="17">
         <f>REG!I106</f>
@@ -17651,8 +17654,8 @@
   </sheetPr>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23413,7 +23416,9 @@
   </sheetPr>
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25780,10 +25785,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>164</v>
@@ -25803,10 +25808,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>164</v>
@@ -25826,10 +25831,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>164</v>
@@ -26269,7 +26274,9 @@
   </sheetPr>
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29557,7 +29564,9 @@
       <c r="D103" s="18"/>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
-      <c r="G103" s="25"/>
+      <c r="G103" s="25">
+        <v>0</v>
+      </c>
       <c r="H103" s="18"/>
       <c r="I103" s="18"/>
       <c r="J103" s="19" t="s">
@@ -29573,8 +29582,12 @@
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="19"/>
+      <c r="G104" s="25">
+        <v>0</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="I104" s="19"/>
       <c r="J104" s="19" t="s">
         <v>150</v>
@@ -29589,8 +29602,12 @@
       <c r="D105" s="18"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="19"/>
+      <c r="G105" s="25">
+        <v>0</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="I105" s="19"/>
       <c r="J105" s="19" t="s">
         <v>150</v>
@@ -29605,8 +29622,12 @@
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="19"/>
+      <c r="G106" s="25">
+        <v>0</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="I106" s="19"/>
       <c r="J106" s="19" t="s">
         <v>150</v>
@@ -29621,7 +29642,9 @@
       <c r="D107" s="18"/>
       <c r="E107" s="20"/>
       <c r="F107" s="19"/>
-      <c r="G107" s="25"/>
+      <c r="G107" s="25">
+        <v>0</v>
+      </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="19" t="s">
@@ -29637,7 +29660,9 @@
       <c r="D108" s="18"/>
       <c r="E108" s="20"/>
       <c r="F108" s="19"/>
-      <c r="G108" s="25"/>
+      <c r="G108" s="25">
+        <v>0</v>
+      </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="19" t="s">
@@ -29653,7 +29678,9 @@
       <c r="D109" s="18"/>
       <c r="E109" s="20"/>
       <c r="F109" s="19"/>
-      <c r="G109" s="25"/>
+      <c r="G109" s="25">
+        <v>0</v>
+      </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="19" t="s">
@@ -29669,7 +29696,9 @@
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
-      <c r="G110" s="25"/>
+      <c r="G110" s="25">
+        <v>0</v>
+      </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="19" t="s">
@@ -29685,7 +29714,9 @@
       <c r="D111" s="18"/>
       <c r="E111" s="20"/>
       <c r="F111" s="19"/>
-      <c r="G111" s="25"/>
+      <c r="G111" s="25">
+        <v>0</v>
+      </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
       <c r="J111" s="19" t="s">
@@ -29701,7 +29732,9 @@
       <c r="D112" s="18"/>
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
-      <c r="G112" s="25"/>
+      <c r="G112" s="25">
+        <v>0</v>
+      </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="19" t="s">
@@ -29717,7 +29750,9 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="19"/>
-      <c r="G113" s="25"/>
+      <c r="G113" s="25">
+        <v>0</v>
+      </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
       <c r="J113" s="19" t="s">
@@ -29733,7 +29768,9 @@
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
-      <c r="G114" s="25"/>
+      <c r="G114" s="25">
+        <v>0</v>
+      </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="19" t="s">
@@ -29749,7 +29786,9 @@
       <c r="D115" s="18"/>
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
-      <c r="G115" s="25"/>
+      <c r="G115" s="25">
+        <v>0</v>
+      </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="19" t="s">
@@ -29765,7 +29804,9 @@
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
-      <c r="G116" s="25"/>
+      <c r="G116" s="25">
+        <v>0</v>
+      </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="19" t="s">
@@ -29781,7 +29822,9 @@
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
-      <c r="G117" s="25"/>
+      <c r="G117" s="25">
+        <v>0</v>
+      </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="19" t="s">
@@ -29797,7 +29840,9 @@
       <c r="D118" s="18"/>
       <c r="E118" s="20"/>
       <c r="F118" s="19"/>
-      <c r="G118" s="25"/>
+      <c r="G118" s="25">
+        <v>0</v>
+      </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="19" t="s">
@@ -29813,7 +29858,9 @@
       <c r="D119" s="18"/>
       <c r="E119" s="20"/>
       <c r="F119" s="19"/>
-      <c r="G119" s="25"/>
+      <c r="G119" s="25">
+        <v>0</v>
+      </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
       <c r="J119" s="19" t="s">
@@ -29829,7 +29876,9 @@
       <c r="D120" s="18"/>
       <c r="E120" s="20"/>
       <c r="F120" s="19"/>
-      <c r="G120" s="25"/>
+      <c r="G120" s="25">
+        <v>0</v>
+      </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="19" t="s">
@@ -29845,7 +29894,9 @@
       <c r="D121" s="18"/>
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
-      <c r="G121" s="25"/>
+      <c r="G121" s="25">
+        <v>0</v>
+      </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="19" t="s">
@@ -29861,7 +29912,9 @@
       <c r="D122" s="18"/>
       <c r="E122" s="20"/>
       <c r="F122" s="19"/>
-      <c r="G122" s="25"/>
+      <c r="G122" s="25">
+        <v>0</v>
+      </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="19" t="s">
@@ -29877,7 +29930,9 @@
       <c r="D123" s="18"/>
       <c r="E123" s="20"/>
       <c r="F123" s="19"/>
-      <c r="G123" s="25"/>
+      <c r="G123" s="25">
+        <v>0</v>
+      </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="19" t="s">
@@ -29887,6 +29942,9 @@
     <row r="124" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>133</v>
+      </c>
+      <c r="G124" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -29904,7 +29962,9 @@
   </sheetPr>
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29952,7 +30012,9 @@
       <c r="C2" s="17">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="19"/>
@@ -29963,7 +30025,7 @@
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
@@ -29971,7 +30033,9 @@
       <c r="C3" s="17">
         <v>0</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
@@ -29982,7 +30046,7 @@
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="B4" s="17">
         <v>1</v>
@@ -29990,7 +30054,9 @@
       <c r="C4" s="17">
         <v>0</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
@@ -30009,7 +30075,9 @@
       <c r="C5" s="17">
         <v>0</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -30028,7 +30096,9 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -30047,7 +30117,9 @@
       <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="19"/>
@@ -30066,7 +30138,9 @@
       <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="19"/>
@@ -30085,7 +30159,9 @@
       <c r="C9" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
@@ -30104,7 +30180,9 @@
       <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -30123,7 +30201,9 @@
       <c r="C11" s="17">
         <v>0</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
@@ -30142,7 +30222,9 @@
       <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E12" s="18"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -30161,7 +30243,9 @@
       <c r="C13" s="17">
         <v>1</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E13" s="18"/>
       <c r="F13" s="20"/>
       <c r="G13" s="19"/>
@@ -30180,7 +30264,9 @@
       <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -30199,7 +30285,9 @@
       <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E15" s="18"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
@@ -30218,7 +30306,9 @@
       <c r="C16" s="17">
         <v>0</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E16" s="18"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
@@ -30237,7 +30327,9 @@
       <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E17" s="18"/>
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
@@ -30256,7 +30348,9 @@
       <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
@@ -30275,7 +30369,9 @@
       <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
@@ -30294,7 +30390,9 @@
       <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
@@ -30313,7 +30411,9 @@
       <c r="C21" s="17">
         <v>0</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
@@ -30332,7 +30432,9 @@
       <c r="C22" s="17">
         <v>0</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
@@ -30351,7 +30453,9 @@
       <c r="C23" s="17">
         <v>0</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
@@ -30370,7 +30474,9 @@
       <c r="C24" s="17">
         <v>1</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
@@ -30389,7 +30495,9 @@
       <c r="C25" s="17">
         <v>1</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
@@ -30408,7 +30516,9 @@
       <c r="C26" s="17">
         <v>1</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
@@ -30427,7 +30537,9 @@
       <c r="C27" s="17">
         <v>0</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="19"/>
@@ -30446,7 +30558,9 @@
       <c r="C28" s="17">
         <v>0</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19"/>
@@ -30465,7 +30579,9 @@
       <c r="C29" s="17">
         <v>0</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19"/>
@@ -30484,7 +30600,9 @@
       <c r="C30" s="17">
         <v>1</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
@@ -30503,7 +30621,9 @@
       <c r="C31" s="17">
         <v>1</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="19"/>
@@ -30522,7 +30642,9 @@
       <c r="C32" s="17">
         <v>1</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19"/>
@@ -30541,7 +30663,9 @@
       <c r="C33" s="17">
         <v>0</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="19"/>
@@ -30560,7 +30684,9 @@
       <c r="C34" s="17">
         <v>0</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
@@ -30579,7 +30705,9 @@
       <c r="C35" s="17">
         <v>0</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="19"/>
@@ -30693,7 +30821,9 @@
       <c r="C41" s="17">
         <v>0</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E41" s="19"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -30712,7 +30842,9 @@
       <c r="C42" s="17">
         <v>0</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E42" s="19"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -30731,7 +30863,9 @@
       <c r="C43" s="17">
         <v>0</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E43" s="19"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -30750,7 +30884,9 @@
       <c r="C44" s="17">
         <v>0</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E44" s="19"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -30769,7 +30905,9 @@
       <c r="C45" s="17">
         <v>0</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E45" s="19"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -30788,7 +30926,9 @@
       <c r="C46" s="17">
         <v>0</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E46" s="19"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -30807,7 +30947,9 @@
       <c r="C47" s="17">
         <v>0</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E47" s="19"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -30826,7 +30968,9 @@
       <c r="C48" s="17">
         <v>0</v>
       </c>
-      <c r="D48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E48" s="19"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -30845,7 +30989,9 @@
       <c r="C49" s="17">
         <v>0</v>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E49" s="19"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -30864,7 +31010,9 @@
       <c r="C50" s="17">
         <v>0</v>
       </c>
-      <c r="D50" s="17"/>
+      <c r="D50" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E50" s="19"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -30883,7 +31031,9 @@
       <c r="C51" s="17">
         <v>0</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E51" s="19"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -30902,7 +31052,9 @@
       <c r="C52" s="17">
         <v>0</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E52" s="19"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -30921,7 +31073,9 @@
       <c r="C53" s="17">
         <v>0</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E53" s="19"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -30940,7 +31094,9 @@
       <c r="C54" s="17">
         <v>0</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E54" s="19"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -30959,7 +31115,9 @@
       <c r="C55" s="17">
         <v>0</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E55" s="19"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -30978,7 +31136,9 @@
       <c r="C56" s="17">
         <v>0</v>
       </c>
-      <c r="D56" s="17"/>
+      <c r="D56" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E56" s="19"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -30997,7 +31157,9 @@
       <c r="C57" s="17">
         <v>0</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E57" s="19"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -31016,7 +31178,9 @@
       <c r="C58" s="17">
         <v>0</v>
       </c>
-      <c r="D58" s="17"/>
+      <c r="D58" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E58" s="19"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -31035,7 +31199,9 @@
       <c r="C59" s="17">
         <v>0</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E59" s="19"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -31054,7 +31220,9 @@
       <c r="C60" s="17">
         <v>0</v>
       </c>
-      <c r="D60" s="17"/>
+      <c r="D60" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E60" s="19"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -31073,7 +31241,9 @@
       <c r="C61" s="17">
         <v>0</v>
       </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E61" s="19"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -31092,7 +31262,9 @@
       <c r="C62" s="17">
         <v>0</v>
       </c>
-      <c r="D62" s="17"/>
+      <c r="D62" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E62" s="19"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -31111,7 +31283,9 @@
       <c r="C63" s="17">
         <v>0</v>
       </c>
-      <c r="D63" s="17"/>
+      <c r="D63" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="E63" s="19"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9378F40-1EA0-4FD5-9D64-3CD89CB7D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEDE076-3348-49DB-9BAE-A08DD04844A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="REG" sheetId="5" r:id="rId5"/>
     <sheet name="IO" sheetId="6" r:id="rId6"/>
     <sheet name="CU" sheetId="7" r:id="rId7"/>
+    <sheet name="states" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="274">
   <si>
     <t>Instruction</t>
   </si>
@@ -865,12 +866,34 @@
   <si>
     <t>MemWE3</t>
   </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <r>
+      <t>ALUOp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASel</t>
+    </r>
+  </si>
+  <si>
+    <t>TRAPA_Init</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +945,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -961,7 +1007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1000,11 +1046,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1097,11 +1154,49 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1468,34 +1563,34 @@
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RegA1SelCmd"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RegA2SelCmd"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RegOpSel"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="MemRE0" dataDxfId="15">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="MemRE0" dataDxfId="17">
       <calculatedColumnFormula>IO!B2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="MemRE1" totalsRowFunction="sum">
       <calculatedColumnFormula>IO!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{AA866E55-9833-4C4C-9A99-7BFC73085005}" name="MemRE2" dataDxfId="14">
+    <tableColumn id="37" xr3:uid="{AA866E55-9833-4C4C-9A99-7BFC73085005}" name="MemRE2" dataDxfId="16">
       <calculatedColumnFormula>IO!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{4192AEBC-3B81-49CC-92B8-62D42F11CA95}" name="MemRE3" dataDxfId="13">
+    <tableColumn id="36" xr3:uid="{4192AEBC-3B81-49CC-92B8-62D42F11CA95}" name="MemRE3" dataDxfId="15">
       <calculatedColumnFormula>IO!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{7CC31D84-B237-4D44-A659-0C7405E0DC1D}" name="MemWE0" dataDxfId="12">
+    <tableColumn id="40" xr3:uid="{7CC31D84-B237-4D44-A659-0C7405E0DC1D}" name="MemWE0" dataDxfId="14">
       <calculatedColumnFormula>IO!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{15C72638-8A56-43C2-9285-4F3468272C8C}" name="MemWE1" dataDxfId="11">
+    <tableColumn id="39" xr3:uid="{15C72638-8A56-43C2-9285-4F3468272C8C}" name="MemWE1" dataDxfId="13">
       <calculatedColumnFormula>IO!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{F3D5076E-751D-4100-A3DF-29C6117920BB}" name="MemWE2" dataDxfId="10">
+    <tableColumn id="38" xr3:uid="{F3D5076E-751D-4100-A3DF-29C6117920BB}" name="MemWE2" dataDxfId="12">
       <calculatedColumnFormula>IO!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{DE2CE0F0-BCB6-4C57-9F42-F491574A149E}" name="MemWE3" dataDxfId="9">
+    <tableColumn id="35" xr3:uid="{DE2CE0F0-BCB6-4C57-9F42-F491574A149E}" name="MemWE3" dataDxfId="11">
       <calculatedColumnFormula>IO!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{47C8206D-138D-4DDB-A699-0197A19A0B4B}" name="ABOutSel" dataDxfId="8">
+    <tableColumn id="34" xr3:uid="{47C8206D-138D-4DDB-A699-0197A19A0B4B}" name="ABOutSel" dataDxfId="10">
       <calculatedColumnFormula>IO!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{3C874C55-14EC-40FD-8E1B-959A171C140E}" name="DBOutSel" dataDxfId="7">
+    <tableColumn id="33" xr3:uid="{3C874C55-14EC-40FD-8E1B-959A171C140E}" name="DBOutSel" dataDxfId="9">
       <calculatedColumnFormula>IO!K2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="NextState"/>
@@ -1577,15 +1672,15 @@
   <autoFilter ref="A1:K124" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Instruction"/>
-    <tableColumn id="8" xr3:uid="{708E7D7C-C6D1-479F-902D-CF78BF1AF9A2}" name="MemRE0" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{6D14338A-34B2-4ACD-B190-A1DB2CB86EC9}" name="MemRE1" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{0DF91437-E1C1-4E52-9413-CD9D4D7722F9}" name="MemRE2" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{708E7D7C-C6D1-479F-902D-CF78BF1AF9A2}" name="MemRE0" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{6D14338A-34B2-4ACD-B190-A1DB2CB86EC9}" name="MemRE1" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{0DF91437-E1C1-4E52-9413-CD9D4D7722F9}" name="MemRE2" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="MemRE3"/>
-    <tableColumn id="11" xr3:uid="{6659E729-599B-40EA-A8B0-F8498DEDF371}" name="MemWE0" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{26C274F0-CD81-4608-80E1-ED5DE06102BE}" name="MemWE1" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7AEE87F6-BA73-492C-80D1-B002B89E63E2}" name="MemWE2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{6659E729-599B-40EA-A8B0-F8498DEDF371}" name="MemWE0" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{26C274F0-CD81-4608-80E1-ED5DE06102BE}" name="MemWE1" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{7AEE87F6-BA73-492C-80D1-B002B89E63E2}" name="MemWE2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="MemWE3"/>
-    <tableColumn id="5" xr3:uid="{1500673A-35D1-4BFD-8F56-96677211AC82}" name="ABOutSel" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1500673A-35D1-4BFD-8F56-96677211AC82}" name="ABOutSel" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="DBOutSel"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1599,6 +1694,55 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="NextState"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="UpdateIR"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}" name="Table8" displayName="Table8" ref="A1:AN5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AN5" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{F3731410-185C-4B91-8535-E7C6B1BA41A0}" name="State" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{65E65804-6476-498A-9301-353C7895D8C6}" name="ALUOpASel"/>
+    <tableColumn id="3" xr3:uid="{DF2A1A99-B208-4185-89E1-C4FCCE774BB4}" name="ALUOpBSel"/>
+    <tableColumn id="4" xr3:uid="{A9D5AA0C-6DF1-42E8-9CD2-66AA8AEED612}" name="FCmd"/>
+    <tableColumn id="5" xr3:uid="{DACF35B0-F3BC-4FEC-A865-45828AF5E85E}" name="CinCmd"/>
+    <tableColumn id="6" xr3:uid="{2DA5F137-C2D2-41D8-8626-C4790BDE7667}" name="SCmd"/>
+    <tableColumn id="7" xr3:uid="{DC7DD80B-D2CA-4F3C-A039-B76DA6D20817}" name="ALUCmd"/>
+    <tableColumn id="8" xr3:uid="{BEBFCD76-ED8E-48E0-87B7-8E09D94556C8}" name="TbitOp"/>
+    <tableColumn id="9" xr3:uid="{F71F9255-478F-481C-A66B-E1954CE2C24F}" name="UpdateTbit"/>
+    <tableColumn id="10" xr3:uid="{D03E7C40-A72F-4B7A-8A35-C557B85FD4E5}" name="PAU_SrcSel"/>
+    <tableColumn id="11" xr3:uid="{FF4B496E-1266-4DF9-A2D8-224FA372D50E}" name="PAU_OffsetSel"/>
+    <tableColumn id="12" xr3:uid="{20F43386-E748-4242-8E9E-ED14DC81DAF7}" name="PAU_UpdatePC"/>
+    <tableColumn id="13" xr3:uid="{488F9CE7-AD7A-47E2-A64D-559FD4AC5647}" name="PAU_UpdatePR"/>
+    <tableColumn id="14" xr3:uid="{3AD80B3D-1D59-482B-8D89-CAD305FC9A0D}" name="DAU_SrcSel"/>
+    <tableColumn id="15" xr3:uid="{2B1D3CA2-7125-4D6F-89B7-19AD06D98F5C}" name="DAU_OffsetSel"/>
+    <tableColumn id="16" xr3:uid="{FB732868-706C-48F2-A8F9-9A08F3E67A3B}" name="DAU_IncDecSel"/>
+    <tableColumn id="17" xr3:uid="{4D6F346E-A683-45CF-AAA9-F5BD61C94368}" name="DAU_IncDecBit"/>
+    <tableColumn id="18" xr3:uid="{647034A4-E7A3-4B85-B180-C3FD71CEAAC7}" name="DAU_PrePostSel"/>
+    <tableColumn id="19" xr3:uid="{2C05416C-4735-4192-945C-373328442345}" name="DAU_LoadGBR"/>
+    <tableColumn id="20" xr3:uid="{8C5F6243-264D-404B-9125-691103C80EAC}" name="RegInSelCmd"/>
+    <tableColumn id="21" xr3:uid="{CD20F6B8-0AB9-4EEB-AE5A-B1DF50E9A13C}" name="RegStore"/>
+    <tableColumn id="22" xr3:uid="{87CBD4A5-85D9-422F-9062-6F4760DEB967}" name="RegASelCmd"/>
+    <tableColumn id="23" xr3:uid="{B42A6BC9-F429-4017-A06D-B2B8B8762DC2}" name="RegBSelCmd"/>
+    <tableColumn id="24" xr3:uid="{7B9F6AFF-11D8-4EAC-A778-EC2854339B0E}" name="RegAxInSelCmd"/>
+    <tableColumn id="25" xr3:uid="{8CA5B1B7-BE8A-4462-B7CB-B411BE2341BC}" name="RegAxStore"/>
+    <tableColumn id="26" xr3:uid="{11836704-2B70-45DA-891A-B1F64640B548}" name="RegA1SelCmd"/>
+    <tableColumn id="27" xr3:uid="{47911AB8-C6EE-45DA-81FE-9F39B90B419B}" name="RegA2SelCmd"/>
+    <tableColumn id="28" xr3:uid="{A677ABFF-93CA-456C-ACAF-13741A9E3652}" name="RegOpSel"/>
+    <tableColumn id="29" xr3:uid="{333B3F2E-5164-4E8B-BC05-677DF42BE5C4}" name="MemRE0"/>
+    <tableColumn id="30" xr3:uid="{E43E2060-A755-494E-9BBD-55290C4F8E61}" name="MemRE1"/>
+    <tableColumn id="31" xr3:uid="{8F8A568D-55B9-4C4E-A6FE-B85127B76FB6}" name="MemRE2"/>
+    <tableColumn id="32" xr3:uid="{2DBDA554-00D2-4966-8B4C-018E5EC6FCAD}" name="MemRE3"/>
+    <tableColumn id="33" xr3:uid="{7420F2D2-239C-485D-B113-5AE3BFE02B69}" name="MemWE0"/>
+    <tableColumn id="34" xr3:uid="{B285FB56-A946-4E8B-9F37-27E9FC5ED285}" name="MemWE1"/>
+    <tableColumn id="35" xr3:uid="{C08BC861-D8CB-43AA-8D55-AF1F64C8F6B4}" name="MemWE2"/>
+    <tableColumn id="36" xr3:uid="{00938648-BF7F-4F94-9769-D5224E9F58C2}" name="MemWE3"/>
+    <tableColumn id="37" xr3:uid="{A629FB90-194D-493F-945C-31F795D6209C}" name="ABOutSel"/>
+    <tableColumn id="38" xr3:uid="{C78D366F-C0E8-4AC0-81DC-095A5844FDA0}" name="DBOutSel"/>
+    <tableColumn id="39" xr3:uid="{87F6F299-68E7-4D44-B6B3-0C08EA9E8BA5}" name="NextState"/>
+    <tableColumn id="40" xr3:uid="{22D78025-FDB5-4623-8A2C-26E4D1B1C0D0}" name="UpdateIR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1894,9 +2038,9 @@
   </sheetPr>
   <dimension ref="A1:AN124"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH11" sqref="AH11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34309,7 +34453,7 @@
   </sheetPr>
   <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -40801,4 +40945,418 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF521BB4-2DEC-48BF-9F68-8BCAEB743C1F}">
+  <dimension ref="A1:AN3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="27" width="15.140625" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" customWidth="1"/>
+    <col min="29" max="32" width="10.85546875" customWidth="1"/>
+    <col min="33" max="36" width="11.5703125" customWidth="1"/>
+    <col min="37" max="38" width="11.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" customWidth="1"/>
+    <col min="40" max="40" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ1" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK1" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL1" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9254C03C-F3E2-4767-B1A2-DB2FAABFCB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522CC793-2757-479F-AB2A-7A192E5927C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="278">
   <si>
     <t>Instruction</t>
   </si>
@@ -583,16 +583,10 @@
     <t>PAU_Offset8 when Tbit = '1' else PAU_OffsetWord</t>
   </si>
   <si>
-    <t>PAU_Offset12</t>
-  </si>
-  <si>
     <t>PAU_OffsetReg</t>
   </si>
   <si>
     <t>PAU_AddrZero</t>
-  </si>
-  <si>
-    <t>PAU_OffsetPR</t>
   </si>
   <si>
     <t>PAU_OffsetZero</t>
@@ -901,6 +895,12 @@
   <si>
     <t>DBInMode_Unsigned</t>
   </si>
+  <si>
+    <t>BranchSlot</t>
+  </si>
+  <si>
+    <t>ignored</t>
+  </si>
 </sst>
 </file>
 
@@ -1100,7 +1100,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1208,6 +1208,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1966,8 +1967,8 @@
   <dimension ref="A1:AJ125"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE37" sqref="AE37"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,12 +1991,13 @@
     <col min="17" max="17" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="12" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" style="12" customWidth="1"/>
     <col min="24" max="24" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="12" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" style="12" customWidth="1"/>
     <col min="27" max="27" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
@@ -2012,28 +2014,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>171</v>
@@ -2093,22 +2095,22 @@
         <v>135</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>126</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI1" s="29" t="s">
         <v>1</v>
@@ -15446,7 +15448,7 @@
       </c>
       <c r="K93" s="17" t="str">
         <f>PAU!C93</f>
-        <v>PAU_Offset8 when Tbit = '0' else PAU_OffsetWord</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L93" s="16">
         <f>PAU!D93</f>
@@ -15738,7 +15740,7 @@
       </c>
       <c r="K95" s="17" t="str">
         <f>PAU!C95</f>
-        <v>PAU_Offset8 when Tbit = '1' else PAU_OffsetWord</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L95" s="16">
         <f>PAU!D95</f>
@@ -15884,7 +15886,7 @@
       </c>
       <c r="K96" s="17" t="str">
         <f>PAU!C96</f>
-        <v>PAU_Offset12</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L96" s="16">
         <f>PAU!D96</f>
@@ -16030,7 +16032,7 @@
       </c>
       <c r="K97" s="17" t="str">
         <f>PAU!C97</f>
-        <v>PAU_OffsetReg</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L97" s="16">
         <f>PAU!D97</f>
@@ -16176,7 +16178,7 @@
       </c>
       <c r="K98" s="17" t="str">
         <f>PAU!C98</f>
-        <v>PAU_Offset12</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L98" s="16">
         <f>PAU!D98</f>
@@ -16322,7 +16324,7 @@
       </c>
       <c r="K99" s="17" t="str">
         <f>PAU!C99</f>
-        <v>PAU_OffsetReg</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L99" s="16">
         <f>PAU!D99</f>
@@ -16468,7 +16470,7 @@
       </c>
       <c r="K100" s="17" t="str">
         <f>PAU!C100</f>
-        <v>PAU_OffsetReg</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L100" s="16">
         <f>PAU!D100</f>
@@ -16614,7 +16616,7 @@
       </c>
       <c r="K101" s="17" t="str">
         <f>PAU!C101</f>
-        <v>PAU_OffsetReg</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L101" s="16">
         <f>PAU!D101</f>
@@ -16760,7 +16762,7 @@
       </c>
       <c r="K102" s="17" t="str">
         <f>PAU!C102</f>
-        <v>PAU_OffsetPR</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L102" s="16">
         <f>PAU!D102</f>
@@ -20239,7 +20241,7 @@
   <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20260,28 +20262,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20289,22 +20291,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>154</v>
@@ -20318,22 +20320,22 @@
         <v>141</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>154</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>154</v>
@@ -20347,22 +20349,22 @@
         <v>142</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>154</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>154</v>
@@ -20376,13 +20378,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>154</v>
@@ -20391,7 +20393,7 @@
         <v>154</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>154</v>
@@ -20405,13 +20407,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>154</v>
@@ -20420,7 +20422,7 @@
         <v>154</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>154</v>
@@ -20434,13 +20436,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>154</v>
@@ -20449,7 +20451,7 @@
         <v>154</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>154</v>
@@ -20463,13 +20465,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>154</v>
@@ -20478,7 +20480,7 @@
         <v>154</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>154</v>
@@ -20492,13 +20494,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>154</v>
@@ -20507,7 +20509,7 @@
         <v>154</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>154</v>
@@ -20521,13 +20523,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>154</v>
@@ -20536,7 +20538,7 @@
         <v>154</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>154</v>
@@ -20550,13 +20552,13 @@
         <v>177</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>154</v>
@@ -20565,7 +20567,7 @@
         <v>154</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>154</v>
@@ -20579,13 +20581,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>154</v>
@@ -20594,7 +20596,7 @@
         <v>154</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>154</v>
@@ -20608,13 +20610,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>154</v>
@@ -20623,7 +20625,7 @@
         <v>154</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>154</v>
@@ -20637,13 +20639,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>154</v>
@@ -20652,7 +20654,7 @@
         <v>154</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>154</v>
@@ -20666,13 +20668,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>154</v>
@@ -20681,7 +20683,7 @@
         <v>154</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>154</v>
@@ -20695,13 +20697,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>154</v>
@@ -20710,7 +20712,7 @@
         <v>154</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>154</v>
@@ -20724,13 +20726,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>154</v>
@@ -20739,7 +20741,7 @@
         <v>154</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>154</v>
@@ -20753,13 +20755,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>154</v>
@@ -20768,7 +20770,7 @@
         <v>154</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>154</v>
@@ -20782,13 +20784,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>154</v>
@@ -20797,7 +20799,7 @@
         <v>154</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>154</v>
@@ -20811,13 +20813,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>154</v>
@@ -20826,7 +20828,7 @@
         <v>154</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>154</v>
@@ -20840,13 +20842,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>154</v>
@@ -20855,7 +20857,7 @@
         <v>154</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>154</v>
@@ -20869,13 +20871,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>154</v>
@@ -20884,7 +20886,7 @@
         <v>154</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>154</v>
@@ -20898,13 +20900,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>154</v>
@@ -20913,7 +20915,7 @@
         <v>154</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>154</v>
@@ -20927,13 +20929,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>154</v>
@@ -20942,7 +20944,7 @@
         <v>154</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>154</v>
@@ -20956,13 +20958,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>154</v>
@@ -20971,7 +20973,7 @@
         <v>154</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>154</v>
@@ -20985,13 +20987,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>154</v>
@@ -21000,7 +21002,7 @@
         <v>154</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>154</v>
@@ -21014,13 +21016,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>154</v>
@@ -21029,7 +21031,7 @@
         <v>154</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>154</v>
@@ -21043,13 +21045,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>154</v>
@@ -21058,7 +21060,7 @@
         <v>154</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>154</v>
@@ -21072,13 +21074,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>154</v>
@@ -21087,7 +21089,7 @@
         <v>154</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>154</v>
@@ -21101,13 +21103,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>154</v>
@@ -21116,7 +21118,7 @@
         <v>154</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>154</v>
@@ -21130,13 +21132,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>154</v>
@@ -21145,7 +21147,7 @@
         <v>154</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>154</v>
@@ -21159,13 +21161,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>154</v>
@@ -21174,7 +21176,7 @@
         <v>154</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>154</v>
@@ -21188,13 +21190,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>154</v>
@@ -21203,7 +21205,7 @@
         <v>154</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>154</v>
@@ -21217,13 +21219,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>154</v>
@@ -21232,7 +21234,7 @@
         <v>154</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>154</v>
@@ -21246,13 +21248,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>154</v>
@@ -21261,7 +21263,7 @@
         <v>154</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>154</v>
@@ -21275,13 +21277,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>154</v>
@@ -21290,7 +21292,7 @@
         <v>154</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>154</v>
@@ -21304,13 +21306,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>154</v>
@@ -21319,7 +21321,7 @@
         <v>154</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>154</v>
@@ -21333,13 +21335,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>154</v>
@@ -21348,7 +21350,7 @@
         <v>154</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>154</v>
@@ -21362,13 +21364,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>154</v>
@@ -21377,7 +21379,7 @@
         <v>154</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>154</v>
@@ -21391,13 +21393,13 @@
         <v>41</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>154</v>
@@ -21406,7 +21408,7 @@
         <v>154</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H40" s="19" t="s">
         <v>154</v>
@@ -21420,22 +21422,22 @@
         <v>42</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="F41" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>154</v>
@@ -21449,22 +21451,22 @@
         <v>43</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>154</v>
@@ -21478,25 +21480,25 @@
         <v>44</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G43" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="I43" s="20">
         <v>1</v>
@@ -21507,25 +21509,25 @@
         <v>45</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C44" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="F44" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I44" s="20">
         <v>1</v>
@@ -21536,25 +21538,25 @@
         <v>46</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="I45" s="20">
         <v>1</v>
@@ -21565,25 +21567,25 @@
         <v>47</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="I46" s="20">
         <v>1</v>
@@ -21594,25 +21596,25 @@
         <v>48</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G47" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="I47" s="20">
         <v>1</v>
@@ -21623,25 +21625,25 @@
         <v>49</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E48" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>208</v>
       </c>
       <c r="I48" s="20">
         <v>1</v>
@@ -21652,25 +21654,25 @@
         <v>50</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I49" s="20">
         <v>1</v>
@@ -21681,25 +21683,25 @@
         <v>51</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I50" s="20">
         <v>1</v>
@@ -21710,25 +21712,25 @@
         <v>52</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C51" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="F51" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I51" s="20">
         <v>1</v>
@@ -21739,25 +21741,25 @@
         <v>53</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C52" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="F52" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="I52" s="20">
         <v>1</v>
@@ -21768,10 +21770,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>154</v>
@@ -21783,10 +21785,10 @@
         <v>154</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I53" s="20">
         <v>1</v>
@@ -21794,28 +21796,28 @@
     </row>
     <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C54" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="F54" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I54" s="20">
         <v>1</v>
@@ -21826,14 +21828,14 @@
         <v>56</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>199</v>
-      </c>
       <c r="E55" s="17" t="s">
         <v>154</v>
       </c>
@@ -21841,7 +21843,7 @@
         <v>154</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>154</v>
@@ -21855,14 +21857,14 @@
         <v>57</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>199</v>
-      </c>
       <c r="E56" s="17" t="s">
         <v>154</v>
       </c>
@@ -21870,7 +21872,7 @@
         <v>154</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H56" s="17" t="s">
         <v>154</v>
@@ -21884,14 +21886,14 @@
         <v>58</v>
       </c>
       <c r="B57" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>199</v>
-      </c>
       <c r="E57" s="17" t="s">
         <v>154</v>
       </c>
@@ -21899,7 +21901,7 @@
         <v>154</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>154</v>
@@ -21913,14 +21915,14 @@
         <v>59</v>
       </c>
       <c r="B58" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>199</v>
-      </c>
       <c r="E58" s="17" t="s">
         <v>154</v>
       </c>
@@ -21928,7 +21930,7 @@
         <v>154</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>154</v>
@@ -21942,22 +21944,22 @@
         <v>60</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H59" s="17" t="s">
         <v>154</v>
@@ -21971,25 +21973,25 @@
         <v>61</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="I60" s="20">
         <v>1</v>
@@ -22000,22 +22002,22 @@
         <v>62</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H61" s="17" t="s">
         <v>154</v>
@@ -22029,25 +22031,25 @@
         <v>63</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I62" s="20">
         <v>1</v>
@@ -22058,25 +22060,25 @@
         <v>64</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I63" s="20">
         <v>1</v>
@@ -22087,13 +22089,13 @@
         <v>65</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>154</v>
@@ -22102,7 +22104,7 @@
         <v>154</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H64" s="17" t="s">
         <v>154</v>
@@ -22116,13 +22118,13 @@
         <v>66</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>154</v>
@@ -22131,7 +22133,7 @@
         <v>154</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H65" s="17" t="s">
         <v>154</v>
@@ -22145,13 +22147,13 @@
         <v>67</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>154</v>
@@ -22160,7 +22162,7 @@
         <v>154</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H66" s="17" t="s">
         <v>154</v>
@@ -22177,10 +22179,10 @@
         <v>139</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>154</v>
@@ -22189,7 +22191,7 @@
         <v>154</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H67" s="17" t="s">
         <v>154</v>
@@ -22203,13 +22205,13 @@
         <v>69</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>154</v>
@@ -22218,7 +22220,7 @@
         <v>154</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H68" s="17" t="s">
         <v>154</v>
@@ -22232,13 +22234,13 @@
         <v>70</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>154</v>
@@ -22247,7 +22249,7 @@
         <v>154</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H69" s="17" t="s">
         <v>154</v>
@@ -22261,13 +22263,13 @@
         <v>71</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>154</v>
@@ -22276,7 +22278,7 @@
         <v>154</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H70" s="17" t="s">
         <v>154</v>
@@ -22290,13 +22292,13 @@
         <v>72</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>154</v>
@@ -22305,10 +22307,10 @@
         <v>154</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I71" s="20">
         <v>1</v>
@@ -22319,13 +22321,13 @@
         <v>73</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>154</v>
@@ -22334,10 +22336,10 @@
         <v>154</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I72" s="20">
         <v>1</v>
@@ -22348,13 +22350,13 @@
         <v>74</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>154</v>
@@ -22363,10 +22365,10 @@
         <v>154</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I73" s="20">
         <v>1</v>
@@ -22377,13 +22379,13 @@
         <v>75</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>154</v>
@@ -22392,10 +22394,10 @@
         <v>154</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I74" s="20">
         <v>1</v>
@@ -22406,13 +22408,13 @@
         <v>76</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>154</v>
@@ -22421,7 +22423,7 @@
         <v>154</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H75" s="17" t="s">
         <v>154</v>
@@ -22435,14 +22437,14 @@
         <v>77</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C76" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>223</v>
-      </c>
       <c r="E76" s="17" t="s">
         <v>154</v>
       </c>
@@ -22450,7 +22452,7 @@
         <v>154</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H76" s="17" t="s">
         <v>154</v>
@@ -22464,14 +22466,14 @@
         <v>78</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C77" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>223</v>
-      </c>
       <c r="E77" s="17" t="s">
         <v>154</v>
       </c>
@@ -22479,7 +22481,7 @@
         <v>154</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H77" s="17" t="s">
         <v>154</v>
@@ -22493,10 +22495,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>154</v>
@@ -22505,13 +22507,13 @@
         <v>154</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I78" s="20">
         <v>1</v>
@@ -22522,10 +22524,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>154</v>
@@ -22534,13 +22536,13 @@
         <v>154</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I79" s="20">
         <v>1</v>
@@ -22551,10 +22553,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>154</v>
@@ -22563,13 +22565,13 @@
         <v>154</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I80" s="20">
         <v>1</v>
@@ -22580,10 +22582,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>154</v>
@@ -22592,13 +22594,13 @@
         <v>154</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I81" s="20">
         <v>1</v>
@@ -22609,10 +22611,10 @@
         <v>83</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>154</v>
@@ -22621,13 +22623,13 @@
         <v>154</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I82" s="20">
         <v>1</v>
@@ -22638,10 +22640,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>154</v>
@@ -22650,13 +22652,13 @@
         <v>154</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I83" s="20">
         <v>1</v>
@@ -22667,10 +22669,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>154</v>
@@ -22679,13 +22681,13 @@
         <v>154</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I84" s="20">
         <v>1</v>
@@ -22696,10 +22698,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>154</v>
@@ -22708,13 +22710,13 @@
         <v>154</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I85" s="20">
         <v>1</v>
@@ -22725,10 +22727,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>154</v>
@@ -22737,10 +22739,10 @@
         <v>154</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>154</v>
@@ -22754,10 +22756,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>154</v>
@@ -22766,10 +22768,10 @@
         <v>154</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>154</v>
@@ -22783,10 +22785,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>154</v>
@@ -22795,10 +22797,10 @@
         <v>154</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>154</v>
@@ -22812,10 +22814,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>154</v>
@@ -22824,10 +22826,10 @@
         <v>154</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>154</v>
@@ -22841,10 +22843,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>154</v>
@@ -22853,10 +22855,10 @@
         <v>154</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>154</v>
@@ -22870,10 +22872,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>154</v>
@@ -22882,10 +22884,10 @@
         <v>154</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>154</v>
@@ -23224,7 +23226,7 @@
         <v>139</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>154</v>
@@ -23233,10 +23235,10 @@
         <v>154</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I103" s="20">
         <v>1</v>
@@ -23476,7 +23478,7 @@
     </row>
     <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>139</v>
@@ -23505,7 +23507,7 @@
     </row>
     <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>139</v>
@@ -23534,7 +23536,7 @@
     </row>
     <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B114" s="17" t="s">
         <v>139</v>
@@ -23563,7 +23565,7 @@
     </row>
     <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>139</v>
@@ -23572,7 +23574,7 @@
         <v>139</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E115" s="18" t="s">
         <v>154</v>
@@ -23581,10 +23583,10 @@
         <v>154</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I115" s="24">
         <v>1</v>
@@ -23592,7 +23594,7 @@
     </row>
     <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>139</v>
@@ -23621,7 +23623,7 @@
     </row>
     <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>139</v>
@@ -23650,7 +23652,7 @@
     </row>
     <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>139</v>
@@ -23679,7 +23681,7 @@
     </row>
     <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>139</v>
@@ -23708,7 +23710,7 @@
     </row>
     <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>139</v>
@@ -23737,7 +23739,7 @@
     </row>
     <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>139</v>
@@ -23766,7 +23768,7 @@
     </row>
     <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>139</v>
@@ -23795,7 +23797,7 @@
     </row>
     <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>139</v>
@@ -23824,7 +23826,7 @@
     </row>
     <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B124" s="17" t="s">
         <v>139</v>
@@ -23853,7 +23855,7 @@
     </row>
     <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>139</v>
@@ -23895,8 +23897,8 @@
   </sheetPr>
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25479,8 +25481,8 @@
       <c r="B93" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="21" t="s">
-        <v>178</v>
+      <c r="C93" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="D93" s="16">
         <v>1</v>
@@ -25513,8 +25515,8 @@
       <c r="B95" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>179</v>
+      <c r="C95" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="D95" s="16">
         <v>1</v>
@@ -25531,7 +25533,7 @@
         <v>175</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D96" s="16">
         <v>1</v>
@@ -25548,7 +25550,7 @@
         <v>175</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D97" s="16">
         <v>1</v>
@@ -25565,7 +25567,7 @@
         <v>175</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D98" s="16">
         <v>1</v>
@@ -25582,7 +25584,7 @@
         <v>175</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D99" s="16">
         <v>1</v>
@@ -25596,10 +25598,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D100" s="16">
         <v>1</v>
@@ -25613,10 +25615,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D101" s="16">
         <v>1</v>
@@ -25630,10 +25632,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D102" s="16">
         <v>1</v>
@@ -25797,7 +25799,7 @@
     </row>
     <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>139</v>
@@ -25834,10 +25836,10 @@
         <v>114</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D114" s="16">
         <v>1</v>
@@ -26021,10 +26023,10 @@
         <v>170</v>
       </c>
       <c r="B125" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>184</v>
       </c>
       <c r="D125" s="5">
         <v>1</v>
@@ -26049,7 +26051,7 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -28599,7 +28601,7 @@
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>139</v>
@@ -29227,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>139</v>
@@ -29259,7 +29261,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>139</v>
@@ -29291,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>139</v>
@@ -29317,7 +29319,7 @@
         <v>138</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G12" s="24">
         <v>1</v>
@@ -29349,7 +29351,7 @@
         <v>138</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -29381,7 +29383,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G14" s="24">
         <v>1</v>
@@ -29413,13 +29415,13 @@
         <v>138</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>139</v>
@@ -29445,13 +29447,13 @@
         <v>138</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>139</v>
@@ -29477,13 +29479,13 @@
         <v>138</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G17" s="24">
         <v>1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>139</v>
@@ -29611,7 +29613,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>139</v>
@@ -29643,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>139</v>
@@ -29675,7 +29677,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>139</v>
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>139</v>
@@ -29835,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>139</v>
@@ -29867,7 +29869,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>139</v>
@@ -29995,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>139</v>
@@ -30027,7 +30029,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>139</v>
@@ -30059,7 +30061,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>139</v>
@@ -30091,7 +30093,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>139</v>
@@ -30367,7 +30369,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>138</v>
@@ -31007,7 +31009,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>138</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>138</v>
@@ -31135,7 +31137,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>138</v>
@@ -31167,7 +31169,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>138</v>
@@ -31263,7 +31265,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>138</v>
@@ -31295,7 +31297,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>138</v>
@@ -31359,7 +31361,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>138</v>
@@ -31391,7 +31393,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>138</v>
@@ -32382,7 +32384,7 @@
     </row>
     <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B112" s="17"/>
       <c r="C112" s="16"/>
@@ -32661,22 +32663,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>269</v>
+      <c r="G1" s="39" t="s">
+        <v>267</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="13"/>
@@ -32696,7 +32698,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>139</v>
@@ -32704,8 +32706,8 @@
       <c r="F2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>271</v>
+      <c r="G2" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
@@ -32725,16 +32727,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>271</v>
+      <c r="G3" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
@@ -32754,16 +32756,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>270</v>
+      <c r="G4" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
@@ -32783,16 +32785,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>271</v>
+      <c r="G5" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -32812,16 +32814,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
@@ -32841,16 +32843,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>271</v>
+        <v>251</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
@@ -32870,16 +32872,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -32899,16 +32901,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>272</v>
+      <c r="G9" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -32928,16 +32930,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>271</v>
+      <c r="G10" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
@@ -32957,16 +32959,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>270</v>
+      <c r="G11" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
@@ -32986,16 +32988,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
@@ -33015,16 +33017,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>271</v>
+        <v>251</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="18"/>
@@ -33044,16 +33046,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
@@ -33073,16 +33075,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>272</v>
+      <c r="G15" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
@@ -33102,16 +33104,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>271</v>
+      <c r="G16" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
@@ -33131,16 +33133,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>270</v>
+      <c r="G17" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
@@ -33160,16 +33162,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
@@ -33189,16 +33191,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>271</v>
+        <v>251</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
@@ -33218,16 +33220,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
@@ -33247,16 +33249,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>272</v>
+      <c r="G21" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
@@ -33276,16 +33278,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>271</v>
+      <c r="G22" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
@@ -33305,16 +33307,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>270</v>
+      <c r="G23" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
@@ -33334,16 +33336,16 @@
         <v>0</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
@@ -33363,16 +33365,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>271</v>
+        <v>251</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
@@ -33392,16 +33394,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
@@ -33421,16 +33423,16 @@
         <v>1</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>272</v>
+      <c r="G27" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
@@ -33450,16 +33452,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>271</v>
+      <c r="G28" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
@@ -33479,16 +33481,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="37" t="s">
-        <v>270</v>
+      <c r="G29" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
@@ -33508,16 +33510,16 @@
         <v>0</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
@@ -33537,16 +33539,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>271</v>
+        <v>251</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
@@ -33566,16 +33568,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
@@ -33595,16 +33597,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>272</v>
+      <c r="G33" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
@@ -33624,16 +33626,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>271</v>
+      <c r="G34" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
@@ -33653,16 +33655,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="37" t="s">
-        <v>270</v>
+      <c r="G35" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
@@ -33682,14 +33684,14 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="37" t="s">
-        <v>270</v>
+      <c r="G36" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="18"/>
@@ -33709,14 +33711,14 @@
         <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="37" t="s">
-        <v>271</v>
+      <c r="G37" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="18"/>
@@ -33736,14 +33738,14 @@
         <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="37" t="s">
-        <v>272</v>
+      <c r="G38" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -33763,14 +33765,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="37" t="s">
-        <v>271</v>
+      <c r="G39" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -33790,14 +33792,14 @@
         <v>1</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="37" t="s">
-        <v>270</v>
+      <c r="G40" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -33817,7 +33819,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>139</v>
@@ -33825,8 +33827,8 @@
       <c r="F41" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="37" t="s">
-        <v>271</v>
+      <c r="G41" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -33846,7 +33848,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>139</v>
@@ -33854,8 +33856,8 @@
       <c r="F42" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="37" t="s">
-        <v>271</v>
+      <c r="G42" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -33875,7 +33877,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>139</v>
@@ -33883,8 +33885,8 @@
       <c r="F43" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="37" t="s">
-        <v>271</v>
+      <c r="G43" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -33904,7 +33906,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>139</v>
@@ -33912,8 +33914,8 @@
       <c r="F44" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>271</v>
+      <c r="G44" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -33933,7 +33935,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>139</v>
@@ -33941,8 +33943,8 @@
       <c r="F45" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="37" t="s">
-        <v>271</v>
+      <c r="G45" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -33962,7 +33964,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>139</v>
@@ -33970,8 +33972,8 @@
       <c r="F46" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="37" t="s">
-        <v>271</v>
+      <c r="G46" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -33991,7 +33993,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>139</v>
@@ -33999,8 +34001,8 @@
       <c r="F47" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="37" t="s">
-        <v>271</v>
+      <c r="G47" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -34020,7 +34022,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>139</v>
@@ -34028,8 +34030,8 @@
       <c r="F48" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="37" t="s">
-        <v>271</v>
+      <c r="G48" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -34049,7 +34051,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>139</v>
@@ -34057,8 +34059,8 @@
       <c r="F49" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="37" t="s">
-        <v>271</v>
+      <c r="G49" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -34078,7 +34080,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>139</v>
@@ -34086,8 +34088,8 @@
       <c r="F50" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="37" t="s">
-        <v>271</v>
+      <c r="G50" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -34107,7 +34109,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>139</v>
@@ -34115,8 +34117,8 @@
       <c r="F51" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="37" t="s">
-        <v>271</v>
+      <c r="G51" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -34136,7 +34138,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>139</v>
@@ -34144,8 +34146,8 @@
       <c r="F52" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G52" s="37" t="s">
-        <v>271</v>
+      <c r="G52" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -34165,7 +34167,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>139</v>
@@ -34173,8 +34175,8 @@
       <c r="F53" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="37" t="s">
-        <v>271</v>
+      <c r="G53" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -34194,7 +34196,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>139</v>
@@ -34202,8 +34204,8 @@
       <c r="F54" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="37" t="s">
-        <v>271</v>
+      <c r="G54" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -34223,7 +34225,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>139</v>
@@ -34231,8 +34233,8 @@
       <c r="F55" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>271</v>
+      <c r="G55" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -34252,7 +34254,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>139</v>
@@ -34260,8 +34262,8 @@
       <c r="F56" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G56" s="37" t="s">
-        <v>271</v>
+      <c r="G56" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -34281,7 +34283,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>139</v>
@@ -34289,8 +34291,8 @@
       <c r="F57" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G57" s="37" t="s">
-        <v>271</v>
+      <c r="G57" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -34310,7 +34312,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>139</v>
@@ -34318,8 +34320,8 @@
       <c r="F58" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="37" t="s">
-        <v>271</v>
+      <c r="G58" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -34339,7 +34341,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>139</v>
@@ -34347,8 +34349,8 @@
       <c r="F59" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G59" s="37" t="s">
-        <v>271</v>
+      <c r="G59" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -34368,7 +34370,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>139</v>
@@ -34376,8 +34378,8 @@
       <c r="F60" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="37" t="s">
-        <v>271</v>
+      <c r="G60" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -34397,7 +34399,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>139</v>
@@ -34405,8 +34407,8 @@
       <c r="F61" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G61" s="37" t="s">
-        <v>271</v>
+      <c r="G61" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -34426,7 +34428,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>139</v>
@@ -34434,8 +34436,8 @@
       <c r="F62" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G62" s="37" t="s">
-        <v>271</v>
+      <c r="G62" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
@@ -34455,7 +34457,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>139</v>
@@ -34463,8 +34465,8 @@
       <c r="F63" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G63" s="37" t="s">
-        <v>271</v>
+      <c r="G63" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
@@ -34484,14 +34486,14 @@
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="37" t="s">
-        <v>271</v>
+      <c r="G64" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
@@ -34511,14 +34513,14 @@
         <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="37" t="s">
-        <v>271</v>
+      <c r="G65" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
@@ -34538,14 +34540,14 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F66" s="20"/>
-      <c r="G66" s="37" t="s">
-        <v>271</v>
+      <c r="G66" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="18"/>
@@ -34565,14 +34567,14 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="37" t="s">
-        <v>271</v>
+      <c r="G67" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -34592,14 +34594,14 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="37" t="s">
-        <v>271</v>
+      <c r="G68" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -34619,14 +34621,14 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="37" t="s">
-        <v>271</v>
+      <c r="G69" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
@@ -34646,14 +34648,14 @@
         <v>1</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F70" s="20"/>
-      <c r="G70" s="37" t="s">
-        <v>271</v>
+      <c r="G70" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="18"/>
@@ -34673,14 +34675,14 @@
         <v>1</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="37" t="s">
-        <v>271</v>
+      <c r="G71" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="18"/>
@@ -34700,14 +34702,14 @@
         <v>1</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="37" t="s">
-        <v>271</v>
+      <c r="G72" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
@@ -34727,14 +34729,14 @@
         <v>1</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F73" s="16"/>
-      <c r="G73" s="37" t="s">
-        <v>271</v>
+      <c r="G73" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
@@ -34754,14 +34756,14 @@
         <v>1</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="37" t="s">
-        <v>271</v>
+      <c r="G74" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="18"/>
@@ -34781,14 +34783,14 @@
         <v>1</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F75" s="16"/>
-      <c r="G75" s="37" t="s">
-        <v>271</v>
+      <c r="G75" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
@@ -34808,14 +34810,14 @@
         <v>1</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F76" s="16"/>
-      <c r="G76" s="37" t="s">
-        <v>271</v>
+      <c r="G76" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -34835,14 +34837,14 @@
         <v>1</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="37" t="s">
-        <v>271</v>
+      <c r="G77" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="18"/>
@@ -34862,14 +34864,14 @@
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F78" s="16"/>
-      <c r="G78" s="37" t="s">
-        <v>271</v>
+      <c r="G78" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -34889,14 +34891,14 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F79" s="16"/>
-      <c r="G79" s="37" t="s">
-        <v>271</v>
+      <c r="G79" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
@@ -34916,14 +34918,14 @@
         <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F80" s="16"/>
-      <c r="G80" s="37" t="s">
-        <v>271</v>
+      <c r="G80" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
@@ -34943,14 +34945,14 @@
         <v>1</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F81" s="16"/>
-      <c r="G81" s="37" t="s">
-        <v>271</v>
+      <c r="G81" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -34970,14 +34972,14 @@
         <v>1</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F82" s="16"/>
-      <c r="G82" s="37" t="s">
-        <v>271</v>
+      <c r="G82" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
@@ -34997,14 +34999,14 @@
         <v>1</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F83" s="16"/>
-      <c r="G83" s="37" t="s">
-        <v>271</v>
+      <c r="G83" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
@@ -35024,14 +35026,14 @@
         <v>1</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F84" s="16"/>
-      <c r="G84" s="37" t="s">
-        <v>271</v>
+      <c r="G84" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
@@ -35051,14 +35053,14 @@
         <v>1</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F85" s="16"/>
-      <c r="G85" s="37" t="s">
-        <v>271</v>
+      <c r="G85" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -35078,14 +35080,14 @@
         <v>1</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F86" s="16"/>
-      <c r="G86" s="37" t="s">
-        <v>271</v>
+      <c r="G86" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
@@ -35105,14 +35107,14 @@
         <v>1</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F87" s="16"/>
-      <c r="G87" s="37" t="s">
-        <v>271</v>
+      <c r="G87" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -35132,14 +35134,14 @@
         <v>1</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F88" s="16"/>
-      <c r="G88" s="37" t="s">
-        <v>271</v>
+      <c r="G88" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
@@ -35159,14 +35161,14 @@
         <v>1</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F89" s="16"/>
-      <c r="G89" s="37" t="s">
-        <v>271</v>
+      <c r="G89" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
@@ -35186,14 +35188,14 @@
         <v>1</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F90" s="16"/>
-      <c r="G90" s="37" t="s">
-        <v>271</v>
+      <c r="G90" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
@@ -35213,14 +35215,14 @@
         <v>1</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="G91" s="37" t="s">
-        <v>271</v>
+      <c r="G91" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
@@ -35240,14 +35242,14 @@
         <v>1</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="G92" s="37" t="s">
-        <v>271</v>
+      <c r="G92" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
@@ -35267,14 +35269,14 @@
         <v>1</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="G93" s="37" t="s">
-        <v>271</v>
+      <c r="G93" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -35294,14 +35296,14 @@
         <v>1</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F94" s="16"/>
-      <c r="G94" s="37" t="s">
-        <v>271</v>
+      <c r="G94" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
@@ -35321,14 +35323,14 @@
         <v>1</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F95" s="16"/>
-      <c r="G95" s="37" t="s">
-        <v>271</v>
+      <c r="G95" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
@@ -35348,14 +35350,14 @@
         <v>1</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F96" s="16"/>
-      <c r="G96" s="37" t="s">
-        <v>271</v>
+      <c r="G96" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
@@ -35375,14 +35377,14 @@
         <v>1</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F97" s="16"/>
-      <c r="G97" s="37" t="s">
-        <v>271</v>
+      <c r="G97" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
@@ -35402,14 +35404,14 @@
         <v>1</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F98" s="16"/>
-      <c r="G98" s="37" t="s">
-        <v>271</v>
+      <c r="G98" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
@@ -35429,14 +35431,14 @@
         <v>1</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F99" s="16"/>
-      <c r="G99" s="37" t="s">
-        <v>271</v>
+      <c r="G99" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
@@ -35456,14 +35458,14 @@
         <v>1</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F100" s="16"/>
-      <c r="G100" s="37" t="s">
-        <v>271</v>
+      <c r="G100" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
@@ -35483,14 +35485,14 @@
         <v>1</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F101" s="16"/>
-      <c r="G101" s="37" t="s">
-        <v>271</v>
+      <c r="G101" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
@@ -35510,14 +35512,14 @@
         <v>1</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F102" s="16"/>
-      <c r="G102" s="37" t="s">
-        <v>271</v>
+      <c r="G102" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
@@ -35537,12 +35539,12 @@
         <v>1</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
-      <c r="G103" s="37" t="s">
-        <v>271</v>
+      <c r="G103" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
@@ -35562,12 +35564,12 @@
         <v>1</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
-      <c r="G104" s="37" t="s">
-        <v>271</v>
+      <c r="G104" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
@@ -35587,12 +35589,12 @@
         <v>1</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
-      <c r="G105" s="37" t="s">
-        <v>271</v>
+      <c r="G105" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
@@ -35612,12 +35614,12 @@
         <v>1</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
-      <c r="G106" s="37" t="s">
-        <v>271</v>
+      <c r="G106" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
@@ -35637,12 +35639,12 @@
         <v>1</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
-      <c r="G107" s="37" t="s">
-        <v>271</v>
+      <c r="G107" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="18"/>
@@ -35662,12 +35664,12 @@
         <v>1</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-      <c r="G108" s="37" t="s">
-        <v>271</v>
+      <c r="G108" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="18"/>
@@ -35687,12 +35689,12 @@
         <v>1</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="37" t="s">
-        <v>271</v>
+      <c r="G109" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="18"/>
@@ -35712,12 +35714,12 @@
         <v>1</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
-      <c r="G110" s="37" t="s">
-        <v>271</v>
+      <c r="G110" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
@@ -35737,12 +35739,12 @@
         <v>1</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
-      <c r="G111" s="37" t="s">
-        <v>271</v>
+      <c r="G111" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="18"/>
@@ -35753,7 +35755,7 @@
     </row>
     <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B112" s="20">
         <v>1</v>
@@ -35762,12 +35764,12 @@
         <v>1</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
-      <c r="G112" s="37" t="s">
-        <v>271</v>
+      <c r="G112" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="18"/>
@@ -35787,12 +35789,12 @@
         <v>1</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
-      <c r="G113" s="37" t="s">
-        <v>271</v>
+      <c r="G113" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
@@ -35812,12 +35814,12 @@
         <v>1</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="37" t="s">
-        <v>271</v>
+      <c r="G114" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="18"/>
@@ -35837,12 +35839,12 @@
         <v>1</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
-      <c r="G115" s="37" t="s">
-        <v>271</v>
+      <c r="G115" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
@@ -35862,12 +35864,12 @@
         <v>1</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
-      <c r="G116" s="37" t="s">
-        <v>271</v>
+      <c r="G116" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
@@ -35887,12 +35889,12 @@
         <v>1</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
-      <c r="G117" s="37" t="s">
-        <v>271</v>
+      <c r="G117" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
@@ -35912,12 +35914,12 @@
         <v>1</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
-      <c r="G118" s="37" t="s">
-        <v>271</v>
+      <c r="G118" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
@@ -35937,12 +35939,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
-      <c r="G119" s="37" t="s">
-        <v>271</v>
+      <c r="G119" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="18"/>
@@ -35962,12 +35964,12 @@
         <v>0</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
-      <c r="G120" s="37" t="s">
-        <v>271</v>
+      <c r="G120" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="18"/>
@@ -35987,12 +35989,12 @@
         <v>0</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
-      <c r="G121" s="37" t="s">
-        <v>271</v>
+      <c r="G121" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="18"/>
@@ -36012,12 +36014,12 @@
         <v>1</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
-      <c r="G122" s="37" t="s">
-        <v>271</v>
+      <c r="G122" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
@@ -36037,12 +36039,12 @@
         <v>0</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
-      <c r="G123" s="37" t="s">
-        <v>271</v>
+      <c r="G123" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="18"/>
@@ -36062,12 +36064,12 @@
         <v>1</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="37" t="s">
-        <v>271</v>
+      <c r="G124" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="18"/>
@@ -36087,12 +36089,12 @@
         <v>1</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="37" t="s">
-        <v>271</v>
+      <c r="G125" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="M125" s="21"/>
     </row>
@@ -36138,7 +36140,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -36149,7 +36151,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -36157,10 +36159,10 @@
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -36171,7 +36173,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -36182,7 +36184,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -36193,7 +36195,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -36204,7 +36206,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -36226,7 +36228,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -36237,7 +36239,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -36248,7 +36250,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -36259,7 +36261,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -36270,7 +36272,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -36281,7 +36283,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -36292,7 +36294,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -36303,7 +36305,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -36314,7 +36316,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -36325,7 +36327,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -36336,7 +36338,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -36347,7 +36349,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -36369,7 +36371,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -36380,7 +36382,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -36391,7 +36393,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -36402,7 +36404,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -36413,7 +36415,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -36424,7 +36426,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -36435,7 +36437,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -36457,7 +36459,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -36468,7 +36470,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -36479,7 +36481,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -36490,7 +36492,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
@@ -36501,7 +36503,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
@@ -36512,7 +36514,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
@@ -36523,7 +36525,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -36534,7 +36536,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -36545,7 +36547,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -36556,7 +36558,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -36567,7 +36569,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -36578,7 +36580,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -36589,7 +36591,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -36600,7 +36602,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -36611,7 +36613,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -36622,7 +36624,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -36633,7 +36635,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -36644,7 +36646,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -36655,7 +36657,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -36666,7 +36668,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -36677,7 +36679,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -36688,7 +36690,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -36699,7 +36701,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -36710,7 +36712,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -36721,7 +36723,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -36732,7 +36734,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -36743,7 +36745,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -36754,7 +36756,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -36765,7 +36767,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -36776,7 +36778,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -36787,7 +36789,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -36798,7 +36800,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -36809,7 +36811,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -36820,7 +36822,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -36831,7 +36833,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -36842,7 +36844,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -36853,7 +36855,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -36864,7 +36866,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -36875,7 +36877,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -36886,7 +36888,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -36897,7 +36899,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -36908,7 +36910,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -36919,7 +36921,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -36930,7 +36932,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -36941,7 +36943,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -36952,7 +36954,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -36963,7 +36965,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -36974,7 +36976,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -36985,7 +36987,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C79" s="5">
         <v>1</v>
@@ -36996,7 +36998,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -37007,7 +37009,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
@@ -37018,7 +37020,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
@@ -37029,7 +37031,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -37040,7 +37042,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
@@ -37051,7 +37053,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
@@ -37062,7 +37064,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -37073,7 +37075,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
@@ -37084,7 +37086,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
@@ -37095,7 +37097,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -37106,7 +37108,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
@@ -37117,7 +37119,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
@@ -37128,7 +37130,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -37139,7 +37141,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -37150,7 +37152,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -37161,7 +37163,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -37172,7 +37174,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -37183,7 +37185,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -37194,7 +37196,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
@@ -37205,7 +37207,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99" s="5">
         <v>1</v>
@@ -37216,7 +37218,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" s="5">
         <v>1</v>
@@ -37227,7 +37229,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C101" s="5">
         <v>1</v>
@@ -37238,7 +37240,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C102" s="5">
         <v>1</v>
@@ -37249,7 +37251,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C103" s="5">
         <v>1</v>
@@ -37260,7 +37262,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C104" s="5">
         <v>1</v>
@@ -37271,7 +37273,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C105" s="5">
         <v>1</v>
@@ -37282,7 +37284,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C106" s="5">
         <v>1</v>
@@ -37293,7 +37295,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C107" s="5">
         <v>1</v>
@@ -37304,7 +37306,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C108" s="5">
         <v>1</v>
@@ -37315,7 +37317,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C109" s="5">
         <v>1</v>
@@ -37326,7 +37328,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C110" s="5">
         <v>1</v>
@@ -37337,7 +37339,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C111" s="5">
         <v>1</v>
@@ -37345,10 +37347,10 @@
     </row>
     <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="C112" s="5">
         <v>0</v>
@@ -37359,7 +37361,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C113" s="5">
         <v>1</v>
@@ -37370,7 +37372,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C114" s="5">
         <v>1</v>
@@ -37381,7 +37383,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C115" s="5">
         <v>1</v>
@@ -37392,7 +37394,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C116" s="5">
         <v>1</v>
@@ -37403,7 +37405,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C117" s="5">
         <v>1</v>
@@ -37414,7 +37416,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C118" s="5">
         <v>1</v>
@@ -37425,7 +37427,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C119" s="5">
         <v>1</v>
@@ -37436,7 +37438,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C120" s="5">
         <v>1</v>
@@ -37447,7 +37449,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C121" s="5">
         <v>1</v>
@@ -37458,7 +37460,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C122" s="5">
         <v>1</v>
@@ -37469,7 +37471,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C123" s="5">
         <v>1</v>
@@ -37480,7 +37482,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C124" s="5">
         <v>1</v>
@@ -37491,7 +37493,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C125" s="5">
         <v>1</v>
@@ -37508,10 +37510,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF521BB4-2DEC-48BF-9F68-8BCAEB743C1F}">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37549,31 +37551,31 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>171</v>
@@ -37633,22 +37635,22 @@
         <v>135</v>
       </c>
       <c r="AC1" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF1" s="33" t="s">
         <v>273</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE1" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF1" s="33" t="s">
-        <v>275</v>
       </c>
       <c r="AG1" s="33" t="s">
         <v>126</v>
       </c>
       <c r="AH1" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI1" s="34" t="s">
         <v>1</v>
@@ -37659,13 +37661,13 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
         <v>154</v>
@@ -37749,19 +37751,19 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI2" t="s">
         <v>255</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>257</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -37769,7 +37771,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
         <v>139</v>
@@ -37799,7 +37801,7 @@
         <v>175</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF3" t="s">
         <v>139</v>
@@ -37868,13 +37870,123 @@
         <v>139</v>
       </c>
       <c r="AH3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AI3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AJ3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>277</v>
+      </c>
+      <c r="R4" t="s">
+        <v>277</v>
+      </c>
+      <c r="S4" t="s">
+        <v>277</v>
+      </c>
+      <c r="T4" t="s">
+        <v>277</v>
+      </c>
+      <c r="U4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V4" t="s">
+        <v>277</v>
+      </c>
+      <c r="W4" t="s">
+        <v>277</v>
+      </c>
+      <c r="X4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -37889,239 +38001,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15ECE8-6287-4695-8EA7-45034B7ED938}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="str">
+      <c r="A1" s="42" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="str">
+      <c r="A2" s="42" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="str">
+      <c r="A3" s="42" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="str">
+      <c r="A4" s="42" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="str">
+      <c r="A5" s="42" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="str">
+      <c r="A6" s="42" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="str">
+      <c r="A7" s="42" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="str">
+      <c r="A8" s="42" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="str">
+      <c r="A9" s="42" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="str">
+      <c r="A10" s="42" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="str">
+      <c r="A11" s="42" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="str">
+      <c r="A12" s="42" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="str">
+      <c r="A13" s="42" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="str">
+      <c r="A14" s="42" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="str">
+      <c r="A15" s="42" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="str">
+      <c r="A16" s="42" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="str">
+      <c r="A17" s="41" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="str">
+      <c r="A18" s="41" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="str">
+      <c r="A19" s="41" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="str">
+      <c r="A20" s="41" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="str">
+      <c r="A21" s="41" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="str">
+      <c r="A22" s="41" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="str">
+      <c r="A23" s="41" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="str">
+      <c r="A24" s="41" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="str">
+      <c r="A25" s="41" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="str">
+      <c r="A26" s="41" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="str">
+      <c r="A27" s="41" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="str">
+      <c r="A28" s="41" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="str">
+      <c r="A29" s="41" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="str">
+      <c r="A30" s="41" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="str">
+      <c r="A31" s="41" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="str">
+      <c r="A32" s="41" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="str">
+      <c r="A33" s="41" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="str">
+      <c r="A34" s="41" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="str">
+      <c r="A35" s="41" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="str">
+      <c r="A36" s="41" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="str">
+      <c r="A37" s="41" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="str">
+      <c r="A38" s="41" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
       </c>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522CC793-2757-479F-AB2A-7A192E5927C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2E8189-DF76-40A3-A5F3-0A98EE487F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3920" uniqueCount="279">
   <si>
     <t>Instruction</t>
   </si>
@@ -901,6 +901,9 @@
   <si>
     <t>ignored</t>
   </si>
+  <si>
+    <t>UpdateTempReg</t>
+  </si>
 </sst>
 </file>
 
@@ -1100,7 +1103,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1208,12 +1211,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1226,7 +1227,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -1240,6 +1241,31 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1280,51 +1306,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1459,6 +1440,46 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
@@ -1475,9 +1496,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:AJ125" totalsRowShown="0">
-  <autoFilter ref="A1:AJ125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:AK125" totalsRowShown="0">
+  <autoFilter ref="A1:AK125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Instruction" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ALUOpASel"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ALUOpBSel"/>
@@ -1510,26 +1531,31 @@
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RegA1SelCmd"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RegA2SelCmd"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RegOpSel"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RD" dataDxfId="12">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RD" dataDxfId="13">
       <calculatedColumnFormula>IO!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{7CC31D84-B237-4D44-A659-0C7405E0DC1D}" name="WR" dataDxfId="11">
+    <tableColumn id="40" xr3:uid="{7CC31D84-B237-4D44-A659-0C7405E0DC1D}" name="WR" dataDxfId="12">
       <calculatedColumnFormula>IO!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{47C8206D-138D-4DDB-A699-0197A19A0B4B}" name="ABOutSel" dataDxfId="10">
+    <tableColumn id="34" xr3:uid="{47C8206D-138D-4DDB-A699-0197A19A0B4B}" name="ABOutSel" dataDxfId="11">
       <calculatedColumnFormula>IO!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{A7862601-9AB2-43C3-B0BF-E99C2E379B16}" name="DBInMode" dataDxfId="0">
+    <tableColumn id="43" xr3:uid="{A7862601-9AB2-43C3-B0BF-E99C2E379B16}" name="DBInMode" dataDxfId="10">
       <calculatedColumnFormula>IO!E2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" xr3:uid="{3C874C55-14EC-40FD-8E1B-959A171C140E}" name="DBOutSel" dataDxfId="9">
       <calculatedColumnFormula>IO!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{5C5242E0-CAC8-4654-8838-B7E211AA8F6E}" name="DataAccessMode" dataDxfId="2">
+    <tableColumn id="42" xr3:uid="{5C5242E0-CAC8-4654-8838-B7E211AA8F6E}" name="DataAccessMode" dataDxfId="8">
       <calculatedColumnFormula>IO!G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="NextState"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="UpdateIR"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="UpdateIR">
+      <calculatedColumnFormula>CU!C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{07338704-52A4-4070-9D04-405A4148F3DE}" name="UpdateTempReg" dataDxfId="0">
+      <calculatedColumnFormula>CU!D2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1607,10 +1633,10 @@
   <autoFilter ref="A1:G125" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Instruction"/>
-    <tableColumn id="8" xr3:uid="{708E7D7C-C6D1-479F-902D-CF78BF1AF9A2}" name="RD" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{6659E729-599B-40EA-A8B0-F8498DEDF371}" name="WR" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1500673A-35D1-4BFD-8F56-96677211AC82}" name="ABOutSel" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{E73D8210-D6F0-4C5B-AE29-B2C03A7B8DE9}" name="DBInMode" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{708E7D7C-C6D1-479F-902D-CF78BF1AF9A2}" name="RD" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{6659E729-599B-40EA-A8B0-F8498DEDF371}" name="WR" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1500673A-35D1-4BFD-8F56-96677211AC82}" name="ABOutSel" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{E73D8210-D6F0-4C5B-AE29-B2C03A7B8DE9}" name="DBInMode" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="DBOutSel"/>
     <tableColumn id="12" xr3:uid="{45A9F8EB-36C3-4B57-B307-5C8A3AACEAFC}" name="DataAccessMode" dataDxfId="3"/>
   </tableColumns>
@@ -1619,22 +1645,23 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:C125" totalsRowShown="0">
-  <autoFilter ref="A1:C125" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:D125" totalsRowShown="0">
+  <autoFilter ref="A1:D125" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="NextState"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="UpdateIR"/>
+    <tableColumn id="5" xr3:uid="{95CA1401-F2C8-4818-A54D-D7F14080F06D}" name="UpdateTempReg"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}" name="Table8" displayName="Table8" ref="A1:AJ4" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}" name="Table8" displayName="Table8" ref="A1:AJ4" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:AJ4" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{F3731410-185C-4B91-8535-E7C6B1BA41A0}" name="State" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{F3731410-185C-4B91-8535-E7C6B1BA41A0}" name="State" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{65E65804-6476-498A-9301-353C7895D8C6}" name="ALUOpASel"/>
     <tableColumn id="3" xr3:uid="{DF2A1A99-B208-4185-89E1-C4FCCE774BB4}" name="ALUOpBSel"/>
     <tableColumn id="4" xr3:uid="{A9D5AA0C-6DF1-42E8-9CD2-66AA8AEED612}" name="FCmd"/>
@@ -1964,11 +1991,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ125"/>
+  <dimension ref="A1:AK125"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2036,7 @@
     <col min="36" max="36" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2118,8 +2145,11 @@
       <c r="AJ1" s="30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -2264,8 +2294,12 @@
         <f>CU!C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK2" s="16">
+        <f>CU!D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -2410,8 +2444,12 @@
         <f>CU!C3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK3" s="16">
+        <f>CU!D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -2556,8 +2594,12 @@
         <f>CU!C4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK4" s="16">
+        <f>CU!D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -2702,8 +2744,12 @@
         <f>CU!C5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK5" s="16">
+        <f>CU!D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -2848,8 +2894,12 @@
         <f>CU!C6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK6" s="16">
+        <f>CU!D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -2994,8 +3044,12 @@
         <f>CU!C7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK7" s="16">
+        <f>CU!D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -3140,8 +3194,12 @@
         <f>CU!C8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK8" s="16">
+        <f>CU!D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -3286,8 +3344,12 @@
         <f>CU!C9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK9" s="16">
+        <f>CU!D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -3432,8 +3494,12 @@
         <f>CU!C10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK10" s="16">
+        <f>CU!D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -3578,8 +3644,12 @@
         <f>CU!C11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK11" s="16">
+        <f>CU!D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -3724,8 +3794,12 @@
         <f>CU!C12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK12" s="16">
+        <f>CU!D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -3870,8 +3944,12 @@
         <f>CU!C13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK13" s="16">
+        <f>CU!D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -4016,8 +4094,12 @@
         <f>CU!C14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="16">
+        <f>CU!D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -4162,8 +4244,12 @@
         <f>CU!C15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK15" s="16">
+        <f>CU!D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -4308,8 +4394,12 @@
         <f>CU!C16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK16" s="16">
+        <f>CU!D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -4454,8 +4544,12 @@
         <f>CU!C17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK17" s="16">
+        <f>CU!D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -4600,8 +4694,12 @@
         <f>CU!C18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK18" s="16">
+        <f>CU!D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -4746,8 +4844,12 @@
         <f>CU!C19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="16">
+        <f>CU!D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -4892,8 +4994,12 @@
         <f>CU!C20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK20" s="16">
+        <f>CU!D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -5038,8 +5144,12 @@
         <f>CU!C21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK21" s="16">
+        <f>CU!D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -5184,8 +5294,12 @@
         <f>CU!C22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK22" s="16">
+        <f>CU!D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -5330,8 +5444,12 @@
         <f>CU!C23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK23" s="16">
+        <f>CU!D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -5476,8 +5594,12 @@
         <f>CU!C24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK24" s="16">
+        <f>CU!D24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -5622,8 +5744,12 @@
         <f>CU!C25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK25" s="16">
+        <f>CU!D25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -5768,8 +5894,12 @@
         <f>CU!C26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK26" s="16">
+        <f>CU!D26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -5914,8 +6044,12 @@
         <f>CU!C27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK27" s="16">
+        <f>CU!D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -6060,8 +6194,12 @@
         <f>CU!C28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK28" s="16">
+        <f>CU!D28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -6206,8 +6344,12 @@
         <f>CU!C29</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK29" s="16">
+        <f>CU!D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -6352,8 +6494,12 @@
         <f>CU!C30</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK30" s="16">
+        <f>CU!D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -6498,8 +6644,12 @@
         <f>CU!C31</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK31" s="16">
+        <f>CU!D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -6644,8 +6794,12 @@
         <f>CU!C32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK32" s="16">
+        <f>CU!D32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -6790,8 +6944,12 @@
         <f>CU!C33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK33" s="16">
+        <f>CU!D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -6936,8 +7094,12 @@
         <f>CU!C34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK34" s="16">
+        <f>CU!D34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -7082,8 +7244,12 @@
         <f>CU!C35</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK35" s="16">
+        <f>CU!D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -7228,8 +7394,12 @@
         <f>CU!C36</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK36" s="16">
+        <f>CU!D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -7374,8 +7544,12 @@
         <f>CU!C37</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK37" s="16">
+        <f>CU!D37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -7520,8 +7694,12 @@
         <f>CU!C38</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK38" s="16">
+        <f>CU!D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -7666,8 +7844,12 @@
         <f>CU!C39</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK39" s="16">
+        <f>CU!D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -7812,8 +7994,12 @@
         <f>CU!C40</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK40" s="16">
+        <f>CU!D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -7958,8 +8144,12 @@
         <f>CU!C41</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK41" s="16">
+        <f>CU!D41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -8104,8 +8294,12 @@
         <f>CU!C42</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK42" s="16">
+        <f>CU!D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -8250,8 +8444,12 @@
         <f>CU!C43</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK43" s="16">
+        <f>CU!D43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -8396,8 +8594,12 @@
         <f>CU!C44</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK44" s="16">
+        <f>CU!D44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -8542,8 +8744,12 @@
         <f>CU!C45</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK45" s="16">
+        <f>CU!D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -8688,8 +8894,12 @@
         <f>CU!C46</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK46" s="16">
+        <f>CU!D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -8834,8 +9044,12 @@
         <f>CU!C47</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK47" s="16">
+        <f>CU!D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -8980,8 +9194,12 @@
         <f>CU!C48</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK48" s="16">
+        <f>CU!D48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -9126,8 +9344,12 @@
         <f>CU!C49</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK49" s="16">
+        <f>CU!D49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -9272,8 +9494,12 @@
         <f>CU!C50</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK50" s="16">
+        <f>CU!D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -9418,8 +9644,12 @@
         <f>CU!C51</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK51" s="16">
+        <f>CU!D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -9564,8 +9794,12 @@
         <f>CU!C52</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK52" s="16">
+        <f>CU!D52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -9710,8 +9944,12 @@
         <f>CU!C53</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK53" s="16">
+        <f>CU!D53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="str">
         <f>ALU!A54</f>
         <v>OpDT</v>
@@ -9856,8 +10094,12 @@
         <f>CU!C54</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK54" s="16">
+        <f>CU!D54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -10002,8 +10244,12 @@
         <f>CU!C55</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK55" s="16">
+        <f>CU!D55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -10148,8 +10394,12 @@
         <f>CU!C56</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK56" s="16">
+        <f>CU!D56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -10294,8 +10544,12 @@
         <f>CU!C57</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK57" s="16">
+        <f>CU!D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -10440,8 +10694,12 @@
         <f>CU!C58</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK58" s="16">
+        <f>CU!D58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -10586,8 +10844,12 @@
         <f>CU!C59</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK59" s="16">
+        <f>CU!D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -10732,8 +10994,12 @@
         <f>CU!C60</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK60" s="16">
+        <f>CU!D60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -10878,8 +11144,12 @@
         <f>CU!C61</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK61" s="16">
+        <f>CU!D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -11024,8 +11294,12 @@
         <f>CU!C62</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK62" s="16">
+        <f>CU!D62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -11170,8 +11444,12 @@
         <f>CU!C63</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK63" s="16">
+        <f>CU!D63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -11316,8 +11594,12 @@
         <f>CU!C64</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK64" s="16">
+        <f>CU!D64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -11462,8 +11744,12 @@
         <f>CU!C65</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK65" s="16">
+        <f>CU!D65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -11608,8 +11894,12 @@
         <f>CU!C66</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK66" s="16">
+        <f>CU!D66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -11754,8 +12044,12 @@
         <f>CU!C67</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK67" s="16">
+        <f>CU!D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -11900,8 +12194,12 @@
         <f>CU!C68</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK68" s="16">
+        <f>CU!D68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -12046,8 +12344,12 @@
         <f>CU!C69</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK69" s="16">
+        <f>CU!D69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -12192,8 +12494,12 @@
         <f>CU!C70</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK70" s="16">
+        <f>CU!D70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -12338,8 +12644,12 @@
         <f>CU!C71</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK71" s="16">
+        <f>CU!D71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -12484,8 +12794,12 @@
         <f>CU!C72</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK72" s="16">
+        <f>CU!D72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -12630,8 +12944,12 @@
         <f>CU!C73</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK73" s="16">
+        <f>CU!D73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -12776,8 +13094,12 @@
         <f>CU!C74</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK74" s="16">
+        <f>CU!D74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -12922,8 +13244,12 @@
         <f>CU!C75</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK75" s="16">
+        <f>CU!D75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -13068,8 +13394,12 @@
         <f>CU!C76</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK76" s="16">
+        <f>CU!D76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -13214,8 +13544,12 @@
         <f>CU!C77</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK77" s="16">
+        <f>CU!D77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -13360,8 +13694,12 @@
         <f>CU!C78</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK78" s="16">
+        <f>CU!D78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -13506,8 +13844,12 @@
         <f>CU!C79</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK79" s="16">
+        <f>CU!D79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -13652,8 +13994,12 @@
         <f>CU!C80</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK80" s="16">
+        <f>CU!D80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -13798,8 +14144,12 @@
         <f>CU!C81</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK81" s="16">
+        <f>CU!D81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -13944,8 +14294,12 @@
         <f>CU!C82</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK82" s="16">
+        <f>CU!D82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -14090,8 +14444,12 @@
         <f>CU!C83</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK83" s="16">
+        <f>CU!D83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -14236,8 +14594,12 @@
         <f>CU!C84</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK84" s="16">
+        <f>CU!D84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -14382,8 +14744,12 @@
         <f>CU!C85</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK85" s="16">
+        <f>CU!D85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -14528,8 +14894,12 @@
         <f>CU!C86</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK86" s="16">
+        <f>CU!D86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -14674,8 +15044,12 @@
         <f>CU!C87</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK87" s="16">
+        <f>CU!D87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -14820,8 +15194,12 @@
         <f>CU!C88</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK88" s="16">
+        <f>CU!D88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -14966,8 +15344,12 @@
         <f>CU!C89</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK89" s="16">
+        <f>CU!D89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -15112,8 +15494,12 @@
         <f>CU!C90</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK90" s="16">
+        <f>CU!D90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -15258,8 +15644,12 @@
         <f>CU!C91</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK91" s="16">
+        <f>CU!D91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -15404,8 +15794,12 @@
         <f>CU!C92</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK92" s="16">
+        <f>CU!D92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -15550,8 +15944,12 @@
         <f>CU!C93</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK93" s="16">
+        <f>CU!D93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -15696,8 +16094,12 @@
         <f>CU!C94</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK94" s="16">
+        <f>CU!D94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -15842,8 +16244,12 @@
         <f>CU!C95</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK95" s="16">
+        <f>CU!D95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -15988,8 +16394,12 @@
         <f>CU!C96</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK96" s="16">
+        <f>CU!D96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -16134,8 +16544,12 @@
         <f>CU!C97</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK97" s="16">
+        <f>CU!D97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -16280,8 +16694,12 @@
         <f>CU!C98</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK98" s="16">
+        <f>CU!D98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -16426,8 +16844,12 @@
         <f>CU!C99</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK99" s="16">
+        <f>CU!D99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -16572,8 +16994,12 @@
         <f>CU!C100</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK100" s="16">
+        <f>CU!D100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -16718,8 +17144,12 @@
         <f>CU!C101</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK101" s="16">
+        <f>CU!D101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -16864,8 +17294,12 @@
         <f>CU!C102</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK102" s="16">
+        <f>CU!D102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -17010,8 +17444,12 @@
         <f>CU!C103</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK103" s="16">
+        <f>CU!D103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -17156,8 +17594,12 @@
         <f>CU!C104</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK104" s="16">
+        <f>CU!D104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -17302,8 +17744,12 @@
         <f>CU!C105</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK105" s="16">
+        <f>CU!D105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -17448,8 +17894,12 @@
         <f>CU!C106</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK106" s="16">
+        <f>CU!D106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -17594,8 +18044,12 @@
         <f>CU!C107</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK107" s="16">
+        <f>CU!D107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -17740,8 +18194,12 @@
         <f>CU!C108</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK108" s="16">
+        <f>CU!D108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -17886,8 +18344,12 @@
         <f>CU!C109</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK109" s="16">
+        <f>CU!D109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -18032,8 +18494,12 @@
         <f>CU!C110</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK110" s="16">
+        <f>CU!D110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -18178,8 +18644,12 @@
         <f>CU!C111</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK111" s="16">
+        <f>CU!D111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="str">
         <f>ALU!A112</f>
         <v>OpSLEEP</v>
@@ -18324,8 +18794,12 @@
         <f>CU!C112</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK112" s="16">
+        <f>CU!D112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="str">
         <f>ALU!A113</f>
         <v>OpNOP</v>
@@ -18470,8 +18944,12 @@
         <f>CU!C113</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK113" s="16">
+        <f>CU!D113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="str">
         <f>ALU!A114</f>
         <v>OpRTE</v>
@@ -18616,8 +19094,12 @@
         <f>CU!C114</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK114" s="16">
+        <f>CU!D114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="str">
         <f>ALU!A115</f>
         <v>OpSETT</v>
@@ -18762,8 +19244,12 @@
         <f>CU!C115</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK115" s="16">
+        <f>CU!D115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="str">
         <f>ALU!A116</f>
         <v>OpSTC_SR_To_Rn</v>
@@ -18908,8 +19394,12 @@
         <f>CU!C116</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK116" s="16">
+        <f>CU!D116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="str">
         <f>ALU!A117</f>
         <v>OpSTC_GBR_To_Rn</v>
@@ -19054,8 +19544,12 @@
         <f>CU!C117</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK117" s="16">
+        <f>CU!D117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="str">
         <f>ALU!A118</f>
         <v>OpSTC_VBR_To_Rn</v>
@@ -19200,8 +19694,12 @@
         <f>CU!C118</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK118" s="16">
+        <f>CU!D118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="str">
         <f>ALU!A119</f>
         <v>OpSTCL_SR_To_At_Dec_Rn</v>
@@ -19346,8 +19844,12 @@
         <f>CU!C119</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK119" s="16">
+        <f>CU!D119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="str">
         <f>ALU!A120</f>
         <v>OpSTCL_GBR_To_At_Dec_Rn</v>
@@ -19492,8 +19994,12 @@
         <f>CU!C120</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK120" s="16">
+        <f>CU!D120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="str">
         <f>ALU!A121</f>
         <v>OpSTCL_VBR_To_At_Dec_Rn</v>
@@ -19638,8 +20144,12 @@
         <f>CU!C121</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK121" s="16">
+        <f>CU!D121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="str">
         <f>ALU!A122</f>
         <v>OpSTS_PR_To_Rn</v>
@@ -19784,8 +20294,12 @@
         <f>CU!C122</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK122" s="16">
+        <f>CU!D122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="str">
         <f>ALU!A123</f>
         <v>OpSTSL_PR_To_At_Dec_Rn</v>
@@ -19930,8 +20444,12 @@
         <f>CU!C123</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK123" s="16">
+        <f>CU!D123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="str">
         <f>ALU!A124</f>
         <v>OpTRAPA</v>
@@ -20076,8 +20594,12 @@
         <f>CU!C124</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK124" s="16">
+        <f>CU!D124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="str">
         <f>ALU!A125</f>
         <v>OpIdle</v>
@@ -20221,6 +20743,10 @@
       <c r="AJ125" s="31">
         <f>CU!C125</f>
         <v>1</v>
+      </c>
+      <c r="AK125" s="16">
+        <f>CU!D125</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32677,7 +33203,7 @@
       <c r="F1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>267</v>
       </c>
       <c r="H1" s="15"/>
@@ -32706,7 +33232,7 @@
       <c r="F2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H2" s="17"/>
@@ -32735,7 +33261,7 @@
       <c r="F3" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H3" s="17"/>
@@ -32764,7 +33290,7 @@
       <c r="F4" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H4" s="17"/>
@@ -32793,7 +33319,7 @@
       <c r="F5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H5" s="17"/>
@@ -32822,7 +33348,7 @@
       <c r="F6" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H6" s="17"/>
@@ -32851,7 +33377,7 @@
       <c r="F7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H7" s="17"/>
@@ -32880,7 +33406,7 @@
       <c r="F8" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H8" s="17"/>
@@ -32909,7 +33435,7 @@
       <c r="F9" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H9" s="17"/>
@@ -32938,7 +33464,7 @@
       <c r="F10" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H10" s="17"/>
@@ -32967,7 +33493,7 @@
       <c r="F11" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H11" s="17"/>
@@ -32996,7 +33522,7 @@
       <c r="F12" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H12" s="19"/>
@@ -33025,7 +33551,7 @@
       <c r="F13" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H13" s="19"/>
@@ -33054,7 +33580,7 @@
       <c r="F14" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H14" s="19"/>
@@ -33083,7 +33609,7 @@
       <c r="F15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H15" s="19"/>
@@ -33112,7 +33638,7 @@
       <c r="F16" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H16" s="19"/>
@@ -33141,7 +33667,7 @@
       <c r="F17" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H17" s="19"/>
@@ -33170,7 +33696,7 @@
       <c r="F18" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H18" s="17"/>
@@ -33199,7 +33725,7 @@
       <c r="F19" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H19" s="17"/>
@@ -33228,7 +33754,7 @@
       <c r="F20" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H20" s="17"/>
@@ -33257,7 +33783,7 @@
       <c r="F21" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H21" s="17"/>
@@ -33286,7 +33812,7 @@
       <c r="F22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H22" s="17"/>
@@ -33315,7 +33841,7 @@
       <c r="F23" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H23" s="17"/>
@@ -33344,7 +33870,7 @@
       <c r="F24" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H24" s="17"/>
@@ -33373,7 +33899,7 @@
       <c r="F25" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H25" s="17"/>
@@ -33402,7 +33928,7 @@
       <c r="F26" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H26" s="17"/>
@@ -33431,7 +33957,7 @@
       <c r="F27" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H27" s="17"/>
@@ -33460,7 +33986,7 @@
       <c r="F28" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H28" s="17"/>
@@ -33489,7 +34015,7 @@
       <c r="F29" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H29" s="17"/>
@@ -33518,7 +34044,7 @@
       <c r="F30" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H30" s="17"/>
@@ -33547,7 +34073,7 @@
       <c r="F31" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H31" s="17"/>
@@ -33576,7 +34102,7 @@
       <c r="F32" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H32" s="17"/>
@@ -33605,7 +34131,7 @@
       <c r="F33" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H33" s="17"/>
@@ -33634,7 +34160,7 @@
       <c r="F34" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H34" s="17"/>
@@ -33663,7 +34189,7 @@
       <c r="F35" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H35" s="17"/>
@@ -33690,7 +34216,7 @@
         <v>274</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H36" s="19"/>
@@ -33717,7 +34243,7 @@
         <v>274</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H37" s="17"/>
@@ -33744,7 +34270,7 @@
         <v>274</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="37" t="s">
         <v>270</v>
       </c>
       <c r="H38" s="17"/>
@@ -33771,7 +34297,7 @@
         <v>274</v>
       </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H39" s="17"/>
@@ -33798,7 +34324,7 @@
         <v>274</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="37" t="s">
         <v>268</v>
       </c>
       <c r="H40" s="17"/>
@@ -33827,7 +34353,7 @@
       <c r="F41" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H41" s="17"/>
@@ -33856,7 +34382,7 @@
       <c r="F42" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H42" s="17"/>
@@ -33885,7 +34411,7 @@
       <c r="F43" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H43" s="17"/>
@@ -33914,7 +34440,7 @@
       <c r="F44" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H44" s="17"/>
@@ -33943,7 +34469,7 @@
       <c r="F45" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H45" s="17"/>
@@ -33972,7 +34498,7 @@
       <c r="F46" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H46" s="17"/>
@@ -34001,7 +34527,7 @@
       <c r="F47" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H47" s="17"/>
@@ -34030,7 +34556,7 @@
       <c r="F48" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H48" s="17"/>
@@ -34059,7 +34585,7 @@
       <c r="F49" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H49" s="17"/>
@@ -34088,7 +34614,7 @@
       <c r="F50" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H50" s="17"/>
@@ -34117,7 +34643,7 @@
       <c r="F51" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H51" s="17"/>
@@ -34146,7 +34672,7 @@
       <c r="F52" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H52" s="17"/>
@@ -34175,7 +34701,7 @@
       <c r="F53" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H53" s="17"/>
@@ -34204,7 +34730,7 @@
       <c r="F54" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H54" s="17"/>
@@ -34233,7 +34759,7 @@
       <c r="F55" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H55" s="17"/>
@@ -34262,7 +34788,7 @@
       <c r="F56" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H56" s="17"/>
@@ -34291,7 +34817,7 @@
       <c r="F57" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H57" s="17"/>
@@ -34320,7 +34846,7 @@
       <c r="F58" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G58" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H58" s="17"/>
@@ -34349,7 +34875,7 @@
       <c r="F59" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H59" s="17"/>
@@ -34378,7 +34904,7 @@
       <c r="F60" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H60" s="17"/>
@@ -34407,7 +34933,7 @@
       <c r="F61" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G61" s="38" t="s">
+      <c r="G61" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H61" s="17"/>
@@ -34436,7 +34962,7 @@
       <c r="F62" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G62" s="38" t="s">
+      <c r="G62" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H62" s="17"/>
@@ -34465,7 +34991,7 @@
       <c r="F63" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H63" s="17"/>
@@ -34492,7 +35018,7 @@
         <v>139</v>
       </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="38" t="s">
+      <c r="G64" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H64" s="17"/>
@@ -34519,7 +35045,7 @@
         <v>139</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H65" s="17"/>
@@ -34546,7 +35072,7 @@
         <v>275</v>
       </c>
       <c r="F66" s="20"/>
-      <c r="G66" s="38" t="s">
+      <c r="G66" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H66" s="19"/>
@@ -34573,7 +35099,7 @@
         <v>139</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H67" s="17"/>
@@ -34600,7 +35126,7 @@
         <v>139</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H68" s="17"/>
@@ -34627,7 +35153,7 @@
         <v>139</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H69" s="17"/>
@@ -34654,7 +35180,7 @@
         <v>275</v>
       </c>
       <c r="F70" s="20"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H70" s="19"/>
@@ -34681,7 +35207,7 @@
         <v>275</v>
       </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H71" s="19"/>
@@ -34708,7 +35234,7 @@
         <v>139</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H72" s="17"/>
@@ -34735,7 +35261,7 @@
         <v>139</v>
       </c>
       <c r="F73" s="16"/>
-      <c r="G73" s="38" t="s">
+      <c r="G73" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H73" s="17"/>
@@ -34762,7 +35288,7 @@
         <v>275</v>
       </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H74" s="19"/>
@@ -34789,7 +35315,7 @@
         <v>139</v>
       </c>
       <c r="F75" s="16"/>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H75" s="17"/>
@@ -34816,7 +35342,7 @@
         <v>139</v>
       </c>
       <c r="F76" s="16"/>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H76" s="17"/>
@@ -34843,7 +35369,7 @@
         <v>275</v>
       </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H77" s="19"/>
@@ -34870,7 +35396,7 @@
         <v>139</v>
       </c>
       <c r="F78" s="16"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H78" s="17"/>
@@ -34897,7 +35423,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="16"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H79" s="17"/>
@@ -34924,7 +35450,7 @@
         <v>139</v>
       </c>
       <c r="F80" s="16"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H80" s="17"/>
@@ -34951,7 +35477,7 @@
         <v>139</v>
       </c>
       <c r="F81" s="16"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H81" s="17"/>
@@ -34978,7 +35504,7 @@
         <v>139</v>
       </c>
       <c r="F82" s="16"/>
-      <c r="G82" s="38" t="s">
+      <c r="G82" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H82" s="17"/>
@@ -35005,7 +35531,7 @@
         <v>139</v>
       </c>
       <c r="F83" s="16"/>
-      <c r="G83" s="38" t="s">
+      <c r="G83" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H83" s="17"/>
@@ -35032,7 +35558,7 @@
         <v>139</v>
       </c>
       <c r="F84" s="16"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H84" s="17"/>
@@ -35059,7 +35585,7 @@
         <v>139</v>
       </c>
       <c r="F85" s="16"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H85" s="17"/>
@@ -35086,7 +35612,7 @@
         <v>139</v>
       </c>
       <c r="F86" s="16"/>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H86" s="17"/>
@@ -35113,7 +35639,7 @@
         <v>139</v>
       </c>
       <c r="F87" s="16"/>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H87" s="17"/>
@@ -35140,7 +35666,7 @@
         <v>139</v>
       </c>
       <c r="F88" s="16"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H88" s="17"/>
@@ -35167,7 +35693,7 @@
         <v>139</v>
       </c>
       <c r="F89" s="16"/>
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H89" s="17"/>
@@ -35194,7 +35720,7 @@
         <v>139</v>
       </c>
       <c r="F90" s="16"/>
-      <c r="G90" s="38" t="s">
+      <c r="G90" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H90" s="17"/>
@@ -35221,7 +35747,7 @@
         <v>139</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H91" s="17"/>
@@ -35248,7 +35774,7 @@
         <v>139</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H92" s="17"/>
@@ -35275,7 +35801,7 @@
         <v>139</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H93" s="17"/>
@@ -35302,7 +35828,7 @@
         <v>139</v>
       </c>
       <c r="F94" s="16"/>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H94" s="17"/>
@@ -35329,7 +35855,7 @@
         <v>139</v>
       </c>
       <c r="F95" s="16"/>
-      <c r="G95" s="38" t="s">
+      <c r="G95" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H95" s="17"/>
@@ -35356,7 +35882,7 @@
         <v>139</v>
       </c>
       <c r="F96" s="16"/>
-      <c r="G96" s="38" t="s">
+      <c r="G96" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H96" s="17"/>
@@ -35383,7 +35909,7 @@
         <v>139</v>
       </c>
       <c r="F97" s="16"/>
-      <c r="G97" s="38" t="s">
+      <c r="G97" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H97" s="17"/>
@@ -35410,7 +35936,7 @@
         <v>139</v>
       </c>
       <c r="F98" s="16"/>
-      <c r="G98" s="38" t="s">
+      <c r="G98" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H98" s="17"/>
@@ -35437,7 +35963,7 @@
         <v>139</v>
       </c>
       <c r="F99" s="16"/>
-      <c r="G99" s="38" t="s">
+      <c r="G99" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H99" s="17"/>
@@ -35464,7 +35990,7 @@
         <v>139</v>
       </c>
       <c r="F100" s="16"/>
-      <c r="G100" s="38" t="s">
+      <c r="G100" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H100" s="17"/>
@@ -35491,7 +36017,7 @@
         <v>139</v>
       </c>
       <c r="F101" s="16"/>
-      <c r="G101" s="38" t="s">
+      <c r="G101" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H101" s="17"/>
@@ -35518,7 +36044,7 @@
         <v>139</v>
       </c>
       <c r="F102" s="16"/>
-      <c r="G102" s="38" t="s">
+      <c r="G102" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H102" s="17"/>
@@ -35543,7 +36069,7 @@
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
-      <c r="G103" s="38" t="s">
+      <c r="G103" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H103" s="17"/>
@@ -35568,7 +36094,7 @@
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
-      <c r="G104" s="38" t="s">
+      <c r="G104" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H104" s="17"/>
@@ -35593,7 +36119,7 @@
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
-      <c r="G105" s="38" t="s">
+      <c r="G105" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H105" s="17"/>
@@ -35618,7 +36144,7 @@
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
-      <c r="G106" s="38" t="s">
+      <c r="G106" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H106" s="17"/>
@@ -35643,7 +36169,7 @@
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
-      <c r="G107" s="38" t="s">
+      <c r="G107" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H107" s="19"/>
@@ -35668,7 +36194,7 @@
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-      <c r="G108" s="38" t="s">
+      <c r="G108" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H108" s="19"/>
@@ -35693,7 +36219,7 @@
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="38" t="s">
+      <c r="G109" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H109" s="19"/>
@@ -35718,7 +36244,7 @@
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
-      <c r="G110" s="38" t="s">
+      <c r="G110" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H110" s="17"/>
@@ -35743,7 +36269,7 @@
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
-      <c r="G111" s="38" t="s">
+      <c r="G111" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H111" s="19"/>
@@ -35768,7 +36294,7 @@
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
-      <c r="G112" s="38" t="s">
+      <c r="G112" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H112" s="19"/>
@@ -35793,7 +36319,7 @@
       </c>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
-      <c r="G113" s="38" t="s">
+      <c r="G113" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H113" s="17"/>
@@ -35818,7 +36344,7 @@
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="38" t="s">
+      <c r="G114" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H114" s="19"/>
@@ -35843,7 +36369,7 @@
       </c>
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
-      <c r="G115" s="38" t="s">
+      <c r="G115" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H115" s="17"/>
@@ -35868,7 +36394,7 @@
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
-      <c r="G116" s="38" t="s">
+      <c r="G116" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H116" s="17"/>
@@ -35893,7 +36419,7 @@
       </c>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
-      <c r="G117" s="38" t="s">
+      <c r="G117" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H117" s="17"/>
@@ -35918,7 +36444,7 @@
       </c>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
-      <c r="G118" s="38" t="s">
+      <c r="G118" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H118" s="17"/>
@@ -35943,7 +36469,7 @@
       </c>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
-      <c r="G119" s="38" t="s">
+      <c r="G119" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H119" s="19"/>
@@ -35968,7 +36494,7 @@
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
-      <c r="G120" s="38" t="s">
+      <c r="G120" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H120" s="19"/>
@@ -35993,7 +36519,7 @@
       </c>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
-      <c r="G121" s="38" t="s">
+      <c r="G121" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H121" s="19"/>
@@ -36018,7 +36544,7 @@
       </c>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
-      <c r="G122" s="38" t="s">
+      <c r="G122" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H122" s="17"/>
@@ -36043,7 +36569,7 @@
       </c>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
-      <c r="G123" s="38" t="s">
+      <c r="G123" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H123" s="19"/>
@@ -36068,7 +36594,7 @@
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="38" t="s">
+      <c r="G124" s="37" t="s">
         <v>269</v>
       </c>
       <c r="H124" s="19"/>
@@ -36093,7 +36619,7 @@
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="38" t="s">
+      <c r="G125" s="37" t="s">
         <v>269</v>
       </c>
       <c r="M125" s="21"/>
@@ -36111,10 +36637,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36122,9 +36648,10 @@
     <col min="1" max="1" width="28" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36134,8 +36661,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -36145,8 +36675,11 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
@@ -36156,8 +36689,11 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>258</v>
       </c>
@@ -36167,8 +36703,11 @@
       <c r="C4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -36178,8 +36717,11 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -36189,8 +36731,11 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -36200,8 +36745,11 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -36211,8 +36759,11 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -36222,8 +36773,11 @@
       <c r="C9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -36233,8 +36787,11 @@
       <c r="C10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -36244,8 +36801,11 @@
       <c r="C11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -36255,8 +36815,11 @@
       <c r="C12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -36266,8 +36829,11 @@
       <c r="C13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -36277,8 +36843,11 @@
       <c r="C14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -36288,8 +36857,11 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -36299,8 +36871,11 @@
       <c r="C16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -36310,8 +36885,11 @@
       <c r="C17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -36321,8 +36899,11 @@
       <c r="C18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -36332,8 +36913,11 @@
       <c r="C19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -36343,8 +36927,11 @@
       <c r="C20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -36354,8 +36941,11 @@
       <c r="C21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -36365,8 +36955,11 @@
       <c r="C22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -36376,8 +36969,11 @@
       <c r="C23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -36387,8 +36983,11 @@
       <c r="C24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -36398,8 +36997,11 @@
       <c r="C25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -36409,8 +37011,11 @@
       <c r="C26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -36420,8 +37025,11 @@
       <c r="C27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -36431,8 +37039,11 @@
       <c r="C28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -36442,8 +37053,11 @@
       <c r="C29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -36453,8 +37067,11 @@
       <c r="C30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -36464,8 +37081,11 @@
       <c r="C31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -36475,8 +37095,11 @@
       <c r="C32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -36486,8 +37109,11 @@
       <c r="C33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -36497,8 +37123,11 @@
       <c r="C34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -36508,8 +37137,11 @@
       <c r="C35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -36519,8 +37151,11 @@
       <c r="C36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -36530,8 +37165,11 @@
       <c r="C37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -36541,8 +37179,11 @@
       <c r="C38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -36552,8 +37193,11 @@
       <c r="C39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -36563,8 +37207,11 @@
       <c r="C40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -36574,8 +37221,11 @@
       <c r="C41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -36585,8 +37235,11 @@
       <c r="C42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -36596,8 +37249,11 @@
       <c r="C43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -36607,8 +37263,11 @@
       <c r="C44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -36618,8 +37277,11 @@
       <c r="C45" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -36629,8 +37291,11 @@
       <c r="C46" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -36640,8 +37305,11 @@
       <c r="C47" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -36651,8 +37319,11 @@
       <c r="C48" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -36662,8 +37333,11 @@
       <c r="C49" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -36673,8 +37347,11 @@
       <c r="C50" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -36684,8 +37361,11 @@
       <c r="C51" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -36695,8 +37375,11 @@
       <c r="C52" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -36706,8 +37389,11 @@
       <c r="C53" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -36717,8 +37403,11 @@
       <c r="C54" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -36728,8 +37417,11 @@
       <c r="C55" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -36739,8 +37431,11 @@
       <c r="C56" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -36750,8 +37445,11 @@
       <c r="C57" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -36761,8 +37459,11 @@
       <c r="C58" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -36772,8 +37473,11 @@
       <c r="C59" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -36783,8 +37487,11 @@
       <c r="C60" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -36794,8 +37501,11 @@
       <c r="C61" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -36805,8 +37515,11 @@
       <c r="C62" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -36816,8 +37529,11 @@
       <c r="C63" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -36827,8 +37543,11 @@
       <c r="C64" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -36838,8 +37557,11 @@
       <c r="C65" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -36849,8 +37571,11 @@
       <c r="C66" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -36860,8 +37585,11 @@
       <c r="C67" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -36871,8 +37599,11 @@
       <c r="C68" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -36882,8 +37613,11 @@
       <c r="C69" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -36893,8 +37627,11 @@
       <c r="C70" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -36904,8 +37641,11 @@
       <c r="C71" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -36915,8 +37655,11 @@
       <c r="C72" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -36926,8 +37669,11 @@
       <c r="C73" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -36937,8 +37683,11 @@
       <c r="C74" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -36948,8 +37697,11 @@
       <c r="C75" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -36959,8 +37711,11 @@
       <c r="C76" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -36970,8 +37725,11 @@
       <c r="C77" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -36981,8 +37739,11 @@
       <c r="C78" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -36992,8 +37753,11 @@
       <c r="C79" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -37003,8 +37767,11 @@
       <c r="C80" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -37014,8 +37781,11 @@
       <c r="C81" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -37025,8 +37795,11 @@
       <c r="C82" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -37036,8 +37809,11 @@
       <c r="C83" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -37047,8 +37823,11 @@
       <c r="C84" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -37058,8 +37837,11 @@
       <c r="C85" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -37069,8 +37851,11 @@
       <c r="C86" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -37080,8 +37865,11 @@
       <c r="C87" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -37091,8 +37879,11 @@
       <c r="C88" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -37102,8 +37893,11 @@
       <c r="C89" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -37113,8 +37907,11 @@
       <c r="C90" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -37124,8 +37921,11 @@
       <c r="C91" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -37135,8 +37935,11 @@
       <c r="C92" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -37146,8 +37949,11 @@
       <c r="C93" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -37157,8 +37963,11 @@
       <c r="C94" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -37168,8 +37977,11 @@
       <c r="C95" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -37179,8 +37991,11 @@
       <c r="C96" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -37190,8 +38005,11 @@
       <c r="C97" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -37201,8 +38019,11 @@
       <c r="C98" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -37212,8 +38033,11 @@
       <c r="C99" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -37223,8 +38047,11 @@
       <c r="C100" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -37234,8 +38061,11 @@
       <c r="C101" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -37245,8 +38075,11 @@
       <c r="C102" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -37256,8 +38089,11 @@
       <c r="C103" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -37267,8 +38103,11 @@
       <c r="C104" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -37278,8 +38117,11 @@
       <c r="C105" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -37289,8 +38131,11 @@
       <c r="C106" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -37300,8 +38145,11 @@
       <c r="C107" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -37311,8 +38159,11 @@
       <c r="C108" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -37322,8 +38173,11 @@
       <c r="C109" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -37333,8 +38187,11 @@
       <c r="C110" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -37344,8 +38201,11 @@
       <c r="C111" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>261</v>
       </c>
@@ -37355,8 +38215,11 @@
       <c r="C112" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -37366,8 +38229,11 @@
       <c r="C113" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -37377,8 +38243,11 @@
       <c r="C114" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -37388,8 +38257,11 @@
       <c r="C115" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -37399,8 +38271,11 @@
       <c r="C116" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -37410,8 +38285,11 @@
       <c r="C117" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -37421,8 +38299,11 @@
       <c r="C118" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -37432,8 +38313,11 @@
       <c r="C119" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -37443,8 +38327,11 @@
       <c r="C120" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -37454,8 +38341,11 @@
       <c r="C121" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -37465,8 +38355,11 @@
       <c r="C122" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -37476,8 +38369,11 @@
       <c r="C123" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -37487,8 +38383,11 @@
       <c r="C124" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>125</v>
       </c>
@@ -37497,6 +38396,9 @@
       </c>
       <c r="C125" s="5">
         <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -37512,7 +38414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF521BB4-2DEC-48BF-9F68-8BCAEB743C1F}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
@@ -37880,7 +38782,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" t="s">
         <v>276</v>
       </c>
       <c r="B4" t="s">
@@ -38007,233 +38909,233 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="str">
+      <c r="A1" s="40" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="str">
+      <c r="A2" s="40" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="str">
+      <c r="A3" s="40" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="str">
+      <c r="A4" s="40" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="str">
+      <c r="A5" s="40" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="str">
+      <c r="A6" s="40" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="str">
+      <c r="A7" s="40" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="40" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="str">
+      <c r="A9" s="40" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="str">
+      <c r="A10" s="40" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="str">
+      <c r="A11" s="40" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="str">
+      <c r="A12" s="40" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="str">
+      <c r="A13" s="40" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="str">
+      <c r="A14" s="40" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="str">
+      <c r="A15" s="40" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="str">
+      <c r="A16" s="40" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="str">
+      <c r="A17" s="39" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="str">
+      <c r="A18" s="39" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="str">
+      <c r="A19" s="39" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="str">
+      <c r="A20" s="39" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="str">
+      <c r="A21" s="39" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="str">
+      <c r="A22" s="39" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="str">
+      <c r="A23" s="39" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="str">
+      <c r="A24" s="39" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="str">
+      <c r="A25" s="39" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="str">
+      <c r="A26" s="39" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="str">
+      <c r="A27" s="39" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="str">
+      <c r="A28" s="39" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="str">
+      <c r="A29" s="39" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="str">
+      <c r="A30" s="39" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="str">
+      <c r="A31" s="39" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="str">
+      <c r="A32" s="39" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="str">
+      <c r="A33" s="39" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="str">
+      <c r="A34" s="39" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="str">
+      <c r="A35" s="39" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="str">
+      <c r="A36" s="39" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="str">
+      <c r="A37" s="39" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="str">
+      <c r="A38" s="39" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
       </c>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5B74CA-67BF-4971-9245-E4A479599689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41570F87-2526-4E7A-AD9A-2D043EF1F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4481" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="303">
   <si>
     <t>Instruction</t>
   </si>
@@ -789,9 +789,6 @@
     <t>OpTRAPA</t>
   </si>
   <si>
-    <t>OpIdle</t>
-  </si>
-  <si>
     <r>
       <t>ALUOp</t>
     </r>
@@ -946,6 +943,24 @@
   </si>
   <si>
     <t>BranchSlotDirect</t>
+  </si>
+  <si>
+    <t>BootReadSP</t>
+  </si>
+  <si>
+    <t>PAU_AddrDB</t>
+  </si>
+  <si>
+    <t>DAU_AddrZero</t>
+  </si>
+  <si>
+    <t>DAU_OffsetWord</t>
+  </si>
+  <si>
+    <t>RegInSelCmd_R15</t>
+  </si>
+  <si>
+    <t>BootWaitForFetch</t>
   </si>
 </sst>
 </file>
@@ -1210,33 +1225,13 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1255,66 +1250,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1549,7 +1484,87 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1583,10 +1598,10 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PAU_UpdatePR">
       <calculatedColumnFormula>PAU!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{CBE2FE8C-C37A-4FF2-A4B0-E3D7D795E402}" name="PAU_IncDecBit" dataDxfId="3">
+    <tableColumn id="37" xr3:uid="{CBE2FE8C-C37A-4FF2-A4B0-E3D7D795E402}" name="PAU_IncDecBit" dataDxfId="17">
       <calculatedColumnFormula>PAU!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{20B702C8-6E9A-467A-9C44-9423514A01E9}" name="PAU_PrePostSel" dataDxfId="4">
+    <tableColumn id="36" xr3:uid="{20B702C8-6E9A-467A-9C44-9423514A01E9}" name="PAU_PrePostSel" dataDxfId="16">
       <calculatedColumnFormula>PAU!G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DAU_SrcSel"/>
@@ -1608,35 +1623,35 @@
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RegA1SelCmd"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RegA2SelCmd"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RegOpSel"/>
-    <tableColumn id="41" xr3:uid="{09D5F0A3-5B20-4FBB-95E5-7CF8AFB6F928}" name="RegAxDataInSel" dataDxfId="0">
+    <tableColumn id="41" xr3:uid="{09D5F0A3-5B20-4FBB-95E5-7CF8AFB6F928}" name="RegAxDataInSel" dataDxfId="15">
       <calculatedColumnFormula>REG!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RD" dataDxfId="17">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RD" dataDxfId="14">
       <calculatedColumnFormula>IO!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{7CC31D84-B237-4D44-A659-0C7405E0DC1D}" name="WR" dataDxfId="16">
+    <tableColumn id="40" xr3:uid="{7CC31D84-B237-4D44-A659-0C7405E0DC1D}" name="WR" dataDxfId="13">
       <calculatedColumnFormula>IO!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{47C8206D-138D-4DDB-A699-0197A19A0B4B}" name="ABOutSel" dataDxfId="15">
+    <tableColumn id="34" xr3:uid="{47C8206D-138D-4DDB-A699-0197A19A0B4B}" name="ABOutSel" dataDxfId="12">
       <calculatedColumnFormula>IO!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{A7862601-9AB2-43C3-B0BF-E99C2E379B16}" name="DBInMode" dataDxfId="14">
+    <tableColumn id="43" xr3:uid="{A7862601-9AB2-43C3-B0BF-E99C2E379B16}" name="DBInMode" dataDxfId="11">
       <calculatedColumnFormula>IO!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{3C874C55-14EC-40FD-8E1B-959A171C140E}" name="DBOutSel" dataDxfId="13">
+    <tableColumn id="33" xr3:uid="{3C874C55-14EC-40FD-8E1B-959A171C140E}" name="DBOutSel" dataDxfId="10">
       <calculatedColumnFormula>IO!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{5C5242E0-CAC8-4654-8838-B7E211AA8F6E}" name="DataAccessMode" dataDxfId="12">
+    <tableColumn id="42" xr3:uid="{5C5242E0-CAC8-4654-8838-B7E211AA8F6E}" name="DataAccessMode" dataDxfId="9">
       <calculatedColumnFormula>IO!G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="NextState"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="UpdateIR">
       <calculatedColumnFormula>CU!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{07338704-52A4-4070-9D04-405A4148F3DE}" name="UpdateTempReg" dataDxfId="11">
+    <tableColumn id="30" xr3:uid="{07338704-52A4-4070-9D04-405A4148F3DE}" name="UpdateTempReg" dataDxfId="8">
       <calculatedColumnFormula>CU!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{2692DF0D-70A3-482A-93EC-1A834535D0B2}" name="TempRegSel" dataDxfId="5">
+    <tableColumn id="35" xr3:uid="{2692DF0D-70A3-482A-93EC-1A834535D0B2}" name="TempRegSel" dataDxfId="7">
       <calculatedColumnFormula>CU!E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1719,12 +1734,12 @@
   <autoFilter ref="A1:G125" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Instruction"/>
-    <tableColumn id="8" xr3:uid="{708E7D7C-C6D1-479F-902D-CF78BF1AF9A2}" name="RD" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{6659E729-599B-40EA-A8B0-F8498DEDF371}" name="WR" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1500673A-35D1-4BFD-8F56-96677211AC82}" name="ABOutSel" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{E73D8210-D6F0-4C5B-AE29-B2C03A7B8DE9}" name="DBInMode" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{708E7D7C-C6D1-479F-902D-CF78BF1AF9A2}" name="RD" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{6659E729-599B-40EA-A8B0-F8498DEDF371}" name="WR" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1500673A-35D1-4BFD-8F56-96677211AC82}" name="ABOutSel" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{E73D8210-D6F0-4C5B-AE29-B2C03A7B8DE9}" name="DBInMode" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="DBOutSel"/>
-    <tableColumn id="12" xr3:uid="{45A9F8EB-36C3-4B57-B307-5C8A3AACEAFC}" name="DataAccessMode" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{45A9F8EB-36C3-4B57-B307-5C8A3AACEAFC}" name="DataAccessMode" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1745,10 +1760,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}" name="Table8" displayName="Table8" ref="A1:AN6" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:AN6" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}" name="Table8" displayName="Table8" ref="A1:AN8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AN8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{F3731410-185C-4B91-8535-E7C6B1BA41A0}" name="State" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F3731410-185C-4B91-8535-E7C6B1BA41A0}" name="State" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{65E65804-6476-498A-9301-353C7895D8C6}" name="ALUOpASel"/>
     <tableColumn id="3" xr3:uid="{DF2A1A99-B208-4185-89E1-C4FCCE774BB4}" name="ALUOpBSel"/>
     <tableColumn id="4" xr3:uid="{A9D5AA0C-6DF1-42E8-9CD2-66AA8AEED612}" name="FCmd"/>
@@ -2084,9 +2099,9 @@
   </sheetPr>
   <dimension ref="A1:AO125"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI36" sqref="AI36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2136,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>184</v>
@@ -2172,10 +2187,10 @@
         <v>174</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>148</v>
@@ -2223,25 +2238,25 @@
         <v>135</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>126</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL1" s="29" t="s">
         <v>1</v>
@@ -2250,10 +2265,10 @@
         <v>2</v>
       </c>
       <c r="AN1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AO1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -22675,9 +22690,8 @@
       </c>
     </row>
     <row r="125" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="10" t="str">
-        <f>ALU!A125</f>
-        <v>OpIdle</v>
+      <c r="A125" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="B125" s="17" t="str">
         <f>ALU!B125</f>
@@ -22713,7 +22727,7 @@
       </c>
       <c r="J125" s="17" t="str">
         <f>PAU!B125</f>
-        <v>PAU_AddrZero</v>
+        <v>PAU_AddrDB</v>
       </c>
       <c r="K125" s="17" t="str">
         <f>PAU!C125</f>
@@ -22737,11 +22751,11 @@
       </c>
       <c r="P125" s="17" t="str">
         <f>DAU!B125</f>
-        <v>unused</v>
+        <v>DAU_AddrZero</v>
       </c>
       <c r="Q125" s="17" t="str">
         <f>DAU!C125</f>
-        <v>unused</v>
+        <v>DAU_OffsetZero</v>
       </c>
       <c r="R125" s="16" t="str">
         <f>DAU!D125</f>
@@ -22753,7 +22767,7 @@
       </c>
       <c r="T125" s="16" t="str">
         <f>DAU!F125</f>
-        <v>-</v>
+        <v>MemUnit_POST</v>
       </c>
       <c r="U125" s="16">
         <f>DAU!G125</f>
@@ -22809,7 +22823,7 @@
       </c>
       <c r="AH125" s="16" t="str">
         <f>IO!D125</f>
-        <v>ABOutSel_Prog</v>
+        <v>ABOutSel_Data</v>
       </c>
       <c r="AI125" s="16">
         <f>IO!E125</f>
@@ -22821,11 +22835,11 @@
       </c>
       <c r="AK125" s="16" t="str">
         <f>IO!G125</f>
-        <v>DataAccessMode_Word</v>
+        <v>DataAccessMode_Long</v>
       </c>
       <c r="AL125" t="str">
         <f>CU!B125</f>
-        <v>Normal</v>
+        <v>BootReadSP</v>
       </c>
       <c r="AM125" s="31">
         <f>CU!C125</f>
@@ -22857,8 +22871,8 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView topLeftCell="A108" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26095,7 +26109,7 @@
     </row>
     <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>139</v>
@@ -26472,7 +26486,7 @@
     </row>
     <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>139</v>
@@ -26514,8 +26528,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="65" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView topLeftCell="C104" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26546,10 +26560,10 @@
         <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -29084,7 +29098,7 @@
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>139</v>
@@ -29386,7 +29400,7 @@
         <v>170</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>182</v>
@@ -29420,8 +29434,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31970,7 +31984,7 @@
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>139</v>
@@ -32268,10 +32282,10 @@
         <v>170</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>154</v>
@@ -32280,7 +32294,7 @@
         <v>139</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
@@ -32302,8 +32316,8 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A90" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32352,7 +32366,7 @@
         <v>135</v>
       </c>
       <c r="K1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32387,7 +32401,7 @@
         <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32422,7 +32436,7 @@
         <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32457,7 +32471,7 @@
         <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32492,7 +32506,7 @@
         <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32527,7 +32541,7 @@
         <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32562,7 +32576,7 @@
         <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32597,7 +32611,7 @@
         <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32623,7 +32637,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>139</v>
@@ -32632,7 +32646,7 @@
         <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32658,7 +32672,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>139</v>
@@ -32667,7 +32681,7 @@
         <v>140</v>
       </c>
       <c r="K10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32693,7 +32707,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>139</v>
@@ -32702,7 +32716,7 @@
         <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32722,7 +32736,7 @@
         <v>138</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="24">
         <v>1</v>
@@ -32737,7 +32751,7 @@
         <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32757,7 +32771,7 @@
         <v>138</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -32772,7 +32786,7 @@
         <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32792,7 +32806,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G14" s="24">
         <v>1</v>
@@ -32807,7 +32821,7 @@
         <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32827,13 +32841,13 @@
         <v>138</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>139</v>
@@ -32842,7 +32856,7 @@
         <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32862,13 +32876,13 @@
         <v>138</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>139</v>
@@ -32877,7 +32891,7 @@
         <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -32897,13 +32911,13 @@
         <v>138</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G17" s="24">
         <v>1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>139</v>
@@ -32912,7 +32926,7 @@
         <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -32947,7 +32961,7 @@
         <v>140</v>
       </c>
       <c r="K18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -32982,7 +32996,7 @@
         <v>140</v>
       </c>
       <c r="K19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33017,7 +33031,7 @@
         <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33043,7 +33057,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>139</v>
@@ -33052,7 +33066,7 @@
         <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33078,7 +33092,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>139</v>
@@ -33087,7 +33101,7 @@
         <v>140</v>
       </c>
       <c r="K22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33113,7 +33127,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>139</v>
@@ -33122,7 +33136,7 @@
         <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33157,7 +33171,7 @@
         <v>140</v>
       </c>
       <c r="K24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33192,7 +33206,7 @@
         <v>140</v>
       </c>
       <c r="K25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33227,7 +33241,7 @@
         <v>140</v>
       </c>
       <c r="K26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33253,7 +33267,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>139</v>
@@ -33262,7 +33276,7 @@
         <v>140</v>
       </c>
       <c r="K27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33288,7 +33302,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>139</v>
@@ -33297,7 +33311,7 @@
         <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33323,7 +33337,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>139</v>
@@ -33332,7 +33346,7 @@
         <v>140</v>
       </c>
       <c r="K29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33367,7 +33381,7 @@
         <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33402,7 +33416,7 @@
         <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33437,7 +33451,7 @@
         <v>140</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33463,7 +33477,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>139</v>
@@ -33472,7 +33486,7 @@
         <v>140</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33498,7 +33512,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>139</v>
@@ -33507,7 +33521,7 @@
         <v>140</v>
       </c>
       <c r="K34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33533,7 +33547,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>139</v>
@@ -33542,7 +33556,7 @@
         <v>140</v>
       </c>
       <c r="K35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33562,13 +33576,13 @@
         <v>138</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G36" s="24">
         <v>1</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>139</v>
@@ -33577,7 +33591,7 @@
         <v>140</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33612,7 +33626,7 @@
         <v>140</v>
       </c>
       <c r="K37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33647,7 +33661,7 @@
         <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33682,7 +33696,7 @@
         <v>140</v>
       </c>
       <c r="K39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33717,7 +33731,7 @@
         <v>140</v>
       </c>
       <c r="K40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33752,7 +33766,7 @@
         <v>140</v>
       </c>
       <c r="K41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33787,7 +33801,7 @@
         <v>140</v>
       </c>
       <c r="K42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33822,7 +33836,7 @@
         <v>140</v>
       </c>
       <c r="K43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33857,7 +33871,7 @@
         <v>140</v>
       </c>
       <c r="K44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33871,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>138</v>
@@ -33892,7 +33906,7 @@
         <v>140</v>
       </c>
       <c r="K45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33927,7 +33941,7 @@
         <v>140</v>
       </c>
       <c r="K46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33962,7 +33976,7 @@
         <v>140</v>
       </c>
       <c r="K47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -33997,7 +34011,7 @@
         <v>140</v>
       </c>
       <c r="K48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34032,7 +34046,7 @@
         <v>140</v>
       </c>
       <c r="K49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34067,7 +34081,7 @@
         <v>140</v>
       </c>
       <c r="K50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34102,7 +34116,7 @@
         <v>140</v>
       </c>
       <c r="K51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34137,7 +34151,7 @@
         <v>140</v>
       </c>
       <c r="K52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34172,7 +34186,7 @@
         <v>140</v>
       </c>
       <c r="K53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34207,7 +34221,7 @@
         <v>140</v>
       </c>
       <c r="K54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34242,7 +34256,7 @@
         <v>140</v>
       </c>
       <c r="K55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34277,7 +34291,7 @@
         <v>140</v>
       </c>
       <c r="K56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34312,7 +34326,7 @@
         <v>140</v>
       </c>
       <c r="K57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34347,7 +34361,7 @@
         <v>140</v>
       </c>
       <c r="K58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34382,7 +34396,7 @@
         <v>140</v>
       </c>
       <c r="K59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34417,7 +34431,7 @@
         <v>140</v>
       </c>
       <c r="K60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34452,7 +34466,7 @@
         <v>140</v>
       </c>
       <c r="K61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34487,7 +34501,7 @@
         <v>140</v>
       </c>
       <c r="K62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34522,7 +34536,7 @@
         <v>140</v>
       </c>
       <c r="K63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34557,7 +34571,7 @@
         <v>140</v>
       </c>
       <c r="K64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34571,7 +34585,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>138</v>
@@ -34592,7 +34606,7 @@
         <v>140</v>
       </c>
       <c r="K65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34606,7 +34620,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>138</v>
@@ -34627,7 +34641,7 @@
         <v>140</v>
       </c>
       <c r="K66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34662,7 +34676,7 @@
         <v>140</v>
       </c>
       <c r="K67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34697,7 +34711,7 @@
         <v>140</v>
       </c>
       <c r="K68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34711,7 +34725,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>138</v>
@@ -34732,7 +34746,7 @@
         <v>140</v>
       </c>
       <c r="K69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34746,7 +34760,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>138</v>
@@ -34767,7 +34781,7 @@
         <v>140</v>
       </c>
       <c r="K70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34802,7 +34816,7 @@
         <v>140</v>
       </c>
       <c r="K71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34837,7 +34851,7 @@
         <v>140</v>
       </c>
       <c r="K72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34851,7 +34865,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>138</v>
@@ -34872,7 +34886,7 @@
         <v>140</v>
       </c>
       <c r="K73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34886,7 +34900,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>138</v>
@@ -34907,7 +34921,7 @@
         <v>140</v>
       </c>
       <c r="K74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34942,7 +34956,7 @@
         <v>140</v>
       </c>
       <c r="K75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34956,7 +34970,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>138</v>
@@ -34977,7 +34991,7 @@
         <v>140</v>
       </c>
       <c r="K76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -34991,7 +35005,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>138</v>
@@ -35012,7 +35026,7 @@
         <v>140</v>
       </c>
       <c r="K77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35047,7 +35061,7 @@
         <v>140</v>
       </c>
       <c r="K78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35082,7 +35096,7 @@
         <v>140</v>
       </c>
       <c r="K79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35117,7 +35131,7 @@
         <v>140</v>
       </c>
       <c r="K80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35152,7 +35166,7 @@
         <v>140</v>
       </c>
       <c r="K81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35187,7 +35201,7 @@
         <v>140</v>
       </c>
       <c r="K82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35222,7 +35236,7 @@
         <v>140</v>
       </c>
       <c r="K83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35257,7 +35271,7 @@
         <v>140</v>
       </c>
       <c r="K84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35292,7 +35306,7 @@
         <v>140</v>
       </c>
       <c r="K85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35327,7 +35341,7 @@
         <v>140</v>
       </c>
       <c r="K86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35362,7 +35376,7 @@
         <v>140</v>
       </c>
       <c r="K87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35397,7 +35411,7 @@
         <v>140</v>
       </c>
       <c r="K88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35432,7 +35446,7 @@
         <v>140</v>
       </c>
       <c r="K89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35467,7 +35481,7 @@
         <v>140</v>
       </c>
       <c r="K90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35502,7 +35516,7 @@
         <v>140</v>
       </c>
       <c r="K91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35537,7 +35551,7 @@
         <v>140</v>
       </c>
       <c r="K92" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35572,7 +35586,7 @@
         <v>140</v>
       </c>
       <c r="K93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35607,7 +35621,7 @@
         <v>140</v>
       </c>
       <c r="K94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35642,7 +35656,7 @@
         <v>140</v>
       </c>
       <c r="K95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35677,7 +35691,7 @@
         <v>140</v>
       </c>
       <c r="K96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35694,7 +35708,7 @@
         <v>139</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>139</v>
@@ -35712,7 +35726,7 @@
         <v>140</v>
       </c>
       <c r="K97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35747,7 +35761,7 @@
         <v>140</v>
       </c>
       <c r="K98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35764,7 +35778,7 @@
         <v>139</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>139</v>
@@ -35782,7 +35796,7 @@
         <v>140</v>
       </c>
       <c r="K99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35799,7 +35813,7 @@
         <v>139</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>139</v>
@@ -35817,7 +35831,7 @@
         <v>140</v>
       </c>
       <c r="K100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35834,7 +35848,7 @@
         <v>139</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>139</v>
@@ -35852,7 +35866,7 @@
         <v>140</v>
       </c>
       <c r="K101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35887,7 +35901,7 @@
         <v>140</v>
       </c>
       <c r="K102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35908,7 +35922,7 @@
         <v>140</v>
       </c>
       <c r="K103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35931,7 +35945,7 @@
         <v>140</v>
       </c>
       <c r="K104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35954,7 +35968,7 @@
         <v>140</v>
       </c>
       <c r="K105" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35977,7 +35991,7 @@
         <v>140</v>
       </c>
       <c r="K106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -35998,7 +36012,7 @@
         <v>140</v>
       </c>
       <c r="K107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36019,7 +36033,7 @@
         <v>140</v>
       </c>
       <c r="K108" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36040,7 +36054,7 @@
         <v>140</v>
       </c>
       <c r="K109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36061,7 +36075,7 @@
         <v>140</v>
       </c>
       <c r="K110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36082,12 +36096,12 @@
         <v>140</v>
       </c>
       <c r="K111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B112" s="17"/>
       <c r="C112" s="16"/>
@@ -36101,7 +36115,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="18"/>
       <c r="K112" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36122,7 +36136,7 @@
         <v>140</v>
       </c>
       <c r="K113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36143,7 +36157,7 @@
         <v>140</v>
       </c>
       <c r="K114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36164,7 +36178,7 @@
         <v>140</v>
       </c>
       <c r="K115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36185,7 +36199,7 @@
         <v>140</v>
       </c>
       <c r="K116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36206,7 +36220,7 @@
         <v>140</v>
       </c>
       <c r="K117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36227,7 +36241,7 @@
         <v>140</v>
       </c>
       <c r="K118" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36248,7 +36262,7 @@
         <v>140</v>
       </c>
       <c r="K119" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36269,7 +36283,7 @@
         <v>140</v>
       </c>
       <c r="K120" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36290,7 +36304,7 @@
         <v>140</v>
       </c>
       <c r="K121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36311,7 +36325,7 @@
         <v>140</v>
       </c>
       <c r="K122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36332,7 +36346,7 @@
         <v>140</v>
       </c>
       <c r="K123" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -36353,12 +36367,15 @@
         <v>140</v>
       </c>
       <c r="K124" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>125</v>
+      </c>
+      <c r="C125" s="25">
+        <v>0</v>
       </c>
       <c r="G125" s="24">
         <v>0</v>
@@ -36380,8 +36397,8 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A104" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36405,22 +36422,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>271</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>272</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>126</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="13"/>
@@ -36440,7 +36457,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>139</v>
@@ -36449,7 +36466,7 @@
         <v>139</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
@@ -36469,16 +36486,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
@@ -36498,16 +36515,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
@@ -36527,16 +36544,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -36556,16 +36573,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
@@ -36585,16 +36602,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
@@ -36614,16 +36631,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -36643,16 +36660,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -36672,16 +36689,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
@@ -36701,16 +36718,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
@@ -36730,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
@@ -36759,16 +36776,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="18"/>
@@ -36788,16 +36805,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
@@ -36817,16 +36834,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
@@ -36846,16 +36863,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
@@ -36875,16 +36892,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
@@ -36904,16 +36921,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
@@ -36933,16 +36950,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
@@ -36962,16 +36979,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
@@ -36991,16 +37008,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
@@ -37020,16 +37037,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
@@ -37049,16 +37066,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
@@ -37078,16 +37095,16 @@
         <v>0</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
@@ -37107,16 +37124,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
@@ -37136,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
@@ -37165,16 +37182,16 @@
         <v>1</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
@@ -37194,16 +37211,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
@@ -37223,16 +37240,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
@@ -37252,16 +37269,16 @@
         <v>0</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
@@ -37281,16 +37298,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
@@ -37310,16 +37327,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
@@ -37339,16 +37356,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
@@ -37368,16 +37385,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
@@ -37397,16 +37414,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
@@ -37426,14 +37443,14 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="18"/>
@@ -37453,14 +37470,14 @@
         <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="18"/>
@@ -37480,14 +37497,14 @@
         <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -37507,14 +37524,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -37534,14 +37551,14 @@
         <v>1</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -37561,7 +37578,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>139</v>
@@ -37570,7 +37587,7 @@
         <v>139</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -37590,7 +37607,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>139</v>
@@ -37599,7 +37616,7 @@
         <v>139</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -37619,7 +37636,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>139</v>
@@ -37628,7 +37645,7 @@
         <v>139</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -37648,7 +37665,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>139</v>
@@ -37657,7 +37674,7 @@
         <v>139</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -37677,7 +37694,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>139</v>
@@ -37686,7 +37703,7 @@
         <v>139</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -37706,7 +37723,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>139</v>
@@ -37715,7 +37732,7 @@
         <v>139</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -37735,7 +37752,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>139</v>
@@ -37744,7 +37761,7 @@
         <v>139</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -37764,7 +37781,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>139</v>
@@ -37773,7 +37790,7 @@
         <v>139</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -37793,7 +37810,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>139</v>
@@ -37802,7 +37819,7 @@
         <v>139</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -37822,7 +37839,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>139</v>
@@ -37831,7 +37848,7 @@
         <v>139</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -37851,7 +37868,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>139</v>
@@ -37860,7 +37877,7 @@
         <v>139</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -37880,7 +37897,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>139</v>
@@ -37889,7 +37906,7 @@
         <v>139</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -37909,7 +37926,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>139</v>
@@ -37918,7 +37935,7 @@
         <v>139</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -37938,7 +37955,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>139</v>
@@ -37947,7 +37964,7 @@
         <v>139</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -37967,7 +37984,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>139</v>
@@ -37976,7 +37993,7 @@
         <v>139</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -37996,7 +38013,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>139</v>
@@ -38005,7 +38022,7 @@
         <v>139</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -38025,7 +38042,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>139</v>
@@ -38034,7 +38051,7 @@
         <v>139</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -38054,7 +38071,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>139</v>
@@ -38063,7 +38080,7 @@
         <v>139</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -38083,7 +38100,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>139</v>
@@ -38092,7 +38109,7 @@
         <v>139</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -38112,7 +38129,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>139</v>
@@ -38121,7 +38138,7 @@
         <v>139</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -38141,7 +38158,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>139</v>
@@ -38150,7 +38167,7 @@
         <v>139</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -38170,7 +38187,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>139</v>
@@ -38179,7 +38196,7 @@
         <v>139</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
@@ -38199,7 +38216,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>139</v>
@@ -38208,7 +38225,7 @@
         <v>139</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
@@ -38228,14 +38245,14 @@
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
@@ -38255,14 +38272,14 @@
         <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
@@ -38282,14 +38299,14 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="18"/>
@@ -38309,14 +38326,14 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -38336,14 +38353,14 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -38363,14 +38380,14 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
@@ -38390,14 +38407,14 @@
         <v>1</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="18"/>
@@ -38417,14 +38434,14 @@
         <v>1</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="18"/>
@@ -38444,14 +38461,14 @@
         <v>1</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
@@ -38471,14 +38488,14 @@
         <v>1</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
@@ -38498,14 +38515,14 @@
         <v>1</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="18"/>
@@ -38525,14 +38542,14 @@
         <v>1</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
@@ -38552,14 +38569,14 @@
         <v>1</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -38579,14 +38596,14 @@
         <v>1</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="18"/>
@@ -38606,14 +38623,14 @@
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -38633,14 +38650,14 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
@@ -38660,14 +38677,14 @@
         <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
@@ -38687,14 +38704,14 @@
         <v>1</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -38714,14 +38731,14 @@
         <v>1</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
@@ -38741,14 +38758,14 @@
         <v>1</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
@@ -38768,14 +38785,14 @@
         <v>1</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
@@ -38795,14 +38812,14 @@
         <v>1</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -38822,14 +38839,14 @@
         <v>1</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
@@ -38849,14 +38866,14 @@
         <v>1</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -38876,14 +38893,14 @@
         <v>1</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
@@ -38903,14 +38920,14 @@
         <v>1</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
@@ -38930,14 +38947,14 @@
         <v>1</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
@@ -38957,14 +38974,14 @@
         <v>1</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
@@ -38984,14 +39001,14 @@
         <v>1</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
@@ -39011,14 +39028,14 @@
         <v>1</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -39038,14 +39055,14 @@
         <v>1</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
@@ -39065,14 +39082,14 @@
         <v>1</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
@@ -39092,14 +39109,14 @@
         <v>1</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
@@ -39119,14 +39136,14 @@
         <v>1</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
@@ -39146,14 +39163,14 @@
         <v>1</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
@@ -39173,14 +39190,14 @@
         <v>1</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
@@ -39200,14 +39217,14 @@
         <v>1</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
@@ -39227,14 +39244,14 @@
         <v>1</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
@@ -39254,14 +39271,14 @@
         <v>1</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
@@ -39281,12 +39298,12 @@
         <v>1</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
       <c r="G103" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
@@ -39306,12 +39323,12 @@
         <v>1</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
@@ -39331,12 +39348,12 @@
         <v>1</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
       <c r="G105" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
@@ -39356,12 +39373,12 @@
         <v>1</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
       <c r="G106" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
@@ -39381,12 +39398,12 @@
         <v>1</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="18"/>
@@ -39406,12 +39423,12 @@
         <v>1</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
       <c r="G108" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="18"/>
@@ -39431,12 +39448,12 @@
         <v>1</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="18"/>
@@ -39456,12 +39473,12 @@
         <v>1</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
@@ -39481,12 +39498,12 @@
         <v>1</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
       <c r="G111" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="18"/>
@@ -39497,7 +39514,7 @@
     </row>
     <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B112" s="20">
         <v>1</v>
@@ -39506,12 +39523,12 @@
         <v>1</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="18"/>
@@ -39531,12 +39548,12 @@
         <v>1</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
@@ -39556,12 +39573,12 @@
         <v>1</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="20"/>
       <c r="G114" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="18"/>
@@ -39581,12 +39598,12 @@
         <v>1</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
@@ -39606,12 +39623,12 @@
         <v>1</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
@@ -39631,12 +39648,12 @@
         <v>1</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
@@ -39656,12 +39673,12 @@
         <v>1</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
@@ -39681,12 +39698,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="18"/>
@@ -39706,12 +39723,12 @@
         <v>0</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="18"/>
@@ -39731,12 +39748,12 @@
         <v>0</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="18"/>
@@ -39756,12 +39773,12 @@
         <v>1</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
@@ -39781,12 +39798,12 @@
         <v>0</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="18"/>
@@ -39806,12 +39823,12 @@
         <v>1</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="20"/>
       <c r="G124" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="18"/>
@@ -39836,7 +39853,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="5"/>
       <c r="G125" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M125" s="21"/>
     </row>
@@ -39855,8 +39872,8 @@
   </sheetPr>
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView topLeftCell="A108" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39879,10 +39896,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -39890,7 +39907,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -39907,7 +39924,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -39921,10 +39938,10 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -39941,7 +39958,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -39958,7 +39975,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -39975,7 +39992,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -39992,7 +40009,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -40009,7 +40026,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -40026,7 +40043,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -40043,7 +40060,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -40060,7 +40077,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -40077,7 +40094,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -40094,7 +40111,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -40111,7 +40128,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -40128,7 +40145,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -40145,7 +40162,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -40162,7 +40179,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -40179,7 +40196,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -40196,7 +40213,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -40213,7 +40230,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -40230,7 +40247,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -40247,7 +40264,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -40264,7 +40281,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -40281,7 +40298,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -40298,7 +40315,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -40315,7 +40332,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -40332,7 +40349,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -40349,7 +40366,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -40366,7 +40383,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -40383,7 +40400,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -40400,7 +40417,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -40417,7 +40434,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -40434,7 +40451,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
@@ -40451,7 +40468,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
@@ -40468,7 +40485,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -40485,7 +40502,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -40502,7 +40519,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -40519,7 +40536,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -40536,7 +40553,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -40553,7 +40570,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -40570,7 +40587,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -40587,7 +40604,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -40604,7 +40621,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -40621,7 +40638,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -40638,7 +40655,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -40655,7 +40672,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -40672,7 +40689,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -40689,7 +40706,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -40706,7 +40723,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -40723,7 +40740,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -40740,7 +40757,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -40757,7 +40774,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -40774,7 +40791,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -40791,7 +40808,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -40808,7 +40825,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -40825,7 +40842,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -40842,7 +40859,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -40859,7 +40876,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -40876,7 +40893,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -40893,7 +40910,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -40910,7 +40927,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -40927,7 +40944,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -40944,7 +40961,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -40961,7 +40978,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -40978,7 +40995,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -40995,7 +41012,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -41012,7 +41029,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -41029,7 +41046,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -41046,7 +41063,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -41063,7 +41080,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -41080,7 +41097,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -41097,7 +41114,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -41114,7 +41131,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -41131,7 +41148,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -41148,7 +41165,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -41165,7 +41182,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -41182,7 +41199,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -41199,7 +41216,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C79" s="5">
         <v>1</v>
@@ -41216,7 +41233,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -41233,7 +41250,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
@@ -41250,7 +41267,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
@@ -41267,7 +41284,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -41284,7 +41301,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
@@ -41301,7 +41318,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
@@ -41318,7 +41335,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -41335,7 +41352,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
@@ -41352,7 +41369,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
@@ -41369,7 +41386,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -41386,7 +41403,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
@@ -41403,7 +41420,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
@@ -41420,7 +41437,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -41437,7 +41454,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -41446,7 +41463,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41454,7 +41471,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -41471,7 +41488,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -41480,7 +41497,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41488,7 +41505,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -41497,7 +41514,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41505,7 +41522,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -41514,7 +41531,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41522,7 +41539,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
@@ -41531,7 +41548,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41539,7 +41556,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C99" s="5">
         <v>1</v>
@@ -41548,7 +41565,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41556,7 +41573,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C100" s="5">
         <v>1</v>
@@ -41565,7 +41582,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41573,7 +41590,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C101" s="5">
         <v>1</v>
@@ -41582,7 +41599,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41590,7 +41607,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C102" s="5">
         <v>1</v>
@@ -41599,7 +41616,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -41607,7 +41624,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" s="5">
         <v>1</v>
@@ -41621,7 +41638,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C104" s="5">
         <v>1</v>
@@ -41635,7 +41652,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C105" s="5">
         <v>1</v>
@@ -41649,7 +41666,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C106" s="5">
         <v>1</v>
@@ -41663,7 +41680,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C107" s="5">
         <v>1</v>
@@ -41677,7 +41694,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C108" s="5">
         <v>1</v>
@@ -41691,7 +41708,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C109" s="5">
         <v>1</v>
@@ -41705,7 +41722,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C110" s="5">
         <v>1</v>
@@ -41719,7 +41736,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C111" s="5">
         <v>1</v>
@@ -41730,10 +41747,10 @@
     </row>
     <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C112" s="5">
         <v>0</v>
@@ -41747,7 +41764,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C113" s="5">
         <v>1</v>
@@ -41761,7 +41778,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" s="5">
         <v>1</v>
@@ -41775,7 +41792,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C115" s="5">
         <v>1</v>
@@ -41789,7 +41806,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C116" s="5">
         <v>1</v>
@@ -41803,7 +41820,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C117" s="5">
         <v>1</v>
@@ -41817,7 +41834,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C118" s="5">
         <v>1</v>
@@ -41831,7 +41848,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C119" s="5">
         <v>1</v>
@@ -41845,7 +41862,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C120" s="5">
         <v>1</v>
@@ -41859,7 +41876,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C121" s="5">
         <v>1</v>
@@ -41873,7 +41890,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C122" s="5">
         <v>1</v>
@@ -41887,7 +41904,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C123" s="5">
         <v>1</v>
@@ -41901,7 +41918,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C124" s="5">
         <v>1</v>
@@ -41912,10 +41929,10 @@
     </row>
     <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C125" s="5">
         <v>1</v>
@@ -41935,10 +41952,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF521BB4-2DEC-48BF-9F68-8BCAEB743C1F}">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -41979,10 +41996,10 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>184</v>
@@ -42063,22 +42080,22 @@
         <v>135</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>126</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI1" s="29" t="s">
         <v>1</v>
@@ -42087,21 +42104,21 @@
         <v>2</v>
       </c>
       <c r="AK1" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL1" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM1" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN1" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>195</v>
@@ -42191,7 +42208,7 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF2" t="s">
         <v>139</v>
@@ -42200,10 +42217,10 @@
         <v>139</v>
       </c>
       <c r="AH2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AI2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -42223,7 +42240,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>139</v>
@@ -42313,7 +42330,7 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF3" t="s">
         <v>139</v>
@@ -42322,10 +42339,10 @@
         <v>139</v>
       </c>
       <c r="AH3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AI3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -42345,37 +42362,37 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s">
         <v>275</v>
       </c>
-      <c r="B4" t="s">
-        <v>276</v>
-      </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J4" t="s">
         <v>175</v>
       </c>
       <c r="K4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -42384,73 +42401,73 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -42466,113 +42483,113 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A5" s="36" t="s">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" t="s">
         <v>289</v>
       </c>
-      <c r="B5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>290</v>
       </c>
-      <c r="K5" t="s">
-        <v>291</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -42588,38 +42605,38 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
-        <v>297</v>
+      <c r="A6" t="s">
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J6" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>282</v>
+      <c r="K6" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -42628,73 +42645,73 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -42706,6 +42723,250 @@
         <v>0</v>
       </c>
       <c r="AN6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="O7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>275</v>
+      </c>
+      <c r="R7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S7" t="s">
+        <v>275</v>
+      </c>
+      <c r="T7" t="s">
+        <v>301</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>275</v>
+      </c>
+      <c r="W7" t="s">
+        <v>275</v>
+      </c>
+      <c r="X7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI7" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A8" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" t="s">
+        <v>154</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>139</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" t="s">
+        <v>139</v>
+      </c>
+      <c r="X8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="s">
         <v>157</v>
       </c>
     </row>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41570F87-2526-4E7A-AD9A-2D043EF1F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD3A040-7A00-435C-89C2-7F74F19B35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="303">
   <si>
     <t>Instruction</t>
   </si>
@@ -954,13 +954,13 @@
     <t>DAU_AddrZero</t>
   </si>
   <si>
-    <t>DAU_OffsetWord</t>
-  </si>
-  <si>
     <t>RegInSelCmd_R15</t>
   </si>
   <si>
     <t>BootWaitForFetch</t>
+  </si>
+  <si>
+    <t>DAU_OffsetLong</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1226,7 +1226,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2104,49 +2103,49 @@
       <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.59765625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="15.1328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.86328125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="12.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.86328125" style="12" customWidth="1"/>
-    <col min="25" max="25" width="18.1328125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="14.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.59765625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="12.86328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5703125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.06640625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="13.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.59765625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="19.86328125" style="12" customWidth="1"/>
-    <col min="35" max="36" width="13.59765625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="25.1328125" style="12" customWidth="1"/>
-    <col min="38" max="38" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.59765625" style="30" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.73046875" customWidth="1"/>
-    <col min="41" max="41" width="15.46484375" customWidth="1"/>
+    <col min="31" max="31" width="14" style="12" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="19.85546875" style="12" customWidth="1"/>
+    <col min="35" max="36" width="13.5703125" style="12" customWidth="1"/>
+    <col min="37" max="37" width="25.140625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -2437,7 +2436,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -2603,7 +2602,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -2769,7 +2768,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -2935,7 +2934,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -3101,7 +3100,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -3267,7 +3266,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -3433,7 +3432,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -3599,7 +3598,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -3765,7 +3764,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -3931,7 +3930,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -4097,7 +4096,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -4263,7 +4262,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -4429,7 +4428,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -4595,7 +4594,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -4761,7 +4760,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -4927,7 +4926,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -5093,7 +5092,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -5259,7 +5258,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -5425,7 +5424,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -5591,7 +5590,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -5757,7 +5756,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -5923,7 +5922,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -6089,7 +6088,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -6255,7 +6254,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -6421,7 +6420,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -6587,7 +6586,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -6753,7 +6752,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -6919,7 +6918,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -7085,7 +7084,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -7251,7 +7250,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -7417,7 +7416,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -7583,7 +7582,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -7749,7 +7748,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -7915,7 +7914,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -8081,7 +8080,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -8247,7 +8246,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -8413,7 +8412,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -8579,7 +8578,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -8745,7 +8744,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -8911,7 +8910,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -9077,7 +9076,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -9243,7 +9242,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -9409,7 +9408,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -9575,7 +9574,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -9741,7 +9740,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -9907,7 +9906,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -10073,7 +10072,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -10239,7 +10238,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -10405,7 +10404,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -10571,7 +10570,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -10737,7 +10736,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -10903,7 +10902,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="str">
         <f>ALU!A54</f>
         <v>OpDT</v>
@@ -11069,7 +11068,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -11235,7 +11234,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -11401,7 +11400,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -11567,7 +11566,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -11733,7 +11732,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -11899,7 +11898,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -12065,7 +12064,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -12231,7 +12230,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -12397,7 +12396,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -12563,7 +12562,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -12729,7 +12728,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -12895,7 +12894,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -13061,7 +13060,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -13227,7 +13226,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -13393,7 +13392,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -13559,7 +13558,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -13725,7 +13724,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -13891,7 +13890,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -14057,7 +14056,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -14223,7 +14222,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -14389,7 +14388,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -14555,7 +14554,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -14721,7 +14720,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -14887,7 +14886,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -15053,7 +15052,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -15219,7 +15218,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -15385,7 +15384,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -15551,7 +15550,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -15717,7 +15716,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -15883,7 +15882,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -16049,7 +16048,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -16215,7 +16214,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -16381,7 +16380,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -16547,7 +16546,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -16713,7 +16712,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -16879,7 +16878,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -17045,7 +17044,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -17211,7 +17210,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -17377,7 +17376,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -17543,7 +17542,7 @@
         <v>TempRegSel_Offset8</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -17709,7 +17708,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -17875,7 +17874,7 @@
         <v>TempRegSel_Offset8</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -18041,7 +18040,7 @@
         <v>TempRegSel_Offset12</v>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -18207,7 +18206,7 @@
         <v>TempRegSel_RegB</v>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -18373,7 +18372,7 @@
         <v>TempRegSel_Offset12</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -18539,7 +18538,7 @@
         <v>TempRegSel_RegB</v>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -18705,7 +18704,7 @@
         <v>TempRegSel_RegB</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -18871,7 +18870,7 @@
         <v>TempRegSel_RegB</v>
       </c>
     </row>
-    <row r="102" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -19037,7 +19036,7 @@
         <v>TempRegSel_RegB</v>
       </c>
     </row>
-    <row r="103" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -19203,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -19369,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -19535,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -19701,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -19867,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -20033,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -20199,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -20365,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -20531,7 +20530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="str">
         <f>ALU!A112</f>
         <v>OpSLEEP</v>
@@ -20697,7 +20696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="str">
         <f>ALU!A113</f>
         <v>OpNOP</v>
@@ -20863,7 +20862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="str">
         <f>ALU!A114</f>
         <v>OpRTE</v>
@@ -21029,7 +21028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="str">
         <f>ALU!A115</f>
         <v>OpSETT</v>
@@ -21195,7 +21194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="str">
         <f>ALU!A116</f>
         <v>OpSTC_SR_To_Rn</v>
@@ -21361,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="str">
         <f>ALU!A117</f>
         <v>OpSTC_GBR_To_Rn</v>
@@ -21527,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="str">
         <f>ALU!A118</f>
         <v>OpSTC_VBR_To_Rn</v>
@@ -21693,7 +21692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="str">
         <f>ALU!A119</f>
         <v>OpSTCL_SR_To_At_Dec_Rn</v>
@@ -21859,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="str">
         <f>ALU!A120</f>
         <v>OpSTCL_GBR_To_At_Dec_Rn</v>
@@ -22025,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="str">
         <f>ALU!A121</f>
         <v>OpSTCL_VBR_To_At_Dec_Rn</v>
@@ -22191,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="str">
         <f>ALU!A122</f>
         <v>OpSTS_PR_To_Rn</v>
@@ -22357,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="str">
         <f>ALU!A123</f>
         <v>OpSTSL_PR_To_At_Dec_Rn</v>
@@ -22523,7 +22522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="str">
         <f>ALU!A124</f>
         <v>OpTRAPA</v>
@@ -22689,7 +22688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>170</v>
       </c>
@@ -22871,24 +22870,24 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -22917,7 +22916,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
@@ -22946,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
@@ -22975,7 +22974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
@@ -23004,7 +23003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
@@ -23033,7 +23032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
@@ -23062,7 +23061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
@@ -23091,7 +23090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -23120,7 +23119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
@@ -23149,7 +23148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
@@ -23178,7 +23177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>177</v>
       </c>
@@ -23207,7 +23206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>13</v>
       </c>
@@ -23236,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>14</v>
       </c>
@@ -23265,7 +23264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
@@ -23294,7 +23293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>16</v>
       </c>
@@ -23323,7 +23322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
@@ -23352,7 +23351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>18</v>
       </c>
@@ -23381,7 +23380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>19</v>
       </c>
@@ -23410,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>20</v>
       </c>
@@ -23439,7 +23438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
@@ -23468,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
@@ -23497,7 +23496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>23</v>
       </c>
@@ -23526,7 +23525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>24</v>
       </c>
@@ -23555,7 +23554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
@@ -23584,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>26</v>
       </c>
@@ -23613,7 +23612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>27</v>
       </c>
@@ -23642,7 +23641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>28</v>
       </c>
@@ -23671,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>29</v>
       </c>
@@ -23700,7 +23699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>30</v>
       </c>
@@ -23729,7 +23728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>31</v>
       </c>
@@ -23758,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>32</v>
       </c>
@@ -23787,7 +23786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>33</v>
       </c>
@@ -23816,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>34</v>
       </c>
@@ -23845,7 +23844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>35</v>
       </c>
@@ -23874,7 +23873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>36</v>
       </c>
@@ -23903,7 +23902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>37</v>
       </c>
@@ -23932,7 +23931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>38</v>
       </c>
@@ -23961,7 +23960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>39</v>
       </c>
@@ -23990,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>40</v>
       </c>
@@ -24019,7 +24018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>41</v>
       </c>
@@ -24048,7 +24047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -24077,7 +24076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -24106,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -24135,7 +24134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -24164,7 +24163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -24193,7 +24192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -24222,7 +24221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -24251,7 +24250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -24280,7 +24279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -24309,7 +24308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -24338,7 +24337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -24367,7 +24366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -24396,7 +24395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -24425,7 +24424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>213</v>
       </c>
@@ -24454,7 +24453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -24483,7 +24482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -24512,7 +24511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -24570,7 +24569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -24599,7 +24598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -24628,7 +24627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -24657,7 +24656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -24686,7 +24685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -24715,7 +24714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -24744,7 +24743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -24773,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -24802,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -24831,7 +24830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -24860,7 +24859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -24889,7 +24888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -24918,7 +24917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -24947,7 +24946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -24976,7 +24975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -25005,7 +25004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -25034,7 +25033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -25063,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -25092,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -25150,7 +25149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -25179,7 +25178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -25208,7 +25207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -25237,7 +25236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -25266,7 +25265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -25295,7 +25294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -25324,7 +25323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>87</v>
       </c>
@@ -25382,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>88</v>
       </c>
@@ -25411,7 +25410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>89</v>
       </c>
@@ -25440,7 +25439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>90</v>
       </c>
@@ -25469,7 +25468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>91</v>
       </c>
@@ -25498,7 +25497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>92</v>
       </c>
@@ -25527,7 +25526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -25556,7 +25555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -25585,7 +25584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -25614,7 +25613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -25643,7 +25642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -25672,7 +25671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -25701,7 +25700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -25730,7 +25729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -25759,7 +25758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -25788,7 +25787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -25817,7 +25816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -25846,7 +25845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -25875,7 +25874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -25904,7 +25903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -25933,7 +25932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -25962,7 +25961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -25991,7 +25990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -26020,7 +26019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -26049,7 +26048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -26078,7 +26077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -26107,7 +26106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>259</v>
       </c>
@@ -26136,7 +26135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>236</v>
       </c>
@@ -26165,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>237</v>
       </c>
@@ -26194,7 +26193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>238</v>
       </c>
@@ -26223,7 +26222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>240</v>
       </c>
@@ -26252,7 +26251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>241</v>
       </c>
@@ -26281,7 +26280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>242</v>
       </c>
@@ -26310,7 +26309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>243</v>
       </c>
@@ -26339,7 +26338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>244</v>
       </c>
@@ -26368,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>245</v>
       </c>
@@ -26397,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>246</v>
       </c>
@@ -26426,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>247</v>
       </c>
@@ -26455,7 +26454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>248</v>
       </c>
@@ -26484,7 +26483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -26532,18 +26531,18 @@
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.46484375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -26566,7 +26565,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -26589,7 +26588,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -26612,7 +26611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -26635,7 +26634,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -26658,7 +26657,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -26681,7 +26680,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -26704,7 +26703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -26727,7 +26726,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -26750,7 +26749,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -26773,7 +26772,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>177</v>
       </c>
@@ -26796,7 +26795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -26819,7 +26818,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -26842,7 +26841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -26865,7 +26864,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -26888,7 +26887,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -26911,7 +26910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -26934,7 +26933,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -26957,7 +26956,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -26980,7 +26979,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -27003,7 +27002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -27026,7 +27025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -27049,7 +27048,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -27072,7 +27071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -27095,7 +27094,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -27118,7 +27117,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -27141,7 +27140,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -27164,7 +27163,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -27187,7 +27186,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -27210,7 +27209,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -27233,7 +27232,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -27256,7 +27255,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -27279,7 +27278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -27302,7 +27301,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -27325,7 +27324,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -27348,7 +27347,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -27371,7 +27370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -27394,7 +27393,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -27417,7 +27416,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -27440,7 +27439,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -27463,7 +27462,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -27486,7 +27485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -27509,7 +27508,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -27532,7 +27531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -27555,7 +27554,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -27578,7 +27577,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -27601,7 +27600,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -27624,7 +27623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -27647,7 +27646,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -27670,7 +27669,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -27693,7 +27692,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -27716,7 +27715,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -27739,7 +27738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -27762,7 +27761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -27785,7 +27784,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -27808,7 +27807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -27831,7 +27830,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -27854,7 +27853,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -27877,7 +27876,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -27900,7 +27899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -27923,7 +27922,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -27946,7 +27945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -27969,7 +27968,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -27992,7 +27991,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -28015,7 +28014,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -28038,7 +28037,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -28061,7 +28060,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -28084,7 +28083,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -28107,7 +28106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -28130,7 +28129,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -28153,7 +28152,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -28176,7 +28175,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -28199,7 +28198,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -28222,7 +28221,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -28245,7 +28244,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -28268,7 +28267,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -28291,7 +28290,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -28314,7 +28313,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -28337,7 +28336,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -28360,7 +28359,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -28383,7 +28382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -28406,7 +28405,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -28429,7 +28428,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -28452,7 +28451,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -28475,7 +28474,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -28498,7 +28497,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -28521,7 +28520,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -28544,7 +28543,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -28567,7 +28566,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -28590,7 +28589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -28613,7 +28612,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -28636,7 +28635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -28659,7 +28658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -28682,7 +28681,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -28705,7 +28704,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -28728,7 +28727,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -28751,7 +28750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -28774,7 +28773,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -28797,7 +28796,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -28820,7 +28819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -28843,7 +28842,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -28866,7 +28865,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -28889,7 +28888,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -28912,7 +28911,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -28935,7 +28934,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -28958,7 +28957,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -28981,7 +28980,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -29004,7 +29003,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -29027,7 +29026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -29050,7 +29049,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -29073,7 +29072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -29096,7 +29095,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>260</v>
       </c>
@@ -29119,7 +29118,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -29142,7 +29141,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -29165,7 +29164,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -29188,7 +29187,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -29211,7 +29210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -29234,7 +29233,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -29257,7 +29256,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -29280,7 +29279,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -29303,7 +29302,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -29326,7 +29325,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -29349,7 +29348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -29372,7 +29371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -29395,7 +29394,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -29438,18 +29437,18 @@
       <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -29472,7 +29471,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -29495,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -29518,7 +29517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -29541,7 +29540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -29564,7 +29563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -29587,7 +29586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -29610,7 +29609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -29633,7 +29632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -29656,7 +29655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -29679,7 +29678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -29702,7 +29701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -29725,7 +29724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -29748,7 +29747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -29771,7 +29770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -29794,7 +29793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -29817,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -29840,7 +29839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -29863,7 +29862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -29886,7 +29885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -29909,7 +29908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -29932,7 +29931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -29955,7 +29954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -29978,7 +29977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -30001,7 +30000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -30024,7 +30023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -30047,7 +30046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -30070,7 +30069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -30093,7 +30092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -30116,7 +30115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -30139,7 +30138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -30162,7 +30161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -30185,7 +30184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -30208,7 +30207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -30231,7 +30230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -30254,7 +30253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -30277,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -30300,7 +30299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -30323,7 +30322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -30346,7 +30345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -30369,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -30392,7 +30391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -30415,7 +30414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -30438,7 +30437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -30461,7 +30460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -30484,7 +30483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -30507,7 +30506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -30530,7 +30529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -30553,7 +30552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -30576,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -30599,7 +30598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -30622,7 +30621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -30645,7 +30644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -30668,7 +30667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -30691,7 +30690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -30714,7 +30713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -30737,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -30760,7 +30759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -30783,7 +30782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -30806,7 +30805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -30829,7 +30828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -30852,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -30875,7 +30874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -30898,7 +30897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -30921,7 +30920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -30944,7 +30943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -30963,7 +30962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -30986,7 +30985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -31009,7 +31008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -31032,7 +31031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -31051,7 +31050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -31070,7 +31069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -31093,7 +31092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -31116,7 +31115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -31135,7 +31134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -31158,7 +31157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -31181,7 +31180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -31200,7 +31199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -31223,7 +31222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -31246,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -31269,7 +31268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -31292,7 +31291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -31315,7 +31314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -31338,7 +31337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -31361,7 +31360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -31384,7 +31383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -31407,7 +31406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -31430,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -31453,7 +31452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -31476,7 +31475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -31499,7 +31498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -31522,7 +31521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -31545,7 +31544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -31568,7 +31567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -31591,7 +31590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -31614,7 +31613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -31637,7 +31636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -31660,7 +31659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -31683,7 +31682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -31706,7 +31705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -31729,7 +31728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -31752,7 +31751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -31775,7 +31774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -31798,7 +31797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -31821,7 +31820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -31844,7 +31843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -31867,7 +31866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -31890,7 +31889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -31913,7 +31912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -31936,7 +31935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -31959,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -31982,7 +31981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>259</v>
       </c>
@@ -32005,7 +32004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -32028,7 +32027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -32047,7 +32046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -32070,7 +32069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -32093,7 +32092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -32116,7 +32115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -32139,7 +32138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -32162,7 +32161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -32185,7 +32184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -32208,7 +32207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -32231,7 +32230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -32254,7 +32253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -32277,7 +32276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -32320,21 +32319,21 @@
       <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.53125" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -32369,7 +32368,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -32404,7 +32403,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
@@ -32439,7 +32438,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>142</v>
       </c>
@@ -32474,7 +32473,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -32509,7 +32508,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -32544,7 +32543,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -32579,7 +32578,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -32614,7 +32613,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -32649,7 +32648,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -32684,7 +32683,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -32719,7 +32718,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -32754,7 +32753,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -32789,7 +32788,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -32824,7 +32823,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -32859,7 +32858,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -32894,7 +32893,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -32929,7 +32928,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -32964,7 +32963,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -32999,7 +32998,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -33034,7 +33033,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -33069,7 +33068,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -33104,7 +33103,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -33139,7 +33138,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -33174,7 +33173,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -33209,7 +33208,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -33244,7 +33243,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -33279,7 +33278,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -33314,7 +33313,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -33349,7 +33348,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -33384,7 +33383,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -33419,7 +33418,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -33454,7 +33453,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -33489,7 +33488,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -33524,7 +33523,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -33559,7 +33558,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -33594,7 +33593,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -33629,7 +33628,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -33664,7 +33663,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -33699,7 +33698,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -33734,7 +33733,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -33769,7 +33768,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -33804,7 +33803,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -33839,7 +33838,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -33874,7 +33873,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -33909,7 +33908,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -33944,7 +33943,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -33979,7 +33978,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -34014,7 +34013,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -34049,7 +34048,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -34084,7 +34083,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -34119,7 +34118,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -34154,7 +34153,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -34189,7 +34188,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -34224,7 +34223,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -34259,7 +34258,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -34294,7 +34293,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -34329,7 +34328,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -34364,7 +34363,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -34399,7 +34398,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -34434,7 +34433,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -34469,7 +34468,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -34504,7 +34503,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -34539,7 +34538,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -34574,7 +34573,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -34609,7 +34608,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -34644,7 +34643,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -34679,7 +34678,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -34714,7 +34713,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -34749,7 +34748,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -34784,7 +34783,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -34819,7 +34818,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -34854,7 +34853,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -34889,7 +34888,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -34924,7 +34923,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -34959,7 +34958,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -34994,7 +34993,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -35029,7 +35028,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -35064,7 +35063,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -35099,7 +35098,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -35134,7 +35133,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -35169,7 +35168,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -35204,7 +35203,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -35239,7 +35238,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -35274,7 +35273,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -35309,7 +35308,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -35344,7 +35343,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -35379,7 +35378,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -35414,7 +35413,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -35449,7 +35448,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -35484,7 +35483,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -35519,7 +35518,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -35554,7 +35553,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -35589,7 +35588,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -35624,7 +35623,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -35659,7 +35658,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -35694,7 +35693,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -35729,7 +35728,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -35764,7 +35763,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -35799,7 +35798,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -35834,7 +35833,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -35869,7 +35868,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -35904,7 +35903,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -35925,7 +35924,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -35948,7 +35947,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -35971,7 +35970,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -35994,7 +35993,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -36015,7 +36014,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -36036,7 +36035,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -36057,7 +36056,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -36078,7 +36077,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -36099,7 +36098,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>259</v>
       </c>
@@ -36118,7 +36117,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -36139,7 +36138,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -36160,7 +36159,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -36181,7 +36180,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -36202,7 +36201,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -36223,7 +36222,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -36244,7 +36243,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -36265,7 +36264,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -36286,7 +36285,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -36307,7 +36306,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -36328,7 +36327,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -36349,7 +36348,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -36370,7 +36369,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -36401,23 +36400,23 @@
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -36446,7 +36445,7 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -36475,7 +36474,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
@@ -36504,7 +36503,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>142</v>
       </c>
@@ -36533,7 +36532,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -36562,7 +36561,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -36591,7 +36590,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -36620,7 +36619,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -36649,7 +36648,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -36678,7 +36677,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -36707,7 +36706,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -36736,7 +36735,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -36765,7 +36764,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -36794,7 +36793,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -36823,7 +36822,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -36852,7 +36851,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -36881,7 +36880,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -36910,7 +36909,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -36939,7 +36938,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -36968,7 +36967,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -36997,7 +36996,7 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -37026,7 +37025,7 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -37055,7 +37054,7 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -37084,7 +37083,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -37113,7 +37112,7 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -37142,7 +37141,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -37171,7 +37170,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -37200,7 +37199,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -37229,7 +37228,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -37258,7 +37257,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -37287,7 +37286,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -37316,7 +37315,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -37345,7 +37344,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -37374,7 +37373,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -37403,7 +37402,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -37432,7 +37431,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -37459,7 +37458,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -37486,7 +37485,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -37513,7 +37512,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -37540,7 +37539,7 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -37567,7 +37566,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -37596,7 +37595,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -37625,7 +37624,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -37654,7 +37653,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -37683,7 +37682,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -37712,7 +37711,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -37741,7 +37740,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -37770,7 +37769,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -37799,7 +37798,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -37828,7 +37827,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -37857,7 +37856,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -37886,7 +37885,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -37915,7 +37914,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
     </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -37944,7 +37943,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -37973,7 +37972,7 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -38002,7 +38001,7 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -38031,7 +38030,7 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -38060,7 +38059,7 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
     </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -38089,7 +38088,7 @@
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -38118,7 +38117,7 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
     </row>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -38147,7 +38146,7 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -38176,7 +38175,7 @@
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -38205,7 +38204,7 @@
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -38234,7 +38233,7 @@
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
     </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -38261,7 +38260,7 @@
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
     </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -38288,7 +38287,7 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
     </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -38315,7 +38314,7 @@
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
     </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -38342,7 +38341,7 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
     </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -38369,7 +38368,7 @@
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
     </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -38396,7 +38395,7 @@
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
     </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -38423,7 +38422,7 @@
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
     </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -38450,7 +38449,7 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
     </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -38477,7 +38476,7 @@
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
     </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -38504,7 +38503,7 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -38531,7 +38530,7 @@
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
     </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -38558,7 +38557,7 @@
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
     </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -38585,7 +38584,7 @@
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
     </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -38612,7 +38611,7 @@
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -38639,7 +38638,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -38666,7 +38665,7 @@
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
     </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -38693,7 +38692,7 @@
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
     </row>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -38720,7 +38719,7 @@
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
     </row>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -38747,7 +38746,7 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -38774,7 +38773,7 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -38801,7 +38800,7 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -38828,7 +38827,7 @@
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -38855,7 +38854,7 @@
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
     </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -38882,7 +38881,7 @@
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
     </row>
-    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -38909,7 +38908,7 @@
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
     </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -38936,7 +38935,7 @@
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
     </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -38963,7 +38962,7 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
     </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -38990,7 +38989,7 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
     </row>
-    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -39017,7 +39016,7 @@
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
     </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -39044,7 +39043,7 @@
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
     </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -39071,7 +39070,7 @@
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
     </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -39098,7 +39097,7 @@
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -39125,7 +39124,7 @@
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
     </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -39152,7 +39151,7 @@
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -39179,7 +39178,7 @@
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -39206,7 +39205,7 @@
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -39233,7 +39232,7 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -39260,7 +39259,7 @@
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -39287,7 +39286,7 @@
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
     </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -39312,7 +39311,7 @@
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
     </row>
-    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -39337,7 +39336,7 @@
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
     </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -39362,7 +39361,7 @@
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
     </row>
-    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -39387,7 +39386,7 @@
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
     </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -39412,7 +39411,7 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
     </row>
-    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -39437,7 +39436,7 @@
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
     </row>
-    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -39462,7 +39461,7 @@
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
     </row>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -39487,7 +39486,7 @@
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
     </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -39512,7 +39511,7 @@
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
     </row>
-    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>259</v>
       </c>
@@ -39537,7 +39536,7 @@
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
     </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -39562,7 +39561,7 @@
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
     </row>
-    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -39587,7 +39586,7 @@
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
     </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -39612,7 +39611,7 @@
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
     </row>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -39637,7 +39636,7 @@
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
     </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -39662,7 +39661,7 @@
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
     </row>
-    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -39687,7 +39686,7 @@
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
     </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -39712,7 +39711,7 @@
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
     </row>
-    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -39737,7 +39736,7 @@
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
     </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -39762,7 +39761,7 @@
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
     </row>
-    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -39787,7 +39786,7 @@
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
     </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -39812,7 +39811,7 @@
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
     </row>
-    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -39837,7 +39836,7 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
     </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -39876,16 +39875,16 @@
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39902,7 +39901,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -39919,7 +39918,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
@@ -39936,7 +39935,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>257</v>
       </c>
@@ -39953,7 +39952,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -39970,7 +39969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -39987,7 +39986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -40004,7 +40003,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -40021,7 +40020,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -40038,7 +40037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -40055,7 +40054,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -40072,7 +40071,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -40089,7 +40088,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -40106,7 +40105,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -40123,7 +40122,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -40140,7 +40139,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -40157,7 +40156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -40174,7 +40173,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -40191,7 +40190,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -40208,7 +40207,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -40225,7 +40224,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -40242,7 +40241,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -40259,7 +40258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -40276,7 +40275,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -40293,7 +40292,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -40310,7 +40309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -40327,7 +40326,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -40344,7 +40343,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -40361,7 +40360,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -40378,7 +40377,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -40395,7 +40394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -40412,7 +40411,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -40429,7 +40428,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -40446,7 +40445,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -40463,7 +40462,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -40480,7 +40479,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -40497,7 +40496,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -40514,7 +40513,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -40531,7 +40530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -40548,7 +40547,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -40565,7 +40564,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -40582,7 +40581,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -40599,7 +40598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -40616,7 +40615,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -40633,7 +40632,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -40650,7 +40649,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -40667,7 +40666,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -40684,7 +40683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -40701,7 +40700,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -40718,7 +40717,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -40735,7 +40734,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -40752,7 +40751,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -40769,7 +40768,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -40786,7 +40785,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -40803,7 +40802,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -40820,7 +40819,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -40837,7 +40836,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -40854,7 +40853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -40871,7 +40870,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -40888,7 +40887,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -40905,7 +40904,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -40922,7 +40921,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -40939,7 +40938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -40956,7 +40955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -40973,7 +40972,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -40990,7 +40989,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -41007,7 +41006,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -41024,7 +41023,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -41041,7 +41040,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -41058,7 +41057,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -41075,7 +41074,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -41092,7 +41091,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -41109,7 +41108,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -41126,7 +41125,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -41143,7 +41142,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -41160,7 +41159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -41177,7 +41176,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -41194,7 +41193,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -41211,7 +41210,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -41228,7 +41227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -41245,7 +41244,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -41262,7 +41261,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -41279,7 +41278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -41296,7 +41295,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -41313,7 +41312,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -41330,7 +41329,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -41347,7 +41346,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -41364,7 +41363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -41381,7 +41380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -41398,7 +41397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -41415,7 +41414,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -41432,7 +41431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -41449,7 +41448,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -41466,7 +41465,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -41483,7 +41482,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -41500,7 +41499,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -41517,7 +41516,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -41534,7 +41533,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -41551,7 +41550,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -41568,7 +41567,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -41585,7 +41584,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -41602,7 +41601,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -41619,7 +41618,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -41633,7 +41632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -41647,7 +41646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -41661,7 +41660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -41675,7 +41674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -41689,7 +41688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -41703,7 +41702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -41717,7 +41716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -41731,7 +41730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -41745,7 +41744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>259</v>
       </c>
@@ -41759,7 +41758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -41773,7 +41772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -41787,7 +41786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -41801,7 +41800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -41815,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -41829,7 +41828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -41843,7 +41842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -41857,7 +41856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -41871,7 +41870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -41885,7 +41884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -41899,7 +41898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -41913,7 +41912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -41927,7 +41926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>170</v>
       </c>
@@ -41954,47 +41953,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF521BB4-2DEC-48BF-9F68-8BCAEB743C1F}">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" customWidth="1"/>
-    <col min="11" max="11" width="15.73046875" customWidth="1"/>
-    <col min="12" max="12" width="18.9296875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="15.86328125" customWidth="1"/>
-    <col min="16" max="16" width="16.265625" customWidth="1"/>
-    <col min="17" max="17" width="16.1328125" customWidth="1"/>
-    <col min="18" max="18" width="17.1328125" customWidth="1"/>
-    <col min="19" max="19" width="15.73046875" customWidth="1"/>
-    <col min="20" max="20" width="14.3984375" customWidth="1"/>
-    <col min="21" max="21" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="13.86328125" customWidth="1"/>
-    <col min="24" max="24" width="16.73046875" customWidth="1"/>
-    <col min="25" max="25" width="13.1328125" customWidth="1"/>
-    <col min="26" max="27" width="15.1328125" customWidth="1"/>
-    <col min="28" max="28" width="11.3984375" customWidth="1"/>
-    <col min="29" max="29" width="10.86328125" customWidth="1"/>
-    <col min="30" max="30" width="11.59765625" customWidth="1"/>
-    <col min="31" max="31" width="19.86328125" customWidth="1"/>
-    <col min="32" max="33" width="11.265625" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="27" width="15.140625" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" customWidth="1"/>
+    <col min="32" max="33" width="11.28515625" customWidth="1"/>
     <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="35" max="35" width="11.59765625" customWidth="1"/>
-    <col min="36" max="36" width="11.1328125" customWidth="1"/>
-    <col min="37" max="37" width="17.19921875" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" customWidth="1"/>
+    <col min="37" max="37" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>258</v>
       </c>
@@ -42116,7 +42115,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>255</v>
       </c>
@@ -42238,7 +42237,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -42360,7 +42359,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -42482,7 +42481,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -42604,7 +42603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -42726,18 +42725,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
         <v>275</v>
@@ -42746,13 +42745,13 @@
         <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="H7" t="s">
         <v>275</v>
       </c>
-      <c r="I7" t="s">
-        <v>275</v>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>275</v>
@@ -42770,7 +42769,7 @@
         <v>299</v>
       </c>
       <c r="O7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P7" t="s">
         <v>275</v>
@@ -42785,7 +42784,7 @@
         <v>275</v>
       </c>
       <c r="T7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -42829,8 +42828,8 @@
       <c r="AH7" t="s">
         <v>266</v>
       </c>
-      <c r="AI7" s="37" t="s">
-        <v>302</v>
+      <c r="AI7" t="s">
+        <v>301</v>
       </c>
       <c r="AJ7" t="s">
         <v>275</v>
@@ -42848,9 +42847,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A8" s="37" t="s">
-        <v>302</v>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>301</v>
       </c>
       <c r="B8" t="s">
         <v>195</v>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F030095E-A695-4C81-88DF-1E136BFC9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3967810E-CD8D-4E84-BFD3-965966056DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="IO" sheetId="6" r:id="rId6"/>
     <sheet name="CU" sheetId="7" r:id="rId7"/>
     <sheet name="states" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5104" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="327">
   <si>
     <t>Instruction</t>
   </si>
@@ -1032,12 +1031,15 @@
   <si>
     <t>RegAxDataIn_PR</t>
   </si>
+  <si>
+    <t>ALUOpBSel_Tbit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,22 +1106,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,16 +1148,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1213,12 +1191,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1322,16 +1298,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
@@ -2251,55 +2219,55 @@
   </sheetPr>
   <dimension ref="A1:AQ125"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM111" sqref="AM111"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.59765625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="15.1328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1328125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="15.86328125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="12.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.86328125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="18.1328125" style="12" customWidth="1"/>
-    <col min="27" max="27" width="14.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.59765625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="12.86328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" style="12" customWidth="1"/>
-    <col min="33" max="33" width="13.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.59765625" style="12" customWidth="1"/>
-    <col min="35" max="35" width="19.86328125" style="12" customWidth="1"/>
-    <col min="36" max="37" width="13.59765625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="25.1328125" style="12" customWidth="1"/>
-    <col min="39" max="39" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.59765625" style="30" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.73046875" customWidth="1"/>
-    <col min="42" max="42" width="15.3984375" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" style="12" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" style="12" customWidth="1"/>
+    <col min="36" max="37" width="13.5703125" style="12" customWidth="1"/>
+    <col min="38" max="38" width="25.140625" style="12" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.7109375" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -2604,7 +2572,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -2619,7 +2587,7 @@
       </c>
       <c r="D3" s="17" t="str">
         <f>ALU!D3</f>
-        <v>FCmd_Zero</v>
+        <v>FCmd_A</v>
       </c>
       <c r="E3" s="17" t="str">
         <f>ALU!E3</f>
@@ -2631,7 +2599,7 @@
       </c>
       <c r="G3" s="17" t="str">
         <f>ALU!G3</f>
-        <v>ALUCmd_ADDER</v>
+        <v>ALUCmd_FBLOCK</v>
       </c>
       <c r="H3" s="17" t="str">
         <f>ALU!H3</f>
@@ -2778,7 +2746,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -2793,7 +2761,7 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>ALU!D4</f>
-        <v>FCmd_Zero</v>
+        <v>FCmd_A</v>
       </c>
       <c r="E4" s="17" t="str">
         <f>ALU!E4</f>
@@ -2805,7 +2773,7 @@
       </c>
       <c r="G4" s="17" t="str">
         <f>ALU!G4</f>
-        <v>ALUCmd_ADDER</v>
+        <v>ALUCmd_FBLOCK</v>
       </c>
       <c r="H4" s="17" t="str">
         <f>ALU!H4</f>
@@ -2952,7 +2920,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -3126,7 +3094,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -3300,7 +3268,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -3474,7 +3442,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -3648,7 +3616,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -3822,7 +3790,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -3996,7 +3964,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -4170,7 +4138,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -4344,7 +4312,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -4518,7 +4486,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -4692,7 +4660,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -4866,7 +4834,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -5040,7 +5008,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -5214,7 +5182,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -5329,7 +5297,7 @@
       </c>
       <c r="AC18" s="16" t="str">
         <f>REG!H18</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_Rm</v>
       </c>
       <c r="AD18" s="16" t="str">
         <f>REG!I18</f>
@@ -5388,7 +5356,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -5503,7 +5471,7 @@
       </c>
       <c r="AC19" s="16" t="str">
         <f>REG!H19</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_Rm</v>
       </c>
       <c r="AD19" s="16" t="str">
         <f>REG!I19</f>
@@ -5562,7 +5530,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -5665,7 +5633,7 @@
       </c>
       <c r="Z20" s="16" t="str">
         <f>REG!E20</f>
-        <v>RegBSelCmd_R0</v>
+        <v>RegBSelCmd_Rm</v>
       </c>
       <c r="AA20" s="16" t="str">
         <f>REG!F20</f>
@@ -5736,7 +5704,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -5910,7 +5878,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -6084,7 +6052,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -6175,7 +6143,7 @@
       </c>
       <c r="W23" s="16" t="str">
         <f>REG!B23</f>
-        <v>RegInSelCmd_R0</v>
+        <v>RegInSelCmd_Rn</v>
       </c>
       <c r="X23" s="16">
         <f>REG!C23</f>
@@ -6258,7 +6226,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -6373,7 +6341,7 @@
       </c>
       <c r="AC24" s="16" t="str">
         <f>REG!H24</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_R0</v>
       </c>
       <c r="AD24" s="16" t="str">
         <f>REG!I24</f>
@@ -6432,7 +6400,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -6547,7 +6515,7 @@
       </c>
       <c r="AC25" s="16" t="str">
         <f>REG!H25</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_R0</v>
       </c>
       <c r="AD25" s="16" t="str">
         <f>REG!I25</f>
@@ -6606,7 +6574,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -6721,7 +6689,7 @@
       </c>
       <c r="AC26" s="16" t="str">
         <f>REG!H26</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_R0</v>
       </c>
       <c r="AD26" s="16" t="str">
         <f>REG!I26</f>
@@ -6780,7 +6748,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -6879,7 +6847,7 @@
       </c>
       <c r="Y27" s="16" t="str">
         <f>REG!D27</f>
-        <v>RegASelCmd_Rn</v>
+        <v>RegASelCmd_R0</v>
       </c>
       <c r="Z27" s="16" t="str">
         <f>REG!E27</f>
@@ -6954,7 +6922,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -7053,7 +7021,7 @@
       </c>
       <c r="Y28" s="16" t="str">
         <f>REG!D28</f>
-        <v>RegASelCmd_Rn</v>
+        <v>RegASelCmd_R0</v>
       </c>
       <c r="Z28" s="16" t="str">
         <f>REG!E28</f>
@@ -7128,7 +7096,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -7227,7 +7195,7 @@
       </c>
       <c r="Y29" s="16" t="str">
         <f>REG!D29</f>
-        <v>RegASelCmd_Rn</v>
+        <v>RegASelCmd_R0</v>
       </c>
       <c r="Z29" s="16" t="str">
         <f>REG!E29</f>
@@ -7302,7 +7270,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -7417,7 +7385,7 @@
       </c>
       <c r="AC30" s="16" t="str">
         <f>REG!H30</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_Rm</v>
       </c>
       <c r="AD30" s="16" t="str">
         <f>REG!I30</f>
@@ -7476,7 +7444,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -7591,7 +7559,7 @@
       </c>
       <c r="AC31" s="16" t="str">
         <f>REG!H31</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_Rm</v>
       </c>
       <c r="AD31" s="16" t="str">
         <f>REG!I31</f>
@@ -7650,7 +7618,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -7765,7 +7733,7 @@
       </c>
       <c r="AC32" s="16" t="str">
         <f>REG!H32</f>
-        <v>RegA1SelCmd_Rn</v>
+        <v>RegA1SelCmd_Rm</v>
       </c>
       <c r="AD32" s="16" t="str">
         <f>REG!I32</f>
@@ -7824,7 +7792,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -7998,7 +7966,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -8172,7 +8140,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -8346,7 +8314,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -8520,7 +8488,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -8531,7 +8499,7 @@
       </c>
       <c r="C37" s="17" t="str">
         <f>ALU!C37</f>
-        <v>ALUOpBSel_RegB</v>
+        <v>ALUOpBSel_Tbit</v>
       </c>
       <c r="D37" s="17" t="str">
         <f>ALU!D37</f>
@@ -8615,7 +8583,7 @@
       </c>
       <c r="X37" s="16">
         <f>REG!C37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="16" t="str">
         <f>REG!D37</f>
@@ -8631,7 +8599,7 @@
       </c>
       <c r="AB37" s="16">
         <f>REG!G37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="16" t="str">
         <f>REG!H37</f>
@@ -8694,7 +8662,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -8868,7 +8836,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -9042,7 +9010,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -9216,7 +9184,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -9390,7 +9358,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -9564,7 +9532,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -9738,7 +9706,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -9912,7 +9880,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -10086,7 +10054,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -10260,7 +10228,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -10434,7 +10402,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -10608,7 +10576,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -10782,7 +10750,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="50" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -10956,7 +10924,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="51" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -11130,7 +11098,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="52" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -11304,7 +11272,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -11478,7 +11446,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="54" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="str">
         <f>ALU!A54</f>
         <v>OpDT</v>
@@ -11652,7 +11620,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -11826,7 +11794,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -12000,7 +11968,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="57" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -12174,7 +12142,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -12348,7 +12316,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -12522,7 +12490,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -12696,7 +12664,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -12870,7 +12838,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -13044,7 +13012,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -13218,7 +13186,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="64" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -13392,7 +13360,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="65" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -13566,7 +13534,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -13740,7 +13708,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="67" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -13914,7 +13882,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="68" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -14088,7 +14056,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="69" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -14262,7 +14230,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="70" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -14436,7 +14404,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="71" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -14610,7 +14578,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -14784,7 +14752,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -14958,7 +14926,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="74" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -15132,7 +15100,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -15306,7 +15274,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="76" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -15480,7 +15448,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -15654,7 +15622,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -15828,7 +15796,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -16002,7 +15970,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="80" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -16176,7 +16144,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -16350,7 +16318,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="82" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -16524,7 +16492,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -16698,7 +16666,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="84" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -16872,7 +16840,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="85" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -17046,7 +17014,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="86" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -17220,7 +17188,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="87" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -17394,7 +17362,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -17568,7 +17536,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="89" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -17742,7 +17710,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="90" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -17916,7 +17884,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="91" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -18090,7 +18058,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="92" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -18264,7 +18232,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="93" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -18438,7 +18406,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="94" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -18612,7 +18580,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -18786,7 +18754,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -18960,7 +18928,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -19134,7 +19102,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -19308,7 +19276,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="99" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -19482,7 +19450,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="100" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -19656,7 +19624,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="101" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -19830,7 +19798,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="102" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -20004,7 +19972,7 @@
         <v>SRSel_Tbit</v>
       </c>
     </row>
-    <row r="103" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -20178,7 +20146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -20352,7 +20320,7 @@
         <v>SRSel_Reg</v>
       </c>
     </row>
-    <row r="105" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -20526,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -20700,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -20874,7 +20842,7 @@
         <v>SRSel_DB</v>
       </c>
     </row>
-    <row r="108" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -21048,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -21222,7 +21190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -21396,7 +21364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -21570,7 +21538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="str">
         <f>ALU!A112</f>
         <v>OpSLEEP</v>
@@ -21744,7 +21712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="str">
         <f>ALU!A113</f>
         <v>OpNOP</v>
@@ -21918,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="str">
         <f>ALU!A114</f>
         <v>OpRTE</v>
@@ -22092,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="str">
         <f>ALU!A115</f>
         <v>OpSETT</v>
@@ -22266,7 +22234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="str">
         <f>ALU!A116</f>
         <v>OpSTC_SR_To_Rn</v>
@@ -22440,7 +22408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="str">
         <f>ALU!A117</f>
         <v>OpSTC_GBR_To_Rn</v>
@@ -22614,7 +22582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="str">
         <f>ALU!A118</f>
         <v>OpSTC_VBR_To_Rn</v>
@@ -22788,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="str">
         <f>ALU!A119</f>
         <v>OpSTCL_SR_To_At_Dec_Rn</v>
@@ -22962,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="str">
         <f>ALU!A120</f>
         <v>OpSTCL_GBR_To_At_Dec_Rn</v>
@@ -23136,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="str">
         <f>ALU!A121</f>
         <v>OpSTCL_VBR_To_At_Dec_Rn</v>
@@ -23310,7 +23278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="str">
         <f>ALU!A122</f>
         <v>OpSTS_PR_To_Rn</v>
@@ -23484,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="str">
         <f>ALU!A123</f>
         <v>OpSTSL_PR_To_At_Dec_Rn</v>
@@ -23658,7 +23626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="str">
         <f>ALU!A124</f>
         <v>OpTRAPA</v>
@@ -23832,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>169</v>
       </c>
@@ -24022,24 +23990,24 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView topLeftCell="A32" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -24068,7 +24036,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
@@ -24097,7 +24065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
@@ -24107,8 +24075,8 @@
       <c r="C3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>206</v>
+      <c r="D3" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>195</v>
@@ -24116,8 +24084,8 @@
       <c r="F3" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>196</v>
+      <c r="G3" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>153</v>
@@ -24126,7 +24094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
@@ -24136,8 +24104,8 @@
       <c r="C4" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>206</v>
+      <c r="D4" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>195</v>
@@ -24145,8 +24113,8 @@
       <c r="F4" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>196</v>
+      <c r="G4" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>153</v>
@@ -24155,7 +24123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
@@ -24184,7 +24152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
@@ -24213,7 +24181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
@@ -24242,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -24271,7 +24239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
@@ -24300,7 +24268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
@@ -24329,7 +24297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>175</v>
       </c>
@@ -24358,7 +24326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>13</v>
       </c>
@@ -24387,7 +24355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>14</v>
       </c>
@@ -24416,7 +24384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
@@ -24445,7 +24413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>16</v>
       </c>
@@ -24474,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
@@ -24503,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>18</v>
       </c>
@@ -24532,7 +24500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>19</v>
       </c>
@@ -24561,7 +24529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>20</v>
       </c>
@@ -24590,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
@@ -24619,7 +24587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
@@ -24648,7 +24616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>23</v>
       </c>
@@ -24677,7 +24645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>24</v>
       </c>
@@ -24706,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
@@ -24735,7 +24703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>26</v>
       </c>
@@ -24764,7 +24732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>27</v>
       </c>
@@ -24793,7 +24761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>28</v>
       </c>
@@ -24822,7 +24790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>29</v>
       </c>
@@ -24851,7 +24819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>30</v>
       </c>
@@ -24880,7 +24848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>31</v>
       </c>
@@ -24909,7 +24877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>32</v>
       </c>
@@ -24938,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>33</v>
       </c>
@@ -24967,7 +24935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>34</v>
       </c>
@@ -24996,7 +24964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>35</v>
       </c>
@@ -25025,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>36</v>
       </c>
@@ -25054,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>37</v>
       </c>
@@ -25083,7 +25051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>38</v>
       </c>
@@ -25091,7 +25059,7 @@
         <v>192</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>190</v>
@@ -25112,7 +25080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>39</v>
       </c>
@@ -25141,7 +25109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>40</v>
       </c>
@@ -25170,7 +25138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>41</v>
       </c>
@@ -25199,7 +25167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -25228,7 +25196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -25257,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -25286,7 +25254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -25315,7 +25283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -25344,7 +25312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -25373,7 +25341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -25402,7 +25370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -25431,7 +25399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -25460,7 +25428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -25489,7 +25457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -25518,7 +25486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -25547,7 +25515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -25576,7 +25544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>210</v>
       </c>
@@ -25605,7 +25573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -25634,7 +25602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -25663,7 +25631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -25692,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -25721,7 +25689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -25750,7 +25718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -25779,7 +25747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -25808,7 +25776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -25837,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -25866,7 +25834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -25895,7 +25863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -25924,7 +25892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -25953,7 +25921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -25982,7 +25950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -26011,7 +25979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -26040,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -26069,7 +26037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -26098,7 +26066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -26127,7 +26095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -26156,7 +26124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -26185,7 +26153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -26214,7 +26182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -26243,7 +26211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -26272,7 +26240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -26301,7 +26269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -26330,7 +26298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -26359,7 +26327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -26388,7 +26356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -26417,7 +26385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -26446,7 +26414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -26475,7 +26443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -26504,7 +26472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>87</v>
       </c>
@@ -26533,7 +26501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>88</v>
       </c>
@@ -26562,7 +26530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>89</v>
       </c>
@@ -26591,7 +26559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>90</v>
       </c>
@@ -26620,7 +26588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>91</v>
       </c>
@@ -26649,7 +26617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>92</v>
       </c>
@@ -26678,7 +26646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -26707,7 +26675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -26736,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -26765,7 +26733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -26794,7 +26762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -26823,7 +26791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -26852,7 +26820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -26881,7 +26849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -26910,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -26939,7 +26907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -26968,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -26997,7 +26965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -27026,7 +26994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -27055,7 +27023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -27084,7 +27052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -27113,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -27142,7 +27110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -27171,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -27200,7 +27168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -27229,7 +27197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -27258,7 +27226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>256</v>
       </c>
@@ -27287,7 +27255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>233</v>
       </c>
@@ -27316,7 +27284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>234</v>
       </c>
@@ -27345,7 +27313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>235</v>
       </c>
@@ -27374,7 +27342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>237</v>
       </c>
@@ -27403,7 +27371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>238</v>
       </c>
@@ -27432,7 +27400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>239</v>
       </c>
@@ -27461,7 +27429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>240</v>
       </c>
@@ -27490,7 +27458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>241</v>
       </c>
@@ -27519,7 +27487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>242</v>
       </c>
@@ -27548,7 +27516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>243</v>
       </c>
@@ -27577,7 +27545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>244</v>
       </c>
@@ -27606,7 +27574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>245</v>
       </c>
@@ -27635,7 +27603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -27679,22 +27647,22 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -27717,7 +27685,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -27740,7 +27708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -27763,7 +27731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -27786,7 +27754,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -27809,7 +27777,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -27832,7 +27800,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -27855,7 +27823,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -27878,7 +27846,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -27901,7 +27869,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -27924,7 +27892,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>175</v>
       </c>
@@ -27947,7 +27915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -27970,7 +27938,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -27993,7 +27961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -28016,7 +27984,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -28039,7 +28007,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -28062,7 +28030,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -28085,7 +28053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -28108,7 +28076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -28131,7 +28099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -28154,7 +28122,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -28177,7 +28145,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -28200,7 +28168,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -28223,7 +28191,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -28246,7 +28214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -28269,7 +28237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -28292,7 +28260,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -28315,7 +28283,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -28338,7 +28306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -28361,7 +28329,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -28384,7 +28352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -28407,7 +28375,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -28430,7 +28398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -28453,7 +28421,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -28476,7 +28444,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -28499,7 +28467,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -28522,7 +28490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -28545,7 +28513,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -28568,7 +28536,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -28591,7 +28559,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -28614,7 +28582,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -28637,7 +28605,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -28660,7 +28628,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -28683,7 +28651,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -28706,7 +28674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -28729,7 +28697,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -28752,7 +28720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -28775,7 +28743,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -28798,7 +28766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -28821,7 +28789,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -28844,7 +28812,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -28867,7 +28835,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -28890,7 +28858,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -28913,7 +28881,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -28936,7 +28904,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -28959,7 +28927,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -28982,7 +28950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -29005,7 +28973,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -29028,7 +28996,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -29051,7 +29019,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -29074,7 +29042,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -29097,7 +29065,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -29120,7 +29088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -29143,7 +29111,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -29166,7 +29134,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -29189,7 +29157,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -29212,7 +29180,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -29235,7 +29203,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -29258,7 +29226,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -29281,7 +29249,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -29304,7 +29272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -29327,7 +29295,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -29350,7 +29318,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -29373,7 +29341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -29396,7 +29364,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -29419,7 +29387,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -29442,7 +29410,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -29465,7 +29433,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -29488,7 +29456,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -29511,7 +29479,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -29534,7 +29502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -29557,7 +29525,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -29580,7 +29548,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -29603,7 +29571,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -29626,7 +29594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -29649,7 +29617,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -29672,7 +29640,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -29695,7 +29663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -29718,7 +29686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -29741,7 +29709,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -29764,7 +29732,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -29787,7 +29755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -29810,7 +29778,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -29833,7 +29801,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -29856,7 +29824,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -29879,7 +29847,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -29902,7 +29870,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -29925,7 +29893,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -29948,7 +29916,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -29971,7 +29939,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -29994,7 +29962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -30017,7 +29985,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -30040,7 +30008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -30063,7 +30031,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -30086,7 +30054,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -30109,7 +30077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -30132,7 +30100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -30155,7 +30123,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -30178,7 +30146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -30201,7 +30169,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -30224,7 +30192,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -30247,7 +30215,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>257</v>
       </c>
@@ -30270,7 +30238,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -30293,7 +30261,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -30316,7 +30284,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -30339,7 +30307,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -30362,7 +30330,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -30385,7 +30353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -30408,7 +30376,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -30431,7 +30399,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -30454,7 +30422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -30477,7 +30445,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -30500,7 +30468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -30523,7 +30491,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -30546,7 +30514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -30585,23 +30553,23 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -30627,7 +30595,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -30653,7 +30621,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -30679,7 +30647,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -30705,7 +30673,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -30731,7 +30699,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -30757,7 +30725,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -30783,7 +30751,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -30809,7 +30777,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -30835,7 +30803,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -30861,7 +30829,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -30887,7 +30855,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -30913,7 +30881,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -30939,7 +30907,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -30965,7 +30933,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -30991,7 +30959,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -31017,7 +30985,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -31043,7 +31011,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -31069,7 +31037,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -31095,7 +31063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -31121,7 +31089,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -31147,7 +31115,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -31173,7 +31141,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -31199,7 +31167,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -31225,7 +31193,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -31251,7 +31219,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -31277,7 +31245,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -31303,7 +31271,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -31329,7 +31297,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -31355,7 +31323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -31381,7 +31349,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -31407,7 +31375,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -31433,7 +31401,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -31459,7 +31427,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -31485,7 +31453,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -31511,7 +31479,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -31537,7 +31505,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -31563,7 +31531,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -31589,7 +31557,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -31615,7 +31583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -31641,7 +31609,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -31667,7 +31635,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -31693,7 +31661,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -31719,7 +31687,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -31745,7 +31713,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -31771,7 +31739,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -31797,7 +31765,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -31823,7 +31791,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -31849,7 +31817,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -31875,7 +31843,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -31901,7 +31869,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -31927,7 +31895,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -31953,7 +31921,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -31979,7 +31947,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -32005,7 +31973,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -32031,7 +31999,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -32057,7 +32025,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -32083,7 +32051,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -32109,7 +32077,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -32135,7 +32103,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -32161,7 +32129,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -32187,7 +32155,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -32213,7 +32181,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -32239,7 +32207,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -32265,7 +32233,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -32291,7 +32259,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -32313,7 +32281,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -32339,7 +32307,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -32365,7 +32333,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -32391,7 +32359,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -32413,7 +32381,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -32435,7 +32403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -32461,7 +32429,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -32487,7 +32455,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -32509,7 +32477,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -32535,7 +32503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -32561,7 +32529,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -32583,7 +32551,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -32609,7 +32577,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -32635,7 +32603,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -32661,7 +32629,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -32687,7 +32655,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -32713,7 +32681,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -32739,7 +32707,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -32765,7 +32733,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -32791,7 +32759,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -32817,7 +32785,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -32843,7 +32811,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -32869,7 +32837,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -32895,7 +32863,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -32921,7 +32889,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -32947,7 +32915,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -32973,7 +32941,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -32999,7 +32967,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -33025,7 +32993,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -33051,7 +33019,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -33077,7 +33045,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -33103,7 +33071,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -33129,7 +33097,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -33155,7 +33123,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -33181,7 +33149,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -33207,7 +33175,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -33233,7 +33201,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -33259,7 +33227,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -33285,7 +33253,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -33311,7 +33279,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -33337,7 +33305,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -33363,7 +33331,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -33389,7 +33357,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -33415,7 +33383,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -33441,7 +33409,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -33467,7 +33435,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>256</v>
       </c>
@@ -33493,7 +33461,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -33519,7 +33487,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -33541,7 +33509,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -33567,7 +33535,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -33593,7 +33561,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -33619,7 +33587,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -33645,7 +33613,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -33671,7 +33639,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -33697,7 +33665,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -33723,7 +33691,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -33749,7 +33717,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -33775,7 +33743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -33801,7 +33769,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -33843,25 +33811,25 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:K111"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.59765625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -33896,7 +33864,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -33931,7 +33899,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
@@ -33966,7 +33934,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>142</v>
       </c>
@@ -34001,7 +33969,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -34036,7 +34004,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -34071,7 +34039,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -34106,7 +34074,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -34141,7 +34109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -34176,7 +34144,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -34211,7 +34179,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -34246,7 +34214,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -34281,7 +34249,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -34316,7 +34284,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -34351,7 +34319,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -34386,7 +34354,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -34421,7 +34389,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -34456,7 +34424,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -34479,7 +34447,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>139</v>
@@ -34491,7 +34459,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -34514,7 +34482,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>139</v>
@@ -34526,7 +34494,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -34540,7 +34508,7 @@
         <v>137</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>139</v>
@@ -34561,7 +34529,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -34596,7 +34564,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -34631,12 +34599,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C23" s="16">
         <v>1</v>
@@ -34666,7 +34634,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -34689,7 +34657,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>139</v>
@@ -34701,7 +34669,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -34724,7 +34692,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>139</v>
@@ -34736,7 +34704,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -34759,7 +34727,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>139</v>
@@ -34771,7 +34739,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -34782,7 +34750,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>138</v>
@@ -34806,7 +34774,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -34817,7 +34785,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>138</v>
@@ -34841,7 +34809,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -34852,7 +34820,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>138</v>
@@ -34876,7 +34844,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -34898,8 +34866,8 @@
       <c r="G30" s="24">
         <v>0</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>143</v>
+      <c r="H30" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>139</v>
@@ -34911,7 +34879,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -34933,8 +34901,8 @@
       <c r="G31" s="24">
         <v>0</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>143</v>
+      <c r="H31" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>139</v>
@@ -34946,7 +34914,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -34968,8 +34936,8 @@
       <c r="G32" s="24">
         <v>0</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>143</v>
+      <c r="H32" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>139</v>
@@ -34981,7 +34949,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -35016,7 +34984,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -35051,7 +35019,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -35086,7 +35054,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -35121,7 +35089,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -35129,7 +35097,7 @@
         <v>136</v>
       </c>
       <c r="C37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>137</v>
@@ -35141,7 +35109,7 @@
         <v>139</v>
       </c>
       <c r="G37" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>143</v>
@@ -35156,7 +35124,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -35191,7 +35159,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -35226,7 +35194,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -35261,7 +35229,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -35296,7 +35264,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -35331,7 +35299,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -35366,7 +35334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -35401,7 +35369,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -35436,7 +35404,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -35471,7 +35439,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -35506,7 +35474,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -35541,7 +35509,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -35576,7 +35544,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -35611,7 +35579,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -35646,7 +35614,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -35681,7 +35649,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -35716,7 +35684,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -35751,7 +35719,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -35786,7 +35754,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -35821,7 +35789,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -35856,7 +35824,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -35891,7 +35859,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -35926,7 +35894,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -35961,7 +35929,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -35996,7 +35964,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -36031,7 +35999,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -36066,7 +36034,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -36101,7 +36069,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -36136,7 +36104,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -36171,7 +36139,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -36206,7 +36174,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -36241,7 +36209,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -36276,7 +36244,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -36311,7 +36279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -36346,7 +36314,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -36381,7 +36349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -36416,7 +36384,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -36451,7 +36419,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -36486,7 +36454,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -36521,7 +36489,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -36556,7 +36524,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -36591,7 +36559,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -36626,7 +36594,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -36661,7 +36629,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -36696,7 +36664,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -36731,7 +36699,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -36766,7 +36734,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -36801,7 +36769,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -36836,7 +36804,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -36871,7 +36839,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -36906,7 +36874,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -36941,7 +36909,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -36976,7 +36944,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -37011,7 +36979,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -37046,7 +37014,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -37081,7 +37049,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -37116,7 +37084,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -37151,7 +37119,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -37186,7 +37154,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -37221,7 +37189,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -37256,7 +37224,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -37291,7 +37259,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -37326,7 +37294,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -37361,7 +37329,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -37396,7 +37364,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -37431,7 +37399,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -37454,7 +37422,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -37481,7 +37449,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -37508,7 +37476,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -37535,7 +37503,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -37570,7 +37538,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -37605,7 +37573,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -37640,7 +37608,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -37667,7 +37635,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -37702,7 +37670,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>256</v>
       </c>
@@ -37723,7 +37691,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -37746,7 +37714,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -37769,7 +37737,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -37792,7 +37760,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -37817,7 +37785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -37842,7 +37810,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -37867,7 +37835,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -37896,7 +37864,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -37925,7 +37893,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -37954,7 +37922,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -37979,7 +37947,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -38008,7 +37976,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -38031,7 +37999,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -38058,27 +38026,27 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView topLeftCell="A15" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -38107,7 +38075,7 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -38136,7 +38104,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
@@ -38165,7 +38133,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>142</v>
       </c>
@@ -38194,7 +38162,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -38223,7 +38191,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -38252,7 +38220,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -38281,7 +38249,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -38310,7 +38278,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -38339,7 +38307,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -38368,7 +38336,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -38397,7 +38365,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -38426,7 +38394,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -38455,7 +38423,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -38484,7 +38452,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -38513,7 +38481,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -38542,7 +38510,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -38571,7 +38539,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -38600,7 +38568,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -38629,7 +38597,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -38658,7 +38626,7 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -38687,7 +38655,7 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -38716,7 +38684,7 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -38745,7 +38713,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -38774,7 +38742,7 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -38803,7 +38771,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -38832,7 +38800,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -38861,7 +38829,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -38890,7 +38858,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -38919,7 +38887,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -38948,7 +38916,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -38977,7 +38945,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -39006,7 +38974,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -39035,7 +39003,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -39064,7 +39032,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -39093,7 +39061,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -39120,7 +39088,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -39147,7 +39115,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -39174,7 +39142,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -39201,7 +39169,7 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -39228,7 +39196,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -39257,7 +39225,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -39286,7 +39254,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -39315,7 +39283,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -39344,7 +39312,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -39373,7 +39341,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -39402,7 +39370,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -39431,7 +39399,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -39460,7 +39428,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -39489,7 +39457,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -39518,7 +39486,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -39547,7 +39515,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -39576,7 +39544,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
     </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -39605,7 +39573,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -39634,7 +39602,7 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -39663,7 +39631,7 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -39692,7 +39660,7 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -39721,7 +39689,7 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
     </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -39750,7 +39718,7 @@
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -39779,7 +39747,7 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
     </row>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -39808,7 +39776,7 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -39837,7 +39805,7 @@
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -39866,7 +39834,7 @@
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -39895,7 +39863,7 @@
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
     </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -39922,7 +39890,7 @@
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
     </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -39949,7 +39917,7 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
     </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -39976,7 +39944,7 @@
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
     </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -40003,7 +39971,7 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
     </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -40030,7 +39998,7 @@
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
     </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -40057,7 +40025,7 @@
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
     </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -40084,7 +40052,7 @@
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
     </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -40111,7 +40079,7 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
     </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -40138,7 +40106,7 @@
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
     </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -40165,7 +40133,7 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -40192,7 +40160,7 @@
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
     </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -40219,7 +40187,7 @@
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
     </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -40246,7 +40214,7 @@
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
     </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -40273,7 +40241,7 @@
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -40300,7 +40268,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -40327,7 +40295,7 @@
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
     </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -40354,7 +40322,7 @@
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
     </row>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -40381,7 +40349,7 @@
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
     </row>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -40408,7 +40376,7 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -40435,7 +40403,7 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -40462,7 +40430,7 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -40489,7 +40457,7 @@
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -40516,7 +40484,7 @@
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
     </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -40543,7 +40511,7 @@
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
     </row>
-    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -40570,7 +40538,7 @@
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
     </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -40597,7 +40565,7 @@
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
     </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -40624,7 +40592,7 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
     </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -40651,7 +40619,7 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
     </row>
-    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -40678,7 +40646,7 @@
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
     </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -40705,7 +40673,7 @@
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
     </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -40732,7 +40700,7 @@
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
     </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -40759,7 +40727,7 @@
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -40786,7 +40754,7 @@
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
     </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -40813,7 +40781,7 @@
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -40840,7 +40808,7 @@
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -40867,7 +40835,7 @@
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -40894,7 +40862,7 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -40921,7 +40889,7 @@
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -40948,7 +40916,7 @@
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
     </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -40973,7 +40941,7 @@
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
     </row>
-    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -40998,7 +40966,7 @@
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
     </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -41023,7 +40991,7 @@
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
     </row>
-    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -41048,7 +41016,7 @@
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
     </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -41073,7 +41041,7 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
     </row>
-    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -41098,7 +41066,7 @@
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
     </row>
-    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -41123,7 +41091,7 @@
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
     </row>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -41148,7 +41116,7 @@
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
     </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -41173,7 +41141,7 @@
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
     </row>
-    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>256</v>
       </c>
@@ -41198,7 +41166,7 @@
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
     </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -41223,7 +41191,7 @@
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
     </row>
-    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -41248,7 +41216,7 @@
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
     </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -41273,7 +41241,7 @@
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
     </row>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -41298,7 +41266,7 @@
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
     </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -41323,7 +41291,7 @@
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
     </row>
-    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -41348,7 +41316,7 @@
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
     </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -41375,7 +41343,7 @@
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
     </row>
-    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -41402,7 +41370,7 @@
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
     </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -41429,7 +41397,7 @@
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
     </row>
-    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -41453,7 +41421,7 @@
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
     </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -41480,7 +41448,7 @@
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
     </row>
-    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -41505,7 +41473,7 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
     </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -41540,20 +41508,20 @@
   </sheetPr>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A14" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41573,7 +41541,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -41593,7 +41561,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
@@ -41613,7 +41581,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>254</v>
       </c>
@@ -41633,7 +41601,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -41653,7 +41621,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -41673,7 +41641,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -41693,7 +41661,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -41713,7 +41681,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -41733,7 +41701,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -41753,7 +41721,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -41773,7 +41741,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -41793,7 +41761,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -41813,7 +41781,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -41833,7 +41801,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -41853,7 +41821,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -41873,7 +41841,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -41893,7 +41861,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -41913,7 +41881,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -41933,7 +41901,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -41953,7 +41921,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -41973,7 +41941,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -41993,7 +41961,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -42013,7 +41981,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -42033,7 +42001,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -42053,7 +42021,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -42073,7 +42041,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -42093,7 +42061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -42113,7 +42081,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -42133,7 +42101,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -42153,7 +42121,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -42173,7 +42141,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -42193,7 +42161,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -42213,7 +42181,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -42233,7 +42201,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -42253,7 +42221,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -42273,7 +42241,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -42293,7 +42261,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -42313,7 +42281,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -42333,7 +42301,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -42353,7 +42321,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -42373,7 +42341,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -42393,7 +42361,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -42413,7 +42381,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -42433,7 +42401,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -42453,7 +42421,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -42473,7 +42441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -42493,7 +42461,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -42513,7 +42481,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -42533,7 +42501,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -42553,7 +42521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -42573,7 +42541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -42593,7 +42561,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -42613,7 +42581,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -42633,7 +42601,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -42653,7 +42621,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -42673,7 +42641,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -42693,7 +42661,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -42713,7 +42681,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -42733,7 +42701,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -42753,7 +42721,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -42773,7 +42741,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
@@ -42793,7 +42761,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -42813,7 +42781,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
@@ -42833,7 +42801,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -42853,7 +42821,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
@@ -42873,7 +42841,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
@@ -42893,7 +42861,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -42913,7 +42881,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -42933,7 +42901,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -42953,7 +42921,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -42973,7 +42941,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -42993,7 +42961,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -43013,7 +42981,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -43033,7 +43001,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -43053,7 +43021,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -43073,7 +43041,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
@@ -43093,7 +43061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -43113,7 +43081,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -43133,7 +43101,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -43153,7 +43121,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -43173,7 +43141,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -43193,7 +43161,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -43213,7 +43181,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -43233,7 +43201,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -43253,7 +43221,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -43273,7 +43241,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -43293,7 +43261,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -43313,7 +43281,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -43333,7 +43301,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -43353,7 +43321,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -43373,7 +43341,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -43393,7 +43361,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
@@ -43413,7 +43381,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -43433,7 +43401,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -43453,7 +43421,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
@@ -43473,7 +43441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>98</v>
       </c>
@@ -43493,7 +43461,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -43513,7 +43481,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>100</v>
       </c>
@@ -43533,7 +43501,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>101</v>
       </c>
@@ -43553,7 +43521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>102</v>
       </c>
@@ -43573,7 +43541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>103</v>
       </c>
@@ -43593,7 +43561,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>104</v>
       </c>
@@ -43607,7 +43575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>105</v>
       </c>
@@ -43624,7 +43592,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -43638,7 +43606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
@@ -43652,7 +43620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -43669,7 +43637,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>109</v>
       </c>
@@ -43683,7 +43651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>110</v>
       </c>
@@ -43697,7 +43665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>111</v>
       </c>
@@ -43711,7 +43679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>112</v>
       </c>
@@ -43725,7 +43693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>256</v>
       </c>
@@ -43739,7 +43707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>113</v>
       </c>
@@ -43753,7 +43721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -43767,7 +43735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>115</v>
       </c>
@@ -43781,7 +43749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>116</v>
       </c>
@@ -43795,7 +43763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>117</v>
       </c>
@@ -43809,7 +43777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>118</v>
       </c>
@@ -43823,7 +43791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>119</v>
       </c>
@@ -43837,7 +43805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>120</v>
       </c>
@@ -43851,7 +43819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>121</v>
       </c>
@@ -43865,7 +43833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>122</v>
       </c>
@@ -43879,7 +43847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>123</v>
       </c>
@@ -43893,7 +43861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>124</v>
       </c>
@@ -43907,7 +43875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>169</v>
       </c>
@@ -43935,46 +43903,46 @@
   <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M8"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" customWidth="1"/>
-    <col min="11" max="11" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="18.1328125" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="15.86328125" customWidth="1"/>
-    <col min="16" max="16" width="16.265625" customWidth="1"/>
-    <col min="17" max="17" width="16.1328125" customWidth="1"/>
-    <col min="18" max="18" width="17.1328125" customWidth="1"/>
-    <col min="19" max="20" width="15.73046875" customWidth="1"/>
-    <col min="21" max="21" width="14.3984375" customWidth="1"/>
-    <col min="22" max="22" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="13.86328125" customWidth="1"/>
-    <col min="25" max="25" width="16.73046875" customWidth="1"/>
-    <col min="26" max="26" width="13.1328125" customWidth="1"/>
-    <col min="27" max="28" width="15.1328125" customWidth="1"/>
-    <col min="29" max="29" width="11.3984375" customWidth="1"/>
-    <col min="30" max="30" width="10.86328125" customWidth="1"/>
-    <col min="31" max="31" width="11.59765625" customWidth="1"/>
-    <col min="32" max="32" width="19.86328125" customWidth="1"/>
-    <col min="33" max="34" width="11.265625" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="28" width="15.140625" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" customWidth="1"/>
+    <col min="33" max="34" width="11.28515625" customWidth="1"/>
     <col min="35" max="35" width="17" customWidth="1"/>
-    <col min="36" max="36" width="11.59765625" customWidth="1"/>
-    <col min="37" max="37" width="11.1328125" customWidth="1"/>
-    <col min="38" max="38" width="17.1328125" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" customWidth="1"/>
+    <col min="37" max="37" width="11.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>255</v>
       </c>
@@ -44099,7 +44067,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -44224,7 +44192,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -44349,7 +44317,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -44474,7 +44442,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>285</v>
       </c>
@@ -44599,7 +44567,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -44724,7 +44692,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -44849,7 +44817,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -44980,132 +44948,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B821B15-4930-4EBF-8670-B4FCCCE9E0D7}">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" s="38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C227D46-1B76-4E7C-B31B-463C5CC4524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61BC1B-E43C-4C91-A411-7CCDC5F8F701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="334">
   <si>
     <t>Instruction</t>
   </si>
@@ -1045,6 +1045,15 @@
   </si>
   <si>
     <t>RegOp_EXTUW</t>
+  </si>
+  <si>
+    <t>RegOp_SWAPB</t>
+  </si>
+  <si>
+    <t>RegOp_SWAPW</t>
+  </si>
+  <si>
+    <t>RegOp_XTRCT</t>
   </si>
 </sst>
 </file>
@@ -8799,7 +8808,7 @@
       </c>
       <c r="AE38" s="16" t="str">
         <f>REG!J38</f>
-        <v>RegOp_None</v>
+        <v>RegOp_SWAPB</v>
       </c>
       <c r="AF38" s="16" t="str">
         <f>REG!K38</f>
@@ -8827,7 +8836,7 @@
       </c>
       <c r="AL38" s="16" t="str">
         <f>IO!G38</f>
-        <v>DataAccessMode_Byte</v>
+        <v>DataAccessMode_Word</v>
       </c>
       <c r="AM38" t="str">
         <f>CU!B38</f>
@@ -8973,7 +8982,7 @@
       </c>
       <c r="AE39" s="16" t="str">
         <f>REG!J39</f>
-        <v>RegOp_None</v>
+        <v>RegOp_SWAPW</v>
       </c>
       <c r="AF39" s="16" t="str">
         <f>REG!K39</f>
@@ -9147,7 +9156,7 @@
       </c>
       <c r="AE40" s="16" t="str">
         <f>REG!J40</f>
-        <v>RegOp_None</v>
+        <v>RegOp_XTRCT</v>
       </c>
       <c r="AF40" s="16" t="str">
         <f>REG!K40</f>
@@ -9175,7 +9184,7 @@
       </c>
       <c r="AL40" s="16" t="str">
         <f>IO!G40</f>
-        <v>DataAccessMode_Long</v>
+        <v>DataAccessMode_Word</v>
       </c>
       <c r="AM40" t="str">
         <f>CU!B40</f>
@@ -11649,7 +11658,7 @@
       </c>
       <c r="D55" s="17" t="str">
         <f>ALU!D55</f>
-        <v>FCmd_A</v>
+        <v>FCmd_B</v>
       </c>
       <c r="E55" s="17" t="str">
         <f>ALU!E55</f>
@@ -11823,7 +11832,7 @@
       </c>
       <c r="D56" s="17" t="str">
         <f>ALU!D56</f>
-        <v>FCmd_A</v>
+        <v>FCmd_B</v>
       </c>
       <c r="E56" s="17" t="str">
         <f>ALU!E56</f>
@@ -11997,7 +12006,7 @@
       </c>
       <c r="D57" s="17" t="str">
         <f>ALU!D57</f>
-        <v>FCmd_A</v>
+        <v>FCmd_B</v>
       </c>
       <c r="E57" s="17" t="str">
         <f>ALU!E57</f>
@@ -12171,7 +12180,7 @@
       </c>
       <c r="D58" s="17" t="str">
         <f>ALU!D58</f>
-        <v>FCmd_A</v>
+        <v>FCmd_B</v>
       </c>
       <c r="E58" s="17" t="str">
         <f>ALU!E58</f>
@@ -24004,8 +24013,8 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25599,7 +25608,7 @@
         <v>193</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>153</v>
@@ -25628,7 +25637,7 @@
         <v>193</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>153</v>
@@ -25657,7 +25666,7 @@
         <v>193</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>153</v>
@@ -25686,7 +25695,7 @@
         <v>193</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>153</v>
@@ -33826,8 +33835,8 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A30" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35168,7 +35177,7 @@
         <v>139</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="K38" t="s">
         <v>288</v>
@@ -35203,7 +35212,7 @@
         <v>139</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
         <v>288</v>
@@ -35238,7 +35247,7 @@
         <v>139</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>140</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s">
         <v>288</v>
@@ -38042,7 +38051,7 @@
   <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39148,7 +39157,7 @@
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -39202,7 +39211,7 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61BC1B-E43C-4C91-A411-7CCDC5F8F701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F23B7-12C8-4BC9-9154-C65DC970122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="339">
   <si>
     <t>Instruction</t>
   </si>
@@ -1055,6 +1055,21 @@
   <si>
     <t>RegOp_XTRCT</t>
   </si>
+  <si>
+    <t>WriteBack</t>
+  </si>
+  <si>
+    <t>TempRegSel_Result</t>
+  </si>
+  <si>
+    <t>ALUOpASel_TempReg</t>
+  </si>
+  <si>
+    <t>ALUOpBSel_TASMask</t>
+  </si>
+  <si>
+    <t>Tbit_TAS</t>
+  </si>
 </sst>
 </file>
 
@@ -1215,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1319,6 +1334,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1902,8 +1918,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}" name="Table8" displayName="Table8" ref="A1:AO8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AO8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}" name="Table8" displayName="Table8" ref="A1:AO9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AO9" xr:uid="{BB920BEE-E24A-4706-B6A0-3848D7D63FBF}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{F3731410-185C-4B91-8535-E7C6B1BA41A0}" name="State" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{65E65804-6476-498A-9301-353C7895D8C6}" name="ALUOpASel"/>
@@ -13620,23 +13636,23 @@
       </c>
       <c r="P66" s="17" t="str">
         <f>DAU!B66</f>
-        <v>unused</v>
+        <v>DAU_AddrGBR</v>
       </c>
       <c r="Q66" s="17" t="str">
         <f>DAU!C66</f>
-        <v>unused</v>
-      </c>
-      <c r="R66" s="16">
+        <v>DAU_OffsetR0</v>
+      </c>
+      <c r="R66" s="16" t="str">
         <f>DAU!D66</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="S66" s="16" t="str">
         <f>DAU!E66</f>
         <v>unused</v>
       </c>
-      <c r="T66" s="16">
+      <c r="T66" s="16" t="str">
         <f>DAU!F66</f>
-        <v>0</v>
+        <v>MemUnit_POST</v>
       </c>
       <c r="U66" s="16" t="str">
         <f>DAU!G66</f>
@@ -13660,7 +13676,7 @@
       </c>
       <c r="Z66" s="16" t="str">
         <f>REG!E66</f>
-        <v>RegBSelCmd_Rm</v>
+        <v>RegBSelCmd_R0</v>
       </c>
       <c r="AA66" s="16" t="str">
         <f>REG!F66</f>
@@ -13696,7 +13712,7 @@
       </c>
       <c r="AI66" s="16" t="str">
         <f>IO!D66</f>
-        <v>ABOutSel_Prog</v>
+        <v>ABOutSel_Data</v>
       </c>
       <c r="AJ66" s="16" t="str">
         <f>IO!E66</f>
@@ -13708,23 +13724,23 @@
       </c>
       <c r="AL66" s="16" t="str">
         <f>IO!G66</f>
-        <v>DataAccessMode_Word</v>
+        <v>DataAccessMode_Byte</v>
       </c>
       <c r="AM66" t="str">
         <f>CU!B66</f>
-        <v>Normal</v>
+        <v>WriteBack</v>
       </c>
       <c r="AN66" s="31">
         <f>CU!C66</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="16">
         <f>CU!D66</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP66" s="16" t="str">
         <f>CU!E66</f>
-        <v>unused</v>
+        <v>TempRegSel_Result</v>
       </c>
       <c r="AQ66" s="16" t="str">
         <f>CU!F66</f>
@@ -14316,23 +14332,23 @@
       </c>
       <c r="P70" s="17" t="str">
         <f>DAU!B70</f>
-        <v>unused</v>
+        <v>DAU_AddrGBR</v>
       </c>
       <c r="Q70" s="17" t="str">
         <f>DAU!C70</f>
-        <v>unused</v>
-      </c>
-      <c r="R70" s="16">
+        <v>DAU_OffsetR0</v>
+      </c>
+      <c r="R70" s="16" t="str">
         <f>DAU!D70</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="S70" s="16" t="str">
         <f>DAU!E70</f>
         <v>unused</v>
       </c>
-      <c r="T70" s="16">
+      <c r="T70" s="16" t="str">
         <f>DAU!F70</f>
-        <v>0</v>
+        <v>MemUnit_POST</v>
       </c>
       <c r="U70" s="16" t="str">
         <f>DAU!G70</f>
@@ -14356,7 +14372,7 @@
       </c>
       <c r="Z70" s="16" t="str">
         <f>REG!E70</f>
-        <v>RegBSelCmd_Rm</v>
+        <v>RegBSelCmd_R0</v>
       </c>
       <c r="AA70" s="16" t="str">
         <f>REG!F70</f>
@@ -14392,7 +14408,7 @@
       </c>
       <c r="AI70" s="16" t="str">
         <f>IO!D70</f>
-        <v>ABOutSel_Prog</v>
+        <v>ABOutSel_Data</v>
       </c>
       <c r="AJ70" s="16" t="str">
         <f>IO!E70</f>
@@ -14404,23 +14420,23 @@
       </c>
       <c r="AL70" s="16" t="str">
         <f>IO!G70</f>
-        <v>DataAccessMode_Word</v>
+        <v>DataAccessMode_Byte</v>
       </c>
       <c r="AM70" t="str">
         <f>CU!B70</f>
-        <v>Normal</v>
+        <v>WriteBack</v>
       </c>
       <c r="AN70" s="31">
         <f>CU!C70</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO70" s="16">
         <f>CU!D70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP70" s="16" t="str">
         <f>CU!E70</f>
-        <v>unused</v>
+        <v>TempRegSel_Result</v>
       </c>
       <c r="AQ70" s="16" t="str">
         <f>CU!F70</f>
@@ -14438,11 +14454,11 @@
       </c>
       <c r="C71" s="17" t="str">
         <f>ALU!C71</f>
-        <v>ALUOpBSel_RegB</v>
+        <v>ALUOpBSel_TASMask</v>
       </c>
       <c r="D71" s="17" t="str">
         <f>ALU!D71</f>
-        <v>FCmd_ONE</v>
+        <v>FCmd_OR</v>
       </c>
       <c r="E71" s="17" t="str">
         <f>ALU!E71</f>
@@ -14458,7 +14474,7 @@
       </c>
       <c r="H71" s="17" t="str">
         <f>ALU!H71</f>
-        <v>Tbit_Zero</v>
+        <v>Tbit_TAS</v>
       </c>
       <c r="I71" s="16">
         <f>ALU!I71</f>
@@ -14490,23 +14506,23 @@
       </c>
       <c r="P71" s="17" t="str">
         <f>DAU!B71</f>
-        <v>unused</v>
+        <v>DAU_AddrRn</v>
       </c>
       <c r="Q71" s="17" t="str">
         <f>DAU!C71</f>
-        <v>unused</v>
-      </c>
-      <c r="R71" s="16">
+        <v>DAU_OffsetZero</v>
+      </c>
+      <c r="R71" s="16" t="str">
         <f>DAU!D71</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="S71" s="16" t="str">
         <f>DAU!E71</f>
         <v>unused</v>
       </c>
-      <c r="T71" s="16">
+      <c r="T71" s="16" t="str">
         <f>DAU!F71</f>
-        <v>0</v>
+        <v>MemUnit_POST</v>
       </c>
       <c r="U71" s="16" t="str">
         <f>DAU!G71</f>
@@ -14526,11 +14542,11 @@
       </c>
       <c r="Y71" s="16" t="str">
         <f>REG!D71</f>
-        <v>RegASelCmd_Rn</v>
+        <v>RegASelCmd_R0</v>
       </c>
       <c r="Z71" s="16" t="str">
         <f>REG!E71</f>
-        <v>RegBSelCmd_Rm</v>
+        <v>RegBSelCmd_R0</v>
       </c>
       <c r="AA71" s="16" t="str">
         <f>REG!F71</f>
@@ -14566,7 +14582,7 @@
       </c>
       <c r="AI71" s="16" t="str">
         <f>IO!D71</f>
-        <v>ABOutSel_Prog</v>
+        <v>ABOutSel_Data</v>
       </c>
       <c r="AJ71" s="16" t="str">
         <f>IO!E71</f>
@@ -14578,23 +14594,23 @@
       </c>
       <c r="AL71" s="16" t="str">
         <f>IO!G71</f>
-        <v>DataAccessMode_Word</v>
+        <v>DataAccessMode_Byte</v>
       </c>
       <c r="AM71" t="str">
         <f>CU!B71</f>
-        <v>Normal</v>
+        <v>WriteBack</v>
       </c>
       <c r="AN71" s="31">
         <f>CU!C71</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO71" s="16">
         <f>CU!D71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP71" s="16" t="str">
         <f>CU!E71</f>
-        <v>unused</v>
+        <v>TempRegSel_Result</v>
       </c>
       <c r="AQ71" s="16" t="str">
         <f>CU!F71</f>
@@ -15012,23 +15028,23 @@
       </c>
       <c r="P74" s="17" t="str">
         <f>DAU!B74</f>
-        <v>unused</v>
+        <v>DAU_AddrGBR</v>
       </c>
       <c r="Q74" s="17" t="str">
         <f>DAU!C74</f>
-        <v>unused</v>
-      </c>
-      <c r="R74" s="16">
+        <v>DAU_OffsetR0</v>
+      </c>
+      <c r="R74" s="16" t="str">
         <f>DAU!D74</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="S74" s="16" t="str">
         <f>DAU!E74</f>
         <v>unused</v>
       </c>
-      <c r="T74" s="16">
+      <c r="T74" s="16" t="str">
         <f>DAU!F74</f>
-        <v>0</v>
+        <v>MemUnit_POST</v>
       </c>
       <c r="U74" s="16" t="str">
         <f>DAU!G74</f>
@@ -15052,7 +15068,7 @@
       </c>
       <c r="Z74" s="16" t="str">
         <f>REG!E74</f>
-        <v>RegBSelCmd_Rm</v>
+        <v>RegBSelCmd_R0</v>
       </c>
       <c r="AA74" s="16" t="str">
         <f>REG!F74</f>
@@ -15088,7 +15104,7 @@
       </c>
       <c r="AI74" s="16" t="str">
         <f>IO!D74</f>
-        <v>ABOutSel_Prog</v>
+        <v>ABOutSel_Data</v>
       </c>
       <c r="AJ74" s="16" t="str">
         <f>IO!E74</f>
@@ -15100,23 +15116,23 @@
       </c>
       <c r="AL74" s="16" t="str">
         <f>IO!G74</f>
-        <v>DataAccessMode_Word</v>
+        <v>DataAccessMode_Byte</v>
       </c>
       <c r="AM74" t="str">
         <f>CU!B74</f>
-        <v>Normal</v>
+        <v>WaitForFetch</v>
       </c>
       <c r="AN74" s="31">
         <f>CU!C74</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="16">
         <f>CU!D74</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP74" s="16" t="str">
         <f>CU!E74</f>
-        <v>unused</v>
+        <v>TempRegSel_Result</v>
       </c>
       <c r="AQ74" s="16" t="str">
         <f>CU!F74</f>
@@ -15478,7 +15494,7 @@
       </c>
       <c r="B77" s="17" t="str">
         <f>ALU!B77</f>
-        <v>ALUOpASel_RegA</v>
+        <v>ALUOpASel_DB</v>
       </c>
       <c r="C77" s="17" t="str">
         <f>ALU!C77</f>
@@ -15534,23 +15550,23 @@
       </c>
       <c r="P77" s="17" t="str">
         <f>DAU!B77</f>
-        <v>unused</v>
+        <v>DAU_AddrGBR</v>
       </c>
       <c r="Q77" s="17" t="str">
         <f>DAU!C77</f>
-        <v>unused</v>
-      </c>
-      <c r="R77" s="16">
+        <v>DAU_OffsetR0</v>
+      </c>
+      <c r="R77" s="16" t="str">
         <f>DAU!D77</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="S77" s="16" t="str">
         <f>DAU!E77</f>
         <v>unused</v>
       </c>
-      <c r="T77" s="16">
+      <c r="T77" s="16" t="str">
         <f>DAU!F77</f>
-        <v>0</v>
+        <v>MemUnit_POST</v>
       </c>
       <c r="U77" s="16" t="str">
         <f>DAU!G77</f>
@@ -15574,7 +15590,7 @@
       </c>
       <c r="Z77" s="16" t="str">
         <f>REG!E77</f>
-        <v>RegBSelCmd_Rm</v>
+        <v>RegBSelCmd_R0</v>
       </c>
       <c r="AA77" s="16" t="str">
         <f>REG!F77</f>
@@ -15610,7 +15626,7 @@
       </c>
       <c r="AI77" s="16" t="str">
         <f>IO!D77</f>
-        <v>ABOutSel_Prog</v>
+        <v>ABOutSel_Data</v>
       </c>
       <c r="AJ77" s="16" t="str">
         <f>IO!E77</f>
@@ -15622,23 +15638,23 @@
       </c>
       <c r="AL77" s="16" t="str">
         <f>IO!G77</f>
-        <v>DataAccessMode_Word</v>
+        <v>DataAccessMode_Byte</v>
       </c>
       <c r="AM77" t="str">
         <f>CU!B77</f>
-        <v>Normal</v>
+        <v>WriteBack</v>
       </c>
       <c r="AN77" s="31">
         <f>CU!C77</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO77" s="16">
         <f>CU!D77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP77" s="16" t="str">
         <f>CU!E77</f>
-        <v>unused</v>
+        <v>TempRegSel_Result</v>
       </c>
       <c r="AQ77" s="16" t="str">
         <f>CU!F77</f>
@@ -24013,8 +24029,8 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26068,11 +26084,11 @@
       <c r="B71" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>193</v>
+      <c r="C71" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>153</v>
@@ -26084,7 +26100,7 @@
         <v>191</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>202</v>
+        <v>338</v>
       </c>
       <c r="I71" s="20">
         <v>1</v>
@@ -26239,8 +26255,8 @@
       <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>192</v>
+      <c r="B77" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>215</v>
@@ -27671,7 +27687,7 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -30577,8 +30593,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32288,16 +32304,20 @@
         <v>67</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="17"/>
+        <v>166</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="E66" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="18"/>
+      <c r="F66" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="G66" s="24" t="s">
         <v>311</v>
       </c>
@@ -32388,16 +32408,20 @@
         <v>71</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" s="17"/>
+        <v>166</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="E70" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F70" s="18"/>
+      <c r="F70" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="G70" s="24" t="s">
         <v>311</v>
       </c>
@@ -32410,16 +32434,20 @@
         <v>72</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="17"/>
+        <v>159</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="E71" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="18"/>
+      <c r="F71" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="G71" s="24" t="s">
         <v>311</v>
       </c>
@@ -32484,16 +32512,20 @@
         <v>75</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="17"/>
+        <v>166</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="E74" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F74" s="18"/>
+      <c r="F74" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="G74" s="24" t="s">
         <v>311</v>
       </c>
@@ -32558,16 +32590,20 @@
         <v>78</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="17"/>
+        <v>166</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="E77" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="18"/>
+      <c r="F77" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="G77" s="24" t="s">
         <v>311</v>
       </c>
@@ -33835,8 +33871,8 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A52" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36142,7 +36178,7 @@
         <v>252</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>139</v>
@@ -36282,7 +36318,7 @@
         <v>252</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>139</v>
@@ -36314,10 +36350,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>139</v>
@@ -36422,7 +36458,7 @@
         <v>252</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>139</v>
@@ -36527,7 +36563,7 @@
         <v>252</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F77" s="18" t="s">
         <v>139</v>
@@ -38050,8 +38086,8 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A49" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39952,14 +39988,14 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>269</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="18"/>
@@ -40060,14 +40096,14 @@
         <v>1</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>269</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="18"/>
@@ -40087,14 +40123,14 @@
         <v>1</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>269</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="18"/>
@@ -40168,14 +40204,14 @@
         <v>1</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>269</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="18"/>
@@ -40249,14 +40285,14 @@
         <v>1</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>269</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="18"/>
@@ -41532,8 +41568,8 @@
   </sheetPr>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A61" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42850,16 +42886,16 @@
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="C66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="F66" t="s">
         <v>300</v>
@@ -42930,16 +42966,16 @@
         <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="C70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="F70" t="s">
         <v>300</v>
@@ -42950,16 +42986,16 @@
         <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="C71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="F71" t="s">
         <v>300</v>
@@ -43010,16 +43046,16 @@
         <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
         <v>300</v>
@@ -43070,16 +43106,16 @@
         <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="C77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
         <v>300</v>
@@ -43924,10 +43960,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF521BB4-2DEC-48BF-9F68-8BCAEB743C1F}">
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44966,6 +45002,131 @@
         <v>156</v>
       </c>
     </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="T9" t="s">
+        <v>313</v>
+      </c>
+      <c r="U9" t="s">
+        <v>271</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>271</v>
+      </c>
+      <c r="X9" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2629F1B9-3E82-432A-8ACB-8067A008F129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA5888-D4F1-4850-9CF5-2423FED9B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="350">
   <si>
     <t>Instruction</t>
   </si>
@@ -1110,12 +1110,15 @@
   <si>
     <t>ALUOpASel_TempReg1</t>
   </si>
+  <si>
+    <t>TempReg1Sel_PC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,6 +1162,13 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1247,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1336,11 +1346,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1615,7 +1638,7 @@
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0700-000021000000}" name="DBOutSel"/>
     <tableColumn id="34" xr3:uid="{00000000-0010-0000-0700-000022000000}" name="DataAccessMode"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0700-000023000000}" name="NextState"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0700-000024000000}" name="UpdateIR"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0700-000024000000}" name="UpdateIR" dataDxfId="0"/>
     <tableColumn id="37" xr3:uid="{00000000-0010-0000-0700-000025000000}" name="UpdateTempReg1"/>
     <tableColumn id="38" xr3:uid="{00000000-0010-0000-0700-000026000000}" name="TempReg1Sel"/>
     <tableColumn id="39" xr3:uid="{00000000-0010-0000-0700-000027000000}" name="PAU_IncDecBit"/>
@@ -1806,10 +1829,10 @@
   </sheetPr>
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG1" sqref="AG1"/>
-      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1"/>
+      <selection pane="bottomLeft" activeCell="AQ101" sqref="AQ101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2205,15 +2228,15 @@
       </c>
       <c r="J3" s="7" t="str">
         <f>PAU!B3</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K3" s="7" t="str">
         <f>PAU!C3</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L3" s="8">
         <f>PAU!D3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="8" t="str">
         <f>PAU!E3</f>
@@ -2383,15 +2406,15 @@
       </c>
       <c r="J4" s="7" t="str">
         <f>PAU!B4</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K4" s="7" t="str">
         <f>PAU!C4</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L4" s="8">
         <f>PAU!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="8" t="str">
         <f>PAU!E4</f>
@@ -2739,15 +2762,15 @@
       </c>
       <c r="J6" s="7" t="str">
         <f>PAU!B6</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K6" s="7" t="str">
         <f>PAU!C6</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L6" s="8">
         <f>PAU!D6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="8" t="str">
         <f>PAU!E6</f>
@@ -2917,15 +2940,15 @@
       </c>
       <c r="J7" s="7" t="str">
         <f>PAU!B7</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K7" s="7" t="str">
         <f>PAU!C7</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L7" s="8">
         <f>PAU!D7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8" t="str">
         <f>PAU!E7</f>
@@ -3095,15 +3118,15 @@
       </c>
       <c r="J8" s="7" t="str">
         <f>PAU!B8</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K8" s="7" t="str">
         <f>PAU!C8</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L8" s="8">
         <f>PAU!D8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="8" t="str">
         <f>PAU!E8</f>
@@ -3273,15 +3296,15 @@
       </c>
       <c r="J9" s="7" t="str">
         <f>PAU!B9</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>PAU!C9</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L9" s="8">
         <f>PAU!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="8" t="str">
         <f>PAU!E9</f>
@@ -3451,15 +3474,15 @@
       </c>
       <c r="J10" s="7" t="str">
         <f>PAU!B10</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K10" s="7" t="str">
         <f>PAU!C10</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L10" s="8">
         <f>PAU!D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="8" t="str">
         <f>PAU!E10</f>
@@ -3629,15 +3652,15 @@
       </c>
       <c r="J11" s="7" t="str">
         <f>PAU!B11</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K11" s="7" t="str">
         <f>PAU!C11</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L11" s="8">
         <f>PAU!D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="8" t="str">
         <f>PAU!E11</f>
@@ -3807,15 +3830,15 @@
       </c>
       <c r="J12" s="7" t="str">
         <f>PAU!B12</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K12" s="7" t="str">
         <f>PAU!C12</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L12" s="8">
         <f>PAU!D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="8" t="str">
         <f>PAU!E12</f>
@@ -3985,15 +4008,15 @@
       </c>
       <c r="J13" s="7" t="str">
         <f>PAU!B13</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K13" s="7" t="str">
         <f>PAU!C13</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L13" s="8">
         <f>PAU!D13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="8" t="str">
         <f>PAU!E13</f>
@@ -4163,15 +4186,15 @@
       </c>
       <c r="J14" s="7" t="str">
         <f>PAU!B14</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K14" s="7" t="str">
         <f>PAU!C14</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L14" s="8">
         <f>PAU!D14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="8" t="str">
         <f>PAU!E14</f>
@@ -4341,15 +4364,15 @@
       </c>
       <c r="J15" s="7" t="str">
         <f>PAU!B15</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K15" s="7" t="str">
         <f>PAU!C15</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L15" s="8">
         <f>PAU!D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8" t="str">
         <f>PAU!E15</f>
@@ -4519,15 +4542,15 @@
       </c>
       <c r="J16" s="7" t="str">
         <f>PAU!B16</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K16" s="7" t="str">
         <f>PAU!C16</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L16" s="8">
         <f>PAU!D16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="8" t="str">
         <f>PAU!E16</f>
@@ -4697,15 +4720,15 @@
       </c>
       <c r="J17" s="7" t="str">
         <f>PAU!B17</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K17" s="7" t="str">
         <f>PAU!C17</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L17" s="8">
         <f>PAU!D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="8" t="str">
         <f>PAU!E17</f>
@@ -4875,15 +4898,15 @@
       </c>
       <c r="J18" s="7" t="str">
         <f>PAU!B18</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K18" s="7" t="str">
         <f>PAU!C18</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L18" s="8">
         <f>PAU!D18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="8" t="str">
         <f>PAU!E18</f>
@@ -5053,15 +5076,15 @@
       </c>
       <c r="J19" s="7" t="str">
         <f>PAU!B19</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K19" s="7" t="str">
         <f>PAU!C19</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L19" s="8">
         <f>PAU!D19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8" t="str">
         <f>PAU!E19</f>
@@ -5231,15 +5254,15 @@
       </c>
       <c r="J20" s="7" t="str">
         <f>PAU!B20</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K20" s="7" t="str">
         <f>PAU!C20</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L20" s="8">
         <f>PAU!D20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="8" t="str">
         <f>PAU!E20</f>
@@ -5409,15 +5432,15 @@
       </c>
       <c r="J21" s="7" t="str">
         <f>PAU!B21</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K21" s="7" t="str">
         <f>PAU!C21</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L21" s="8">
         <f>PAU!D21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="8" t="str">
         <f>PAU!E21</f>
@@ -5587,15 +5610,15 @@
       </c>
       <c r="J22" s="7" t="str">
         <f>PAU!B22</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K22" s="7" t="str">
         <f>PAU!C22</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L22" s="8">
         <f>PAU!D22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="8" t="str">
         <f>PAU!E22</f>
@@ -5765,15 +5788,15 @@
       </c>
       <c r="J23" s="7" t="str">
         <f>PAU!B23</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K23" s="7" t="str">
         <f>PAU!C23</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L23" s="8">
         <f>PAU!D23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="8" t="str">
         <f>PAU!E23</f>
@@ -5943,15 +5966,15 @@
       </c>
       <c r="J24" s="7" t="str">
         <f>PAU!B24</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K24" s="7" t="str">
         <f>PAU!C24</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L24" s="8">
         <f>PAU!D24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="8" t="str">
         <f>PAU!E24</f>
@@ -6121,15 +6144,15 @@
       </c>
       <c r="J25" s="7" t="str">
         <f>PAU!B25</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K25" s="7" t="str">
         <f>PAU!C25</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L25" s="8">
         <f>PAU!D25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="8" t="str">
         <f>PAU!E25</f>
@@ -6299,15 +6322,15 @@
       </c>
       <c r="J26" s="7" t="str">
         <f>PAU!B26</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K26" s="7" t="str">
         <f>PAU!C26</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L26" s="8">
         <f>PAU!D26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="8" t="str">
         <f>PAU!E26</f>
@@ -6477,15 +6500,15 @@
       </c>
       <c r="J27" s="7" t="str">
         <f>PAU!B27</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K27" s="7" t="str">
         <f>PAU!C27</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L27" s="8">
         <f>PAU!D27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="8" t="str">
         <f>PAU!E27</f>
@@ -6655,15 +6678,15 @@
       </c>
       <c r="J28" s="7" t="str">
         <f>PAU!B28</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K28" s="7" t="str">
         <f>PAU!C28</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L28" s="8">
         <f>PAU!D28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="8" t="str">
         <f>PAU!E28</f>
@@ -6833,15 +6856,15 @@
       </c>
       <c r="J29" s="7" t="str">
         <f>PAU!B29</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K29" s="7" t="str">
         <f>PAU!C29</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L29" s="8">
         <f>PAU!D29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="8" t="str">
         <f>PAU!E29</f>
@@ -7011,15 +7034,15 @@
       </c>
       <c r="J30" s="7" t="str">
         <f>PAU!B30</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K30" s="7" t="str">
         <f>PAU!C30</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L30" s="8">
         <f>PAU!D30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="8" t="str">
         <f>PAU!E30</f>
@@ -7189,15 +7212,15 @@
       </c>
       <c r="J31" s="7" t="str">
         <f>PAU!B31</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K31" s="7" t="str">
         <f>PAU!C31</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L31" s="8">
         <f>PAU!D31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="8" t="str">
         <f>PAU!E31</f>
@@ -7367,15 +7390,15 @@
       </c>
       <c r="J32" s="7" t="str">
         <f>PAU!B32</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K32" s="7" t="str">
         <f>PAU!C32</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L32" s="8">
         <f>PAU!D32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="8" t="str">
         <f>PAU!E32</f>
@@ -7545,15 +7568,15 @@
       </c>
       <c r="J33" s="7" t="str">
         <f>PAU!B33</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K33" s="7" t="str">
         <f>PAU!C33</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L33" s="8">
         <f>PAU!D33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="8" t="str">
         <f>PAU!E33</f>
@@ -7723,15 +7746,15 @@
       </c>
       <c r="J34" s="7" t="str">
         <f>PAU!B34</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K34" s="7" t="str">
         <f>PAU!C34</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L34" s="8">
         <f>PAU!D34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="8" t="str">
         <f>PAU!E34</f>
@@ -7901,15 +7924,15 @@
       </c>
       <c r="J35" s="7" t="str">
         <f>PAU!B35</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K35" s="7" t="str">
         <f>PAU!C35</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L35" s="8">
         <f>PAU!D35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="8" t="str">
         <f>PAU!E35</f>
@@ -8195,11 +8218,11 @@
       </c>
       <c r="AM36" t="str">
         <f>CU!B36</f>
-        <v>Normal</v>
+        <v>WaitForFetch</v>
       </c>
       <c r="AN36" s="4">
         <f>CU!C36</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="8">
         <f>CU!D36</f>
@@ -13419,15 +13442,15 @@
       </c>
       <c r="J66" s="7" t="str">
         <f>PAU!B66</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K66" s="7" t="str">
         <f>PAU!C66</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L66" s="8">
         <f>PAU!D66</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="8" t="str">
         <f>PAU!E66</f>
@@ -14131,15 +14154,15 @@
       </c>
       <c r="J70" s="7" t="str">
         <f>PAU!B70</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K70" s="7" t="str">
         <f>PAU!C70</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L70" s="8">
         <f>PAU!D70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="8" t="str">
         <f>PAU!E70</f>
@@ -14309,15 +14332,15 @@
       </c>
       <c r="J71" s="7" t="str">
         <f>PAU!B71</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K71" s="7" t="str">
         <f>PAU!C71</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L71" s="8">
         <f>PAU!D71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="8" t="str">
         <f>PAU!E71</f>
@@ -14843,15 +14866,15 @@
       </c>
       <c r="J74" s="7" t="str">
         <f>PAU!B74</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K74" s="7" t="str">
         <f>PAU!C74</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L74" s="8">
         <f>PAU!D74</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="8" t="str">
         <f>PAU!E74</f>
@@ -15377,15 +15400,15 @@
       </c>
       <c r="J77" s="7" t="str">
         <f>PAU!B77</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K77" s="7" t="str">
         <f>PAU!C77</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L77" s="8">
         <f>PAU!D77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="8" t="str">
         <f>PAU!E77</f>
@@ -19835,7 +19858,7 @@
       </c>
       <c r="L102" s="8">
         <f>PAU!D102</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" s="8" t="str">
         <f>PAU!E102</f>
@@ -20717,15 +20740,15 @@
       </c>
       <c r="J107" s="7" t="str">
         <f>PAU!B107</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K107" s="7" t="str">
         <f>PAU!C107</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L107" s="8">
         <f>PAU!D107</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="8" t="str">
         <f>PAU!E107</f>
@@ -20895,15 +20918,15 @@
       </c>
       <c r="J108" s="7" t="str">
         <f>PAU!B108</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K108" s="7" t="str">
         <f>PAU!C108</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L108" s="8">
         <f>PAU!D108</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="8" t="str">
         <f>PAU!E108</f>
@@ -21073,15 +21096,15 @@
       </c>
       <c r="J109" s="7" t="str">
         <f>PAU!B109</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K109" s="7" t="str">
         <f>PAU!C109</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L109" s="8">
         <f>PAU!D109</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="8" t="str">
         <f>PAU!E109</f>
@@ -21429,15 +21452,15 @@
       </c>
       <c r="J111" s="7" t="str">
         <f>PAU!B111</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K111" s="7" t="str">
         <f>PAU!C111</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L111" s="8">
         <f>PAU!D111</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="8" t="str">
         <f>PAU!E111</f>
@@ -21963,15 +21986,15 @@
       </c>
       <c r="J114" s="7" t="str">
         <f>PAU!B114</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K114" s="7" t="str">
         <f>PAU!C114</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L114" s="8">
         <f>PAU!D114</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="8" t="str">
         <f>PAU!E114</f>
@@ -22853,15 +22876,15 @@
       </c>
       <c r="J119" s="7" t="str">
         <f>PAU!B119</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K119" s="7" t="str">
         <f>PAU!C119</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L119" s="8">
         <f>PAU!D119</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="8" t="str">
         <f>PAU!E119</f>
@@ -23031,15 +23054,15 @@
       </c>
       <c r="J120" s="7" t="str">
         <f>PAU!B120</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K120" s="7" t="str">
         <f>PAU!C120</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L120" s="8">
         <f>PAU!D120</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" s="8" t="str">
         <f>PAU!E120</f>
@@ -23209,15 +23232,15 @@
       </c>
       <c r="J121" s="7" t="str">
         <f>PAU!B121</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K121" s="7" t="str">
         <f>PAU!C121</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L121" s="8">
         <f>PAU!D121</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" s="8" t="str">
         <f>PAU!E121</f>
@@ -23573,7 +23596,7 @@
       </c>
       <c r="L123" s="8">
         <f>PAU!D123</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" s="8" t="str">
         <f>PAU!E123</f>
@@ -23743,15 +23766,15 @@
       </c>
       <c r="J124" s="7" t="str">
         <f>PAU!B124</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K124" s="7" t="str">
         <f>PAU!C124</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L124" s="8">
         <f>PAU!D124</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" s="8" t="str">
         <f>PAU!E124</f>
@@ -24078,7 +24101,7 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -27737,8 +27760,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A84" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27809,13 +27832,13 @@
         <v>216</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>214</v>
@@ -27835,13 +27858,13 @@
         <v>217</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>214</v>
@@ -27887,13 +27910,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>214</v>
@@ -27913,13 +27936,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>214</v>
@@ -27939,13 +27962,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>214</v>
@@ -27965,13 +27988,13 @@
         <v>61</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>214</v>
@@ -27991,13 +28014,13 @@
         <v>62</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>214</v>
@@ -28017,13 +28040,13 @@
         <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>214</v>
@@ -28043,13 +28066,13 @@
         <v>64</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>214</v>
@@ -28069,13 +28092,13 @@
         <v>65</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>214</v>
@@ -28095,13 +28118,13 @@
         <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>214</v>
@@ -28121,13 +28144,13 @@
         <v>67</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>214</v>
@@ -28147,13 +28170,13 @@
         <v>68</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>214</v>
@@ -28173,13 +28196,13 @@
         <v>69</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>214</v>
@@ -28199,13 +28222,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>214</v>
@@ -28225,13 +28248,13 @@
         <v>71</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>214</v>
@@ -28251,13 +28274,13 @@
         <v>72</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>214</v>
@@ -28277,13 +28300,13 @@
         <v>73</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>214</v>
@@ -28303,13 +28326,13 @@
         <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>214</v>
@@ -28329,13 +28352,13 @@
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>214</v>
@@ -28355,13 +28378,13 @@
         <v>76</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>214</v>
@@ -28381,13 +28404,13 @@
         <v>77</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>214</v>
@@ -28407,13 +28430,13 @@
         <v>78</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>214</v>
@@ -28433,13 +28456,13 @@
         <v>79</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>214</v>
@@ -28459,13 +28482,13 @@
         <v>80</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>214</v>
@@ -28485,13 +28508,13 @@
         <v>81</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>214</v>
@@ -28511,13 +28534,13 @@
         <v>82</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>214</v>
@@ -28537,13 +28560,13 @@
         <v>83</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>214</v>
@@ -28563,13 +28586,13 @@
         <v>84</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>214</v>
@@ -28589,13 +28612,13 @@
         <v>85</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>214</v>
@@ -28615,13 +28638,13 @@
         <v>86</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>214</v>
@@ -28641,13 +28664,13 @@
         <v>87</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>214</v>
@@ -28672,7 +28695,7 @@
       <c r="C36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="8">
         <v>1</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -29447,13 +29470,13 @@
         <v>139</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D66" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>214</v>
@@ -29551,13 +29574,13 @@
         <v>144</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>214</v>
@@ -29577,13 +29600,13 @@
         <v>145</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>214</v>
@@ -29655,13 +29678,13 @@
         <v>150</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>214</v>
@@ -29733,13 +29756,13 @@
         <v>154</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>214</v>
@@ -30389,7 +30412,7 @@
         <v>213</v>
       </c>
       <c r="D102" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>214</v>
@@ -30513,13 +30536,13 @@
         <v>192</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D107" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>214</v>
@@ -30539,13 +30562,13 @@
         <v>193</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D108" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>214</v>
@@ -30565,13 +30588,13 @@
         <v>194</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D109" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>214</v>
@@ -30617,13 +30640,13 @@
         <v>196</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D111" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>223</v>
@@ -30694,14 +30717,14 @@
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>51</v>
+      <c r="B114" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D114" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>214</v>
@@ -30825,13 +30848,13 @@
         <v>231</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D119" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D119" s="8">
+        <v>1</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>214</v>
@@ -30851,13 +30874,13 @@
         <v>232</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D120" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D120" s="8">
+        <v>1</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>214</v>
@@ -30877,13 +30900,13 @@
         <v>233</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D121" s="19">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="D121" s="8">
+        <v>1</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>214</v>
@@ -30935,7 +30958,7 @@
         <v>213</v>
       </c>
       <c r="D123" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>214</v>
@@ -30954,14 +30977,14 @@
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B124" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>51</v>
+      <c r="B124" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D124" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>214</v>
@@ -31018,7 +31041,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
@@ -42065,8 +42088,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView topLeftCell="A80" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42075,9 +42098,9 @@
     <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42890,10 +42913,10 @@
         <v>88</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -44842,8 +44865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="AH1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44876,8 +44899,8 @@
     <col min="30" max="30" width="11.5703125" customWidth="1"/>
     <col min="31" max="31" width="19.85546875" customWidth="1"/>
     <col min="32" max="33" width="11.28515625" customWidth="1"/>
-    <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" customWidth="1"/>
+    <col min="34" max="34" width="33" customWidth="1"/>
+    <col min="35" max="35" width="34.85546875" customWidth="1"/>
     <col min="36" max="36" width="11.140625" customWidth="1"/>
     <col min="37" max="37" width="18.7109375" customWidth="1"/>
     <col min="38" max="38" width="17.7109375" customWidth="1"/>
@@ -44992,7 +45015,7 @@
       <c r="AH1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="32" t="s">
         <v>38</v>
       </c>
       <c r="AJ1" s="4" t="s">
@@ -45052,10 +45075,10 @@
         <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>214</v>
@@ -45126,7 +45149,7 @@
       <c r="AI2" t="s">
         <v>310</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="34">
         <v>1</v>
       </c>
       <c r="AK2">
@@ -45257,7 +45280,7 @@
       <c r="AI3" t="s">
         <v>321</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="34">
         <v>0</v>
       </c>
       <c r="AK3">
@@ -45386,9 +45409,9 @@
         <v>327</v>
       </c>
       <c r="AI4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ4" s="34" t="s">
         <v>327</v>
       </c>
       <c r="AK4">
@@ -45517,16 +45540,16 @@
         <v>327</v>
       </c>
       <c r="AI5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ5" t="s">
         <v>327</v>
       </c>
+      <c r="AJ5" s="34" t="s">
+        <v>327</v>
+      </c>
       <c r="AK5">
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -45648,16 +45671,16 @@
         <v>327</v>
       </c>
       <c r="AI6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ6" t="s">
         <v>327</v>
       </c>
+      <c r="AJ6" s="34" t="s">
+        <v>327</v>
+      </c>
       <c r="AK6">
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -45781,7 +45804,7 @@
       <c r="AI7" t="s">
         <v>333</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="34" t="s">
         <v>327</v>
       </c>
       <c r="AK7">
@@ -45912,7 +45935,7 @@
       <c r="AI8" t="s">
         <v>310</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="34">
         <v>1</v>
       </c>
       <c r="AK8">
@@ -46043,7 +46066,7 @@
       <c r="AI9" t="s">
         <v>312</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="34">
         <v>0</v>
       </c>
       <c r="AK9">
@@ -46168,13 +46191,13 @@
       <c r="AG10" t="s">
         <v>327</v>
       </c>
-      <c r="AH10" s="8" t="s">
+      <c r="AH10" s="33" t="s">
         <v>299</v>
       </c>
       <c r="AI10" t="s">
         <v>310</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="34">
         <v>1</v>
       </c>
       <c r="AK10" t="s">
@@ -46305,7 +46328,7 @@
       <c r="AI11" t="s">
         <v>334</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="34" t="s">
         <v>327</v>
       </c>
       <c r="AK11" t="s">
@@ -46436,7 +46459,7 @@
       <c r="AI12" t="s">
         <v>335</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="34" t="s">
         <v>327</v>
       </c>
       <c r="AK12" t="s">
@@ -46567,7 +46590,7 @@
       <c r="AI13" t="s">
         <v>310</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="34">
         <v>1</v>
       </c>
       <c r="AK13">
@@ -46698,7 +46721,7 @@
       <c r="AI14" t="s">
         <v>338</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="34">
         <v>1</v>
       </c>
       <c r="AK14">
@@ -46829,7 +46852,7 @@
       <c r="AI15" t="s">
         <v>339</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15" s="34" t="s">
         <v>327</v>
       </c>
       <c r="AK15">

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F7C9E-2808-4610-B2D5-C66A418FE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646AEBD2-9CEC-4ED3-9DE6-EF616B242B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="347">
   <si>
     <t>Instruction</t>
   </si>
@@ -1048,16 +1048,7 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>WaitForFetch2_R_RTE</t>
-  </si>
-  <si>
     <t>TempRegSel_DataBus</t>
-  </si>
-  <si>
-    <t>SRSel_Tmp2</t>
-  </si>
-  <si>
-    <t>WaitForFetch3</t>
   </si>
   <si>
     <t>BootReadSP</t>
@@ -1093,29 +1084,44 @@
     <t>ALUOpASel_TempReg</t>
   </si>
   <si>
-    <t>WaitForFetch_R_TRAPA</t>
-  </si>
-  <si>
-    <t>WaitForFetch2_W</t>
-  </si>
-  <si>
     <t>DAU_AddrVBR</t>
   </si>
   <si>
     <t>DBOutSel_PC</t>
   </si>
   <si>
-    <t>BranchSlotRTE</t>
+    <r>
+      <t>ALUOp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASel</t>
+    </r>
   </si>
   <si>
-    <t>WaitForFetch_R_RTE</t>
+    <t>RTE_Slot</t>
+  </si>
+  <si>
+    <t>TRAPA_ReadVector</t>
+  </si>
+  <si>
+    <t>TRAPA_PushPC</t>
+  </si>
+  <si>
+    <t>RTE_PopSR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,6 +1165,20 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1247,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1336,11 +1356,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1576,7 +1615,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A1:AN9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A1:AN9" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:AN9" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="State"/>
@@ -1805,10 +1844,10 @@
   </sheetPr>
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="AF1" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG1" sqref="AG1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="AM114" sqref="AM114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2169,7 @@
       </c>
       <c r="AJ2" s="8" t="str">
         <f>IO!E2</f>
-        <v>unused</v>
+        <v>DBInMode_Signed</v>
       </c>
       <c r="AK2" s="8" t="str">
         <f>IO!F2</f>
@@ -2204,15 +2243,15 @@
       </c>
       <c r="J3" s="7" t="str">
         <f>PAU!B3</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K3" s="7" t="str">
         <f>PAU!C3</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L3" s="8">
         <f>PAU!D3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="8" t="str">
         <f>PAU!E3</f>
@@ -2382,15 +2421,15 @@
       </c>
       <c r="J4" s="7" t="str">
         <f>PAU!B4</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K4" s="7" t="str">
         <f>PAU!C4</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L4" s="8">
         <f>PAU!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="8" t="str">
         <f>PAU!E4</f>
@@ -2738,15 +2777,15 @@
       </c>
       <c r="J6" s="7" t="str">
         <f>PAU!B6</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K6" s="7" t="str">
         <f>PAU!C6</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L6" s="8">
         <f>PAU!D6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="8" t="str">
         <f>PAU!E6</f>
@@ -2916,15 +2955,15 @@
       </c>
       <c r="J7" s="7" t="str">
         <f>PAU!B7</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K7" s="7" t="str">
         <f>PAU!C7</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L7" s="8">
         <f>PAU!D7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8" t="str">
         <f>PAU!E7</f>
@@ -3094,15 +3133,15 @@
       </c>
       <c r="J8" s="7" t="str">
         <f>PAU!B8</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K8" s="7" t="str">
         <f>PAU!C8</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L8" s="8">
         <f>PAU!D8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="8" t="str">
         <f>PAU!E8</f>
@@ -3272,15 +3311,15 @@
       </c>
       <c r="J9" s="7" t="str">
         <f>PAU!B9</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>PAU!C9</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L9" s="8">
         <f>PAU!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="8" t="str">
         <f>PAU!E9</f>
@@ -3450,15 +3489,15 @@
       </c>
       <c r="J10" s="7" t="str">
         <f>PAU!B10</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K10" s="7" t="str">
         <f>PAU!C10</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L10" s="8">
         <f>PAU!D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="8" t="str">
         <f>PAU!E10</f>
@@ -3628,15 +3667,15 @@
       </c>
       <c r="J11" s="7" t="str">
         <f>PAU!B11</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K11" s="7" t="str">
         <f>PAU!C11</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L11" s="8">
         <f>PAU!D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="8" t="str">
         <f>PAU!E11</f>
@@ -3806,15 +3845,15 @@
       </c>
       <c r="J12" s="7" t="str">
         <f>PAU!B12</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K12" s="7" t="str">
         <f>PAU!C12</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L12" s="8">
         <f>PAU!D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="8" t="str">
         <f>PAU!E12</f>
@@ -3984,15 +4023,15 @@
       </c>
       <c r="J13" s="7" t="str">
         <f>PAU!B13</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K13" s="7" t="str">
         <f>PAU!C13</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L13" s="8">
         <f>PAU!D13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="8" t="str">
         <f>PAU!E13</f>
@@ -4162,15 +4201,15 @@
       </c>
       <c r="J14" s="7" t="str">
         <f>PAU!B14</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K14" s="7" t="str">
         <f>PAU!C14</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L14" s="8">
         <f>PAU!D14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="8" t="str">
         <f>PAU!E14</f>
@@ -4340,15 +4379,15 @@
       </c>
       <c r="J15" s="7" t="str">
         <f>PAU!B15</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K15" s="7" t="str">
         <f>PAU!C15</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L15" s="8">
         <f>PAU!D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8" t="str">
         <f>PAU!E15</f>
@@ -4518,15 +4557,15 @@
       </c>
       <c r="J16" s="7" t="str">
         <f>PAU!B16</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K16" s="7" t="str">
         <f>PAU!C16</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L16" s="8">
         <f>PAU!D16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="8" t="str">
         <f>PAU!E16</f>
@@ -4696,15 +4735,15 @@
       </c>
       <c r="J17" s="7" t="str">
         <f>PAU!B17</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K17" s="7" t="str">
         <f>PAU!C17</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L17" s="8">
         <f>PAU!D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="8" t="str">
         <f>PAU!E17</f>
@@ -4874,15 +4913,15 @@
       </c>
       <c r="J18" s="7" t="str">
         <f>PAU!B18</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K18" s="7" t="str">
         <f>PAU!C18</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L18" s="8">
         <f>PAU!D18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="8" t="str">
         <f>PAU!E18</f>
@@ -5052,15 +5091,15 @@
       </c>
       <c r="J19" s="7" t="str">
         <f>PAU!B19</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K19" s="7" t="str">
         <f>PAU!C19</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L19" s="8">
         <f>PAU!D19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8" t="str">
         <f>PAU!E19</f>
@@ -5230,15 +5269,15 @@
       </c>
       <c r="J20" s="7" t="str">
         <f>PAU!B20</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K20" s="7" t="str">
         <f>PAU!C20</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L20" s="8">
         <f>PAU!D20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="8" t="str">
         <f>PAU!E20</f>
@@ -5408,15 +5447,15 @@
       </c>
       <c r="J21" s="7" t="str">
         <f>PAU!B21</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K21" s="7" t="str">
         <f>PAU!C21</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L21" s="8">
         <f>PAU!D21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="8" t="str">
         <f>PAU!E21</f>
@@ -5586,15 +5625,15 @@
       </c>
       <c r="J22" s="7" t="str">
         <f>PAU!B22</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K22" s="7" t="str">
         <f>PAU!C22</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L22" s="8">
         <f>PAU!D22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="8" t="str">
         <f>PAU!E22</f>
@@ -5764,15 +5803,15 @@
       </c>
       <c r="J23" s="7" t="str">
         <f>PAU!B23</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K23" s="7" t="str">
         <f>PAU!C23</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L23" s="8">
         <f>PAU!D23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="8" t="str">
         <f>PAU!E23</f>
@@ -5942,15 +5981,15 @@
       </c>
       <c r="J24" s="7" t="str">
         <f>PAU!B24</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K24" s="7" t="str">
         <f>PAU!C24</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L24" s="8">
         <f>PAU!D24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="8" t="str">
         <f>PAU!E24</f>
@@ -6120,15 +6159,15 @@
       </c>
       <c r="J25" s="7" t="str">
         <f>PAU!B25</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K25" s="7" t="str">
         <f>PAU!C25</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L25" s="8">
         <f>PAU!D25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="8" t="str">
         <f>PAU!E25</f>
@@ -6298,15 +6337,15 @@
       </c>
       <c r="J26" s="7" t="str">
         <f>PAU!B26</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K26" s="7" t="str">
         <f>PAU!C26</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L26" s="8">
         <f>PAU!D26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="8" t="str">
         <f>PAU!E26</f>
@@ -6476,15 +6515,15 @@
       </c>
       <c r="J27" s="7" t="str">
         <f>PAU!B27</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K27" s="7" t="str">
         <f>PAU!C27</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L27" s="8">
         <f>PAU!D27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="8" t="str">
         <f>PAU!E27</f>
@@ -6654,15 +6693,15 @@
       </c>
       <c r="J28" s="7" t="str">
         <f>PAU!B28</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K28" s="7" t="str">
         <f>PAU!C28</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L28" s="8">
         <f>PAU!D28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="8" t="str">
         <f>PAU!E28</f>
@@ -6832,15 +6871,15 @@
       </c>
       <c r="J29" s="7" t="str">
         <f>PAU!B29</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K29" s="7" t="str">
         <f>PAU!C29</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L29" s="8">
         <f>PAU!D29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="8" t="str">
         <f>PAU!E29</f>
@@ -7010,15 +7049,15 @@
       </c>
       <c r="J30" s="7" t="str">
         <f>PAU!B30</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K30" s="7" t="str">
         <f>PAU!C30</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L30" s="8">
         <f>PAU!D30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="8" t="str">
         <f>PAU!E30</f>
@@ -7188,15 +7227,15 @@
       </c>
       <c r="J31" s="7" t="str">
         <f>PAU!B31</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K31" s="7" t="str">
         <f>PAU!C31</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L31" s="8">
         <f>PAU!D31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="8" t="str">
         <f>PAU!E31</f>
@@ -7366,15 +7405,15 @@
       </c>
       <c r="J32" s="7" t="str">
         <f>PAU!B32</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K32" s="7" t="str">
         <f>PAU!C32</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L32" s="8">
         <f>PAU!D32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="8" t="str">
         <f>PAU!E32</f>
@@ -7544,15 +7583,15 @@
       </c>
       <c r="J33" s="7" t="str">
         <f>PAU!B33</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K33" s="7" t="str">
         <f>PAU!C33</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L33" s="8">
         <f>PAU!D33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="8" t="str">
         <f>PAU!E33</f>
@@ -7722,15 +7761,15 @@
       </c>
       <c r="J34" s="7" t="str">
         <f>PAU!B34</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K34" s="7" t="str">
         <f>PAU!C34</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L34" s="8">
         <f>PAU!D34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="8" t="str">
         <f>PAU!E34</f>
@@ -7900,15 +7939,15 @@
       </c>
       <c r="J35" s="7" t="str">
         <f>PAU!B35</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K35" s="7" t="str">
         <f>PAU!C35</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L35" s="8">
         <f>PAU!D35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="8" t="str">
         <f>PAU!E35</f>
@@ -13418,15 +13457,15 @@
       </c>
       <c r="J66" s="7" t="str">
         <f>PAU!B66</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K66" s="7" t="str">
         <f>PAU!C66</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L66" s="8">
         <f>PAU!D66</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="8" t="str">
         <f>PAU!E66</f>
@@ -14130,15 +14169,15 @@
       </c>
       <c r="J70" s="7" t="str">
         <f>PAU!B70</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K70" s="7" t="str">
         <f>PAU!C70</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L70" s="8">
         <f>PAU!D70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="8" t="str">
         <f>PAU!E70</f>
@@ -14308,15 +14347,15 @@
       </c>
       <c r="J71" s="7" t="str">
         <f>PAU!B71</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K71" s="7" t="str">
         <f>PAU!C71</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L71" s="8">
         <f>PAU!D71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="8" t="str">
         <f>PAU!E71</f>
@@ -14842,15 +14881,15 @@
       </c>
       <c r="J74" s="7" t="str">
         <f>PAU!B74</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K74" s="7" t="str">
         <f>PAU!C74</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L74" s="8">
         <f>PAU!D74</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="8" t="str">
         <f>PAU!E74</f>
@@ -15376,15 +15415,15 @@
       </c>
       <c r="J77" s="7" t="str">
         <f>PAU!B77</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K77" s="7" t="str">
         <f>PAU!C77</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L77" s="8">
         <f>PAU!D77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="8" t="str">
         <f>PAU!E77</f>
@@ -20716,15 +20755,15 @@
       </c>
       <c r="J107" s="7" t="str">
         <f>PAU!B107</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K107" s="7" t="str">
         <f>PAU!C107</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L107" s="8">
         <f>PAU!D107</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="8" t="str">
         <f>PAU!E107</f>
@@ -20894,15 +20933,15 @@
       </c>
       <c r="J108" s="7" t="str">
         <f>PAU!B108</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K108" s="7" t="str">
         <f>PAU!C108</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L108" s="8">
         <f>PAU!D108</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="8" t="str">
         <f>PAU!E108</f>
@@ -21072,15 +21111,15 @@
       </c>
       <c r="J109" s="7" t="str">
         <f>PAU!B109</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K109" s="7" t="str">
         <f>PAU!C109</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L109" s="8">
         <f>PAU!D109</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="8" t="str">
         <f>PAU!E109</f>
@@ -21428,15 +21467,15 @@
       </c>
       <c r="J111" s="7" t="str">
         <f>PAU!B111</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K111" s="7" t="str">
         <f>PAU!C111</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L111" s="8">
         <f>PAU!D111</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="8" t="str">
         <f>PAU!E111</f>
@@ -21606,15 +21645,15 @@
       </c>
       <c r="J112" s="7" t="str">
         <f>PAU!B112</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K112" s="7" t="str">
         <f>PAU!C112</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L112" s="8">
         <f>PAU!D112</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="8" t="str">
         <f>PAU!E112</f>
@@ -22024,13 +22063,13 @@
         <f>REG!C114</f>
         <v>0</v>
       </c>
-      <c r="Z114" s="8">
+      <c r="Z114" s="8" t="str">
         <f>REG!D114</f>
-        <v>0</v>
-      </c>
-      <c r="AA114" s="8">
+        <v>RegASelCmd_Rn</v>
+      </c>
+      <c r="AA114" s="8" t="str">
         <f>REG!E114</f>
-        <v>0</v>
+        <v>RegBSelCmd_Rn</v>
       </c>
       <c r="AB114" s="8" t="str">
         <f>REG!F114</f>
@@ -22078,7 +22117,7 @@
       </c>
       <c r="AM114" t="str">
         <f>CU!B114</f>
-        <v>WaitForFetch2_R_RTE</v>
+        <v>RTE_PopSR</v>
       </c>
       <c r="AN114" s="4">
         <f>CU!C114</f>
@@ -22092,9 +22131,9 @@
         <f>CU!E114</f>
         <v>TempRegSel_DataBus</v>
       </c>
-      <c r="AQ114" s="8" t="str">
+      <c r="AQ114" s="8">
         <f>CU!F114</f>
-        <v>SRSel_Tmp2</v>
+        <v>0</v>
       </c>
       <c r="AR114" s="8">
         <f>CU!G114</f>
@@ -22852,15 +22891,15 @@
       </c>
       <c r="J119" s="7" t="str">
         <f>PAU!B119</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K119" s="7" t="str">
         <f>PAU!C119</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L119" s="8">
         <f>PAU!D119</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="8" t="str">
         <f>PAU!E119</f>
@@ -23030,15 +23069,15 @@
       </c>
       <c r="J120" s="7" t="str">
         <f>PAU!B120</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K120" s="7" t="str">
         <f>PAU!C120</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L120" s="8">
         <f>PAU!D120</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" s="8" t="str">
         <f>PAU!E120</f>
@@ -23208,15 +23247,15 @@
       </c>
       <c r="J121" s="7" t="str">
         <f>PAU!B121</f>
-        <v>unused</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K121" s="7" t="str">
         <f>PAU!C121</f>
-        <v>unused</v>
+        <v>PAU_OffsetWord</v>
       </c>
       <c r="L121" s="8">
         <f>PAU!D121</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" s="8" t="str">
         <f>PAU!E121</f>
@@ -23572,7 +23611,7 @@
       </c>
       <c r="L123" s="8">
         <f>PAU!D123</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" s="8" t="str">
         <f>PAU!E123</f>
@@ -23858,7 +23897,7 @@
       </c>
       <c r="AM124" t="str">
         <f>CU!B124</f>
-        <v>WaitForFetch3</v>
+        <v>TRAPA_PushPC</v>
       </c>
       <c r="AN124" s="4">
         <f>CU!C124</f>
@@ -24077,7 +24116,7 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -27736,8 +27775,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A103" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27749,6 +27788,7 @@
     <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27808,13 +27848,13 @@
         <v>218</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>216</v>
@@ -27834,13 +27874,13 @@
         <v>219</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>216</v>
@@ -27886,13 +27926,13 @@
         <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>216</v>
@@ -27912,13 +27952,13 @@
         <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>216</v>
@@ -27938,13 +27978,13 @@
         <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>216</v>
@@ -27964,13 +28004,13 @@
         <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>216</v>
@@ -27990,13 +28030,13 @@
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>216</v>
@@ -28016,13 +28056,13 @@
         <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>216</v>
@@ -28042,13 +28082,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>216</v>
@@ -28068,13 +28108,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>216</v>
@@ -28094,13 +28134,13 @@
         <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>216</v>
@@ -28120,13 +28160,13 @@
         <v>69</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>216</v>
@@ -28146,13 +28186,13 @@
         <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>216</v>
@@ -28172,13 +28212,13 @@
         <v>71</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>216</v>
@@ -28198,13 +28238,13 @@
         <v>72</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>216</v>
@@ -28224,13 +28264,13 @@
         <v>73</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>216</v>
@@ -28250,13 +28290,13 @@
         <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>216</v>
@@ -28276,13 +28316,13 @@
         <v>75</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>216</v>
@@ -28302,13 +28342,13 @@
         <v>76</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>216</v>
@@ -28328,13 +28368,13 @@
         <v>77</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>216</v>
@@ -28354,13 +28394,13 @@
         <v>78</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>216</v>
@@ -28380,13 +28420,13 @@
         <v>79</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>216</v>
@@ -28406,13 +28446,13 @@
         <v>80</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>216</v>
@@ -28432,13 +28472,13 @@
         <v>81</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>216</v>
@@ -28458,13 +28498,13 @@
         <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>216</v>
@@ -28484,13 +28524,13 @@
         <v>83</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>216</v>
@@ -28510,13 +28550,13 @@
         <v>84</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>216</v>
@@ -28536,13 +28576,13 @@
         <v>85</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>216</v>
@@ -28562,13 +28602,13 @@
         <v>86</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>216</v>
@@ -28588,13 +28628,13 @@
         <v>87</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>216</v>
@@ -28614,13 +28654,13 @@
         <v>88</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>216</v>
@@ -28640,13 +28680,13 @@
         <v>89</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>216</v>
@@ -28671,7 +28711,7 @@
       <c r="C36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="8">
         <v>1</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -29446,13 +29486,13 @@
         <v>141</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D66" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>216</v>
@@ -29550,13 +29590,13 @@
         <v>146</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>216</v>
@@ -29576,13 +29616,13 @@
         <v>147</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>216</v>
@@ -29654,13 +29694,13 @@
         <v>152</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>216</v>
@@ -29732,13 +29772,13 @@
         <v>156</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>216</v>
@@ -30512,13 +30552,13 @@
         <v>194</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>216</v>
@@ -30538,13 +30578,13 @@
         <v>195</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D108" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>216</v>
@@ -30564,13 +30604,13 @@
         <v>196</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D109" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>216</v>
@@ -30616,13 +30656,13 @@
         <v>198</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D111" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>225</v>
@@ -30642,13 +30682,13 @@
         <v>226</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D112" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>216</v>
@@ -30824,13 +30864,13 @@
         <v>233</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D119" s="8">
+        <v>1</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>216</v>
@@ -30850,13 +30890,13 @@
         <v>234</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D120" s="8">
+        <v>1</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>216</v>
@@ -30876,13 +30916,13 @@
         <v>235</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D121" s="19">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="D121" s="8">
+        <v>1</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>216</v>
@@ -30934,7 +30974,7 @@
         <v>215</v>
       </c>
       <c r="D123" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>216</v>
@@ -31017,7 +31057,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
@@ -34300,7 +34340,7 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
@@ -38231,8 +38271,12 @@
       <c r="C114" s="22">
         <v>0</v>
       </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
+      <c r="D114" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="F114" s="7" t="s">
         <v>293</v>
       </c>
@@ -38580,8 +38624,8 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A105" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38643,7 +38687,7 @@
         <v>300</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>53</v>
@@ -42064,8 +42108,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A103" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44623,19 +44667,16 @@
         <v>228</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
         <v>328</v>
-      </c>
-      <c r="C114" s="3">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
-        <v>329</v>
-      </c>
-      <c r="F114" t="s">
-        <v>330</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -44799,7 +44840,7 @@
         <v>238</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
@@ -44816,7 +44857,7 @@
         <v>44</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -44839,10 +44880,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44867,16 +44908,16 @@
     <col min="22" max="22" width="10.85546875" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" customWidth="1"/>
     <col min="26" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" customWidth="1"/>
     <col min="29" max="29" width="10.85546875" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" customWidth="1"/>
     <col min="31" max="31" width="19.85546875" customWidth="1"/>
     <col min="32" max="33" width="11.28515625" customWidth="1"/>
-    <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" customWidth="1"/>
+    <col min="34" max="34" width="28.42578125" customWidth="1"/>
+    <col min="35" max="35" width="33.28515625" customWidth="1"/>
     <col min="36" max="36" width="11.140625" customWidth="1"/>
     <col min="37" max="37" width="18.7109375" customWidth="1"/>
     <col min="38" max="38" width="17.7109375" customWidth="1"/>
@@ -44888,134 +44929,134 @@
     <col min="16384" max="16384" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:43" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AL1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AM1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AP1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>42</v>
       </c>
     </row>
@@ -45051,10 +45092,10 @@
         <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>216</v>
@@ -45141,13 +45182,13 @@
         <v>217</v>
       </c>
       <c r="AO2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -45272,13 +45313,13 @@
         <v>217</v>
       </c>
       <c r="AO3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -45286,34 +45327,34 @@
         <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J4" t="s">
         <v>214</v>
       </c>
       <c r="K4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -45322,73 +45363,73 @@
         <v>216</v>
       </c>
       <c r="N4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="T4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AB4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AD4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AE4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AF4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AH4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AI4" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="AJ4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -45403,13 +45444,13 @@
         <v>250</v>
       </c>
       <c r="AO4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP4" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="AQ4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -45417,34 +45458,34 @@
         <v>324</v>
       </c>
       <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K5" t="s">
         <v>334</v>
-      </c>
-      <c r="C5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" t="s">
-        <v>334</v>
-      </c>
-      <c r="H5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I5" t="s">
-        <v>334</v>
-      </c>
-      <c r="J5" t="s">
-        <v>336</v>
-      </c>
-      <c r="K5" t="s">
-        <v>337</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -45453,76 +45494,76 @@
         <v>216</v>
       </c>
       <c r="N5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="T5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AB5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AD5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AE5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AF5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AH5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AI5" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="AJ5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="s">
         <v>53</v>
@@ -45534,13 +45575,13 @@
         <v>217</v>
       </c>
       <c r="AO5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -45548,34 +45589,34 @@
         <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -45584,76 +45625,76 @@
         <v>216</v>
       </c>
       <c r="N6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="T6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AB6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AD6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AE6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AF6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AH6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AI6" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="AJ6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="s">
         <v>53</v>
@@ -45665,48 +45706,48 @@
         <v>217</v>
       </c>
       <c r="AO6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -45718,46 +45759,46 @@
         <v>262</v>
       </c>
       <c r="O7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R7" t="s">
         <v>217</v>
       </c>
       <c r="S7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="T7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AB7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -45769,19 +45810,19 @@
         <v>302</v>
       </c>
       <c r="AF7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AH7" t="s">
         <v>304</v>
       </c>
       <c r="AI7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AJ7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -45796,18 +45837,18 @@
         <v>250</v>
       </c>
       <c r="AO7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -45927,13 +45968,13 @@
         <v>217</v>
       </c>
       <c r="AO8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -45941,46 +45982,46 @@
         <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>50</v>
@@ -45998,28 +46039,28 @@
         <v>242</v>
       </c>
       <c r="U9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y9" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AB9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -46031,7 +46072,7 @@
         <v>302</v>
       </c>
       <c r="AF9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG9" t="s">
         <v>305</v>
@@ -46058,144 +46099,144 @@
         <v>217</v>
       </c>
       <c r="AO9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>50</v>
+        <v>331</v>
+      </c>
+      <c r="K10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N10" t="s">
+        <v>246</v>
+      </c>
+      <c r="O10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>250</v>
       </c>
       <c r="S10" t="s">
-        <v>334</v>
+        <v>241</v>
       </c>
       <c r="T10" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="U10" t="s">
-        <v>334</v>
-      </c>
-      <c r="V10" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X10" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="AB10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH10" s="8" t="s">
-        <v>301</v>
+        <v>331</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>304</v>
       </c>
       <c r="AI10" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AL10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AM10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AN10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AO10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -46203,43 +46244,43 @@
         <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>240</v>
       </c>
       <c r="L11" s="8">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>245</v>
@@ -46254,34 +46295,34 @@
         <v>217</v>
       </c>
       <c r="S11" t="s">
-        <v>334</v>
+        <v>241</v>
       </c>
       <c r="T11" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="U11" t="s">
-        <v>334</v>
-      </c>
-      <c r="V11" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X11" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="AB11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC11" s="19">
         <v>0</v>
@@ -46290,284 +46331,284 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="AF11" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="AG11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AH11" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="AI11" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>334</v>
+        <v>314</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
       </c>
       <c r="AK11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AL11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AM11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AN11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AO11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
         <v>331</v>
       </c>
-      <c r="B12" t="s">
-        <v>334</v>
-      </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I12" t="s">
-        <v>334</v>
-      </c>
-      <c r="J12" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="K12" t="s">
-        <v>334</v>
-      </c>
-      <c r="L12" t="s">
-        <v>334</v>
+        <v>240</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>334</v>
-      </c>
-      <c r="N12" t="s">
-        <v>334</v>
-      </c>
-      <c r="O12" t="s">
-        <v>334</v>
-      </c>
-      <c r="P12" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>334</v>
-      </c>
-      <c r="R12" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="T12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U12" t="s">
-        <v>334</v>
-      </c>
-      <c r="V12" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X12" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="AB12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="AC12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="19">
+        <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="AF12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG12" s="8" t="s">
-        <v>346</v>
+        <v>331</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>331</v>
       </c>
       <c r="AH12" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="AI12" t="s">
-        <v>344</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>334</v>
+        <v>323</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AM12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AN12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
       </c>
       <c r="AP12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H13" t="s">
-        <v>334</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>331</v>
+      </c>
+      <c r="I13" t="s">
+        <v>331</v>
       </c>
       <c r="J13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>216</v>
       </c>
       <c r="N13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="T13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U13" t="s">
-        <v>334</v>
-      </c>
-      <c r="V13" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X13" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AB13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AD13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AE13" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="AF13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AH13" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="AI13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ13">
-        <v>1</v>
+        <v>331</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>331</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -46576,325 +46617,63 @@
         <v>53</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" t="s">
-        <v>334</v>
-      </c>
-      <c r="E14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F14" t="s">
-        <v>334</v>
-      </c>
-      <c r="G14" t="s">
-        <v>334</v>
-      </c>
-      <c r="H14" t="s">
-        <v>334</v>
-      </c>
-      <c r="I14" t="s">
-        <v>334</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>334</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U14" t="s">
-        <v>334</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>334</v>
-      </c>
-      <c r="X14" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>334</v>
+        <v>217</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I15" t="s">
-        <v>334</v>
-      </c>
-      <c r="J15" t="s">
-        <v>334</v>
-      </c>
-      <c r="K15" t="s">
-        <v>334</v>
-      </c>
-      <c r="L15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M15" t="s">
-        <v>334</v>
-      </c>
-      <c r="N15" t="s">
-        <v>334</v>
-      </c>
-      <c r="O15" t="s">
-        <v>334</v>
-      </c>
-      <c r="P15" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>334</v>
-      </c>
-      <c r="R15" t="s">
-        <v>334</v>
-      </c>
-      <c r="S15" t="s">
-        <v>334</v>
-      </c>
-      <c r="T15" t="s">
-        <v>334</v>
-      </c>
-      <c r="U15" t="s">
-        <v>334</v>
-      </c>
-      <c r="V15" t="s">
-        <v>334</v>
-      </c>
-      <c r="W15" t="s">
-        <v>334</v>
-      </c>
-      <c r="X15" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG15" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/HW2/autogen/CUSignals.xlsx
+++ b/HW2/autogen/CUSignals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01E04C-D8AE-43FD-8D4D-5D28DABA9A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208BA8D8-475C-45E2-A0A5-63C8C5DB21B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1883,7 +1883,7 @@
   </sheetPr>
   <dimension ref="A1:AS126"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AL124" sqref="AL124"/>
     </sheetView>
@@ -45795,8 +45795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
